--- a/01_studieplan_och_schema.xlsx
+++ b/01_studieplan_och_schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordaxon-my.sharepoint.com/personal/melina_katkic_nordaxon_com/Documents/NORDAXON/AI ML LEARN/AI ML YRKESUTBULDNINGAR/EC EDUCATION - DATA SCIENTIST - HT21 &amp; VT22/01. Python för Maskininlärning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsabellaGagner\Documents\Programming-projects\ec-python-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1561" documentId="10_ncr:40000_{39BE25D8-5F23-40FF-ADBA-89AAEF2D4EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEACFFAB-21D3-457F-8AB7-AE38B9D67C5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4953F21E-DA53-4FA1-9040-D04A0477851C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4014" yWindow="8544" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema - Python" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="180">
   <si>
     <t>Utbildning: Data Scientist</t>
   </si>
@@ -336,12 +336,6 @@
     <t>Uppgifter på OOP: Klasser för nåt kategoriskt(typ Fordon, buss, bil), samt Point</t>
   </si>
   <si>
-    <t>Splitta test/train/val dataset manuellt kanske?</t>
-  </si>
-  <si>
-    <t>Klassiska övningar från vår Javakurs</t>
-  </si>
-  <si>
     <t>Python Data Science Handbook</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
     <t>Vscode debugger</t>
   </si>
   <si>
-    <t>Nämna hur numpy, pandas, matplotlib kommer att läsas in under kursen</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -531,9 +522,6 @@
     <t>Presentation av grupparbete</t>
   </si>
   <si>
-    <t>Numpy vs lists: https://www.geeksforgeeks.org/python-lists-vs-numpy-arrays/</t>
-  </si>
-  <si>
     <t>WTP Notebooks 1-2, sätta upp en fungerande environment</t>
   </si>
   <si>
@@ -580,6 +568,18 @@
   </si>
   <si>
     <t>UML-diagram, OOP repetition</t>
+  </si>
+  <si>
+    <t>PDS 04.01, PDS 04.05</t>
+  </si>
+  <si>
+    <t>PDS 02.02</t>
+  </si>
+  <si>
+    <t>https://www.pythonpool.com/python-shutil/, https://realpython.com/python-pathlib/</t>
+  </si>
+  <si>
+    <t>https://realpython.com/python-f-strings/#f-strings-a-new-and-improved-way-to-format-strings-in-python</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-41D]dd/mmm;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,14 +707,6 @@
     <font>
       <sz val="10"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1000,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1352,8 +1344,200 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1385,211 +1569,55 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1600,53 +1628,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2021,30 +2016,30 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17:J18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="45"/>
-    <col min="2" max="2" width="8.26171875" style="68" customWidth="1"/>
-    <col min="3" max="3" width="11.15625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="10.62890625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="8.7890625" style="122" customWidth="1"/>
-    <col min="6" max="6" width="20.3671875" style="34" customWidth="1"/>
-    <col min="7" max="7" width="29.62890625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="12.5234375" style="34" customWidth="1"/>
-    <col min="9" max="9" width="18.1015625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="13.15625" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.734375" style="34" customWidth="1"/>
-    <col min="12" max="12" width="17.1015625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="19.3671875" style="34" customWidth="1"/>
-    <col min="14" max="14" width="76.26171875" style="34" customWidth="1"/>
-    <col min="15" max="16384" width="9.15625" style="34"/>
+    <col min="1" max="1" width="9.109375" style="45"/>
+    <col min="2" max="2" width="8.21875" style="68" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="122" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="34" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" style="34" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="34" customWidth="1"/>
+    <col min="14" max="14" width="76.21875" style="34" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="33" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>2</v>
       </c>
@@ -2058,7 +2053,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>3</v>
@@ -2076,7 +2071,7 @@
         <v>43</v>
       </c>
       <c r="K1" s="73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L1" s="73" t="s">
         <v>36</v>
@@ -2086,8 +2081,8 @@
       </c>
       <c r="N1" s="74"/>
     </row>
-    <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="143" t="s">
+    <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="154" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="75">
@@ -2108,12 +2103,12 @@
       <c r="M2" s="48"/>
       <c r="N2" s="77"/>
     </row>
-    <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="143"/>
-      <c r="B3" s="163">
+    <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="154"/>
+      <c r="B3" s="183">
         <v>44432</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="182" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2131,10 +2126,10 @@
       <c r="H3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="162" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="162" t="s">
+      <c r="I3" s="182" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="182" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="79"/>
@@ -2144,14 +2139,12 @@
       <c r="M3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="143"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="162"/>
+      <c r="N3" s="77"/>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="154"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="182"/>
       <c r="D4" s="51" t="s">
         <v>22</v>
       </c>
@@ -2167,21 +2160,19 @@
       <c r="H4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
       <c r="K4" s="79"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="143"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="162"/>
+        <v>143</v>
+      </c>
+      <c r="N4" s="77"/>
+    </row>
+    <row r="5" spans="1:14" ht="27.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="154"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="182"/>
       <c r="D5" s="51" t="s">
         <v>58</v>
       </c>
@@ -2192,13 +2183,13 @@
         <v>66</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
       <c r="K5" s="79"/>
       <c r="L5" s="51" t="s">
         <v>38</v>
@@ -2208,12 +2199,12 @@
       </c>
       <c r="N5" s="77"/>
     </row>
-    <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="143"/>
-      <c r="B6" s="165">
+    <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="154"/>
+      <c r="B6" s="185">
         <v>44433</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="189" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -2231,23 +2222,23 @@
       <c r="H6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="158" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="158" t="s">
+      <c r="I6" s="178" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="178" t="s">
         <v>48</v>
       </c>
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
       <c r="M6" s="55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N6" s="77"/>
     </row>
-    <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="143"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="149"/>
+    <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="154"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="189"/>
       <c r="D7" s="55" t="s">
         <v>59</v>
       </c>
@@ -2259,17 +2250,17 @@
       <c r="H7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
       <c r="K7" s="56"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N7" s="77"/>
     </row>
-    <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="143"/>
+    <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="154"/>
       <c r="B8" s="78">
         <v>44434</v>
       </c>
@@ -2288,24 +2279,24 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" s="51"/>
       <c r="M8" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N8" s="77"/>
     </row>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="143"/>
-      <c r="B9" s="165">
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="154"/>
+      <c r="B9" s="185">
         <v>44435</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="189" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -2318,30 +2309,30 @@
         <v>67</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="158" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="158" t="s">
-        <v>149</v>
+      <c r="I9" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="178" t="s">
+        <v>146</v>
       </c>
       <c r="K9" s="56"/>
-      <c r="L9" s="190" t="s">
-        <v>155</v>
+      <c r="L9" s="129" t="s">
+        <v>152</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N9" s="77"/>
     </row>
-    <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="143"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="149"/>
+    <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="154"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="189"/>
       <c r="D10" s="55" t="s">
         <v>63</v>
       </c>
@@ -2353,16 +2344,16 @@
       <c r="H10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="191"/>
+      <c r="L10" s="130"/>
       <c r="M10" s="55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N10" s="77"/>
     </row>
-    <row r="11" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80"/>
       <c r="B11" s="81"/>
       <c r="C11" s="82"/>
@@ -2381,14 +2372,14 @@
       <c r="M11" s="58"/>
       <c r="N11" s="77"/>
     </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="143" t="s">
+    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="141">
+      <c r="B12" s="158">
         <v>44438</v>
       </c>
-      <c r="C12" s="152" t="s">
+      <c r="C12" s="172" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -2401,30 +2392,30 @@
         <v>28</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I12" s="138" t="s">
-        <v>167</v>
-      </c>
-      <c r="J12" s="138" t="s">
-        <v>168</v>
-      </c>
-      <c r="K12" s="133" t="s">
         <v>127</v>
+      </c>
+      <c r="I12" s="135" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" s="135" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="197" t="s">
+        <v>124</v>
       </c>
       <c r="L12" s="53"/>
       <c r="M12" s="53" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N12" s="77"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="144"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="155"/>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="155"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="50" t="s">
         <v>63</v>
       </c>
@@ -2436,21 +2427,21 @@
       <c r="H13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="134"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="198"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N13" s="77"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="144"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="155"/>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="155"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" s="116">
         <v>1</v>
@@ -2460,19 +2451,19 @@
       <c r="H14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="134"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="198"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N14" s="77"/>
     </row>
-    <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="144"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="156"/>
+    <row r="15" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="155"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
@@ -2483,22 +2474,22 @@
         <v>68</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="135"/>
+        <v>128</v>
+      </c>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="199"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N15" s="77"/>
     </row>
-    <row r="16" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="144"/>
+    <row r="16" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="155"/>
       <c r="B16" s="75">
         <v>44439</v>
       </c>
@@ -2511,22 +2502,22 @@
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
       <c r="I16" s="114" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="127" t="s">
-        <v>163</v>
+        <v>150</v>
+      </c>
+      <c r="J16" s="226" t="s">
+        <v>177</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="77"/>
     </row>
-    <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="144"/>
-      <c r="B17" s="164">
+    <row r="17" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="155"/>
+      <c r="B17" s="148">
         <v>44440</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="163" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="55" t="s">
@@ -2539,26 +2530,28 @@
         <v>69</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H17" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="190" t="s">
+      <c r="I17" s="129" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="J17" s="190"/>
       <c r="K17" s="95"/>
-      <c r="L17" s="190"/>
+      <c r="L17" s="129"/>
       <c r="M17" s="55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N17" s="77"/>
     </row>
-    <row r="18" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="144"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="151"/>
+    <row r="18" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="155"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="171"/>
       <c r="D18" s="55" t="s">
         <v>59</v>
       </c>
@@ -2572,21 +2565,21 @@
       <c r="H18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="191"/>
-      <c r="J18" s="191"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="191"/>
+      <c r="L18" s="130"/>
       <c r="M18" s="55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N18" s="77"/>
     </row>
-    <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="144"/>
-      <c r="B19" s="141">
+    <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="155"/>
+      <c r="B19" s="158">
         <v>44441</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="172" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -2600,39 +2593,41 @@
         <v>14</v>
       </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="192" t="s">
-        <v>172</v>
-      </c>
-      <c r="J19" s="192"/>
+      <c r="I19" s="131" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="131" t="s">
+        <v>178</v>
+      </c>
       <c r="K19" s="93"/>
-      <c r="L19" s="192"/>
+      <c r="L19" s="131"/>
       <c r="M19" s="51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N19" s="77"/>
     </row>
-    <row r="20" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="144"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="153"/>
+    <row r="20" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="155"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="51"/>
       <c r="E20" s="61"/>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
       <c r="K20" s="94"/>
-      <c r="L20" s="193"/>
+      <c r="L20" s="132"/>
       <c r="M20" s="51"/>
       <c r="N20" s="77"/>
     </row>
-    <row r="21" spans="1:14" ht="38.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="144"/>
-      <c r="B21" s="147">
+    <row r="21" spans="1:14" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="155"/>
+      <c r="B21" s="188">
         <v>44442</v>
       </c>
-      <c r="C21" s="154" t="s">
+      <c r="C21" s="170" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -2645,28 +2640,28 @@
         <v>78</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="190" t="s">
-        <v>177</v>
-      </c>
-      <c r="J21" s="55"/>
+        <v>129</v>
+      </c>
+      <c r="I21" s="129" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="227" t="s">
+        <v>179</v>
+      </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
       <c r="M21" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21" s="77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="145"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="151"/>
+        <v>143</v>
+      </c>
+      <c r="N21" s="77"/>
+    </row>
+    <row r="22" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="187"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="171"/>
       <c r="D22" s="55" t="s">
         <v>63</v>
       </c>
@@ -2678,16 +2673,16 @@
       <c r="H22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="191"/>
+      <c r="I22" s="130"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
       <c r="M22" s="55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N22" s="77"/>
     </row>
-    <row r="23" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="84"/>
       <c r="B23" s="85"/>
       <c r="C23" s="86"/>
@@ -2706,14 +2701,14 @@
       <c r="M23" s="48"/>
       <c r="N23" s="77"/>
     </row>
-    <row r="24" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="167" t="s">
+    <row r="24" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="141">
+      <c r="B24" s="158">
         <v>44445</v>
       </c>
-      <c r="C24" s="152" t="s">
+      <c r="C24" s="172" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -2731,23 +2726,23 @@
       <c r="H24" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="192" t="s">
-        <v>158</v>
-      </c>
-      <c r="J24" s="192"/>
-      <c r="K24" s="128" t="s">
-        <v>121</v>
+      <c r="I24" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="131"/>
+      <c r="K24" s="192" t="s">
+        <v>118</v>
       </c>
       <c r="L24" s="51"/>
       <c r="M24" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N24" s="77"/>
     </row>
-    <row r="25" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="143"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="155"/>
+    <row r="25" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="154"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="173"/>
       <c r="D25" s="51" t="s">
         <v>82</v>
       </c>
@@ -2761,21 +2756,21 @@
       <c r="H25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="198"/>
-      <c r="J25" s="198"/>
-      <c r="K25" s="129"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="193"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N25" s="77"/>
     </row>
-    <row r="26" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="143"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="155"/>
+    <row r="26" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="154"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="173"/>
       <c r="D26" s="51" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E26" s="61">
         <v>1</v>
@@ -2787,19 +2782,19 @@
       <c r="H26" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="198"/>
-      <c r="J26" s="198"/>
-      <c r="K26" s="129"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="193"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N26" s="77"/>
     </row>
-    <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="143"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="155"/>
+    <row r="27" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="154"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="173"/>
       <c r="D27" s="51" t="s">
         <v>30</v>
       </c>
@@ -2815,17 +2810,17 @@
       <c r="H27" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="198"/>
-      <c r="J27" s="198"/>
-      <c r="K27" s="130"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="194"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N27" s="77"/>
     </row>
-    <row r="28" spans="1:14" s="69" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="144"/>
+    <row r="28" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="155"/>
       <c r="B28" s="75">
         <v>44446</v>
       </c>
@@ -2844,16 +2839,13 @@
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
-      <c r="N28" s="69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="144"/>
-      <c r="B29" s="164">
+    </row>
+    <row r="29" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="155"/>
+      <c r="B29" s="148">
         <v>44447</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="163" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -2871,25 +2863,25 @@
       <c r="H29" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="190" t="s">
-        <v>104</v>
-      </c>
-      <c r="J29" s="190" t="s">
+      <c r="I29" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="K29" s="136" t="s">
-        <v>128</v>
+      <c r="J29" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="200" t="s">
+        <v>125</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N29" s="77"/>
     </row>
-    <row r="30" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="144"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="168"/>
+    <row r="30" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="155"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="55" t="s">
         <v>59</v>
       </c>
@@ -2903,17 +2895,17 @@
       <c r="H30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="191"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="137"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="201"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="144"/>
+    <row r="31" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="155"/>
       <c r="B31" s="88">
         <v>44448</v>
       </c>
@@ -2936,16 +2928,16 @@
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
       <c r="M31" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N31" s="77"/>
     </row>
-    <row r="32" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="144"/>
-      <c r="B32" s="164">
+    <row r="32" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="155"/>
+      <c r="B32" s="148">
         <v>44449</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="170" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="55" t="s">
@@ -2963,19 +2955,19 @@
       <c r="H32" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="190" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32" s="190"/>
+      <c r="I32" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="129"/>
       <c r="K32" s="95"/>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="77"/>
     </row>
-    <row r="33" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="144"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="151"/>
+    <row r="33" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="155"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="171"/>
       <c r="D33" s="55" t="s">
         <v>63</v>
       </c>
@@ -2989,14 +2981,14 @@
       <c r="H33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="191"/>
-      <c r="J33" s="191"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
       <c r="K33" s="96"/>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
       <c r="N33" s="77"/>
     </row>
-    <row r="34" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="89"/>
       <c r="B34" s="85"/>
       <c r="C34" s="86"/>
@@ -3015,14 +3007,14 @@
       <c r="M34" s="48"/>
       <c r="N34" s="77"/>
     </row>
-    <row r="35" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="167" t="s">
+    <row r="35" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="141">
+      <c r="B35" s="158">
         <v>44452</v>
       </c>
-      <c r="C35" s="152" t="s">
+      <c r="C35" s="172" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="52" t="s">
@@ -3035,29 +3027,29 @@
         <v>29</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="138" t="s">
+      <c r="I35" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="202" t="s">
-        <v>159</v>
-      </c>
-      <c r="K35" s="138" t="s">
-        <v>129</v>
+      <c r="J35" s="134" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" s="135" t="s">
+        <v>126</v>
       </c>
       <c r="L35" s="51"/>
       <c r="M35" s="51" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="143"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="155"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="154"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="173"/>
       <c r="D36" s="50" t="s">
         <v>63</v>
       </c>
@@ -3065,55 +3057,55 @@
         <v>1</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G36" s="51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="139"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="139"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="136"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N36" s="77"/>
     </row>
-    <row r="37" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="143"/>
-      <c r="B37" s="142"/>
-      <c r="C37" s="155"/>
+    <row r="37" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="154"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="173"/>
       <c r="D37" s="50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E37" s="116">
         <v>1</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G37" s="51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H37" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="139"/>
-      <c r="J37" s="198"/>
-      <c r="K37" s="139"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="136"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N37" s="77"/>
     </row>
-    <row r="38" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="143"/>
-      <c r="B38" s="146"/>
-      <c r="C38" s="153"/>
+    <row r="38" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="154"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="174"/>
       <c r="D38" s="50" t="s">
         <v>30</v>
       </c>
@@ -3124,22 +3116,22 @@
         <v>29</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="I38" s="140"/>
-      <c r="J38" s="193"/>
-      <c r="K38" s="140"/>
+        <v>130</v>
+      </c>
+      <c r="I38" s="137"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="137"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N38" s="77"/>
     </row>
-    <row r="39" spans="1:14" s="69" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="144"/>
+    <row r="39" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="155"/>
       <c r="B39" s="90">
         <v>44453</v>
       </c>
@@ -3158,12 +3150,12 @@
       <c r="M39" s="48"/>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="144"/>
-      <c r="B40" s="164">
+    <row r="40" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="155"/>
+      <c r="B40" s="148">
         <v>44454</v>
       </c>
-      <c r="C40" s="150" t="s">
+      <c r="C40" s="163" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="55" t="s">
@@ -3176,23 +3168,23 @@
         <v>76</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" s="190"/>
-      <c r="J40" s="190"/>
+        <v>131</v>
+      </c>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
       <c r="K40" s="95"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="144"/>
-      <c r="B41" s="182"/>
-      <c r="C41" s="168"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="155"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="164"/>
       <c r="D41" s="55" t="s">
         <v>59</v>
       </c>
@@ -3204,17 +3196,17 @@
       <c r="H41" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="191"/>
-      <c r="J41" s="191"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
       <c r="K41" s="96"/>
       <c r="L41" s="55"/>
       <c r="M41" s="55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N41" s="77"/>
     </row>
-    <row r="42" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="144"/>
+    <row r="42" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="155"/>
       <c r="B42" s="88">
         <v>44455</v>
       </c>
@@ -3237,16 +3229,16 @@
       <c r="K42" s="51"/>
       <c r="L42" s="51"/>
       <c r="M42" s="51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N42" s="77"/>
     </row>
-    <row r="43" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="144"/>
-      <c r="B43" s="165">
+    <row r="43" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="155"/>
+      <c r="B43" s="185">
         <v>44456</v>
       </c>
-      <c r="C43" s="174" t="s">
+      <c r="C43" s="175" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="55" t="s">
@@ -3259,26 +3251,26 @@
         <v>76</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="190"/>
-      <c r="J43" s="190"/>
-      <c r="K43" s="131" t="s">
-        <v>122</v>
+        <v>132</v>
+      </c>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="195" t="s">
+        <v>119</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N43" s="77"/>
     </row>
-    <row r="44" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="144"/>
-      <c r="B44" s="166"/>
-      <c r="C44" s="174"/>
+    <row r="44" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="155"/>
+      <c r="B44" s="186"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="55" t="s">
         <v>63</v>
       </c>
@@ -3290,16 +3282,16 @@
       <c r="H44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="191"/>
-      <c r="J44" s="191"/>
-      <c r="K44" s="132"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="196"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N44" s="77"/>
     </row>
-    <row r="45" spans="1:14" s="69" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="107"/>
       <c r="B45" s="100"/>
       <c r="C45" s="59"/>
@@ -3317,14 +3309,14 @@
       <c r="L45" s="47"/>
       <c r="M45" s="47"/>
     </row>
-    <row r="46" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="177" t="s">
+    <row r="46" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="183">
+      <c r="B46" s="150">
         <v>44459</v>
       </c>
-      <c r="C46" s="175" t="s">
+      <c r="C46" s="176" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="52" t="s">
@@ -3334,26 +3326,26 @@
         <v>2</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="I46" s="192"/>
-      <c r="J46" s="194"/>
+        <v>133</v>
+      </c>
+      <c r="I46" s="131"/>
+      <c r="J46" s="138"/>
       <c r="K46" s="62"/>
       <c r="L46" s="50"/>
       <c r="M46" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="178"/>
-      <c r="B47" s="183"/>
-      <c r="C47" s="175"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="144"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="176"/>
       <c r="D47" s="50" t="s">
         <v>63</v>
       </c>
@@ -3365,20 +3357,20 @@
       <c r="H47" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="198"/>
-      <c r="J47" s="199"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="140"/>
       <c r="K47" s="63"/>
       <c r="L47" s="50"/>
       <c r="M47" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="178"/>
-      <c r="B48" s="183"/>
-      <c r="C48" s="175"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="144"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="176"/>
       <c r="D48" s="50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E48" s="116">
         <v>1</v>
@@ -3388,18 +3380,18 @@
       <c r="H48" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="198"/>
-      <c r="J48" s="199"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="140"/>
       <c r="K48" s="63"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="178"/>
-      <c r="B49" s="183"/>
-      <c r="C49" s="175"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="144"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="176"/>
       <c r="D49" s="50" t="s">
         <v>30</v>
       </c>
@@ -3415,16 +3407,16 @@
       <c r="H49" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="193"/>
-      <c r="J49" s="195"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="139"/>
       <c r="K49" s="64"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="69" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="178"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="144"/>
       <c r="B50" s="66">
         <v>44460</v>
       </c>
@@ -3442,12 +3434,12 @@
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
     </row>
-    <row r="51" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="178"/>
-      <c r="B51" s="184">
+    <row r="51" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="144"/>
+      <c r="B51" s="151">
         <v>44461</v>
       </c>
-      <c r="C51" s="170" t="s">
+      <c r="C51" s="166" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="54" t="s">
@@ -3463,22 +3455,22 @@
         <v>93</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="I51" s="190" t="s">
-        <v>103</v>
-      </c>
-      <c r="J51" s="200"/>
+        <v>134</v>
+      </c>
+      <c r="I51" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="J51" s="141"/>
       <c r="K51" s="98"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="178"/>
-      <c r="B52" s="185"/>
-      <c r="C52" s="171"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="144"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="167"/>
       <c r="D52" s="54" t="s">
         <v>59</v>
       </c>
@@ -3490,16 +3482,16 @@
       <c r="H52" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="191"/>
-      <c r="J52" s="201"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="142"/>
       <c r="K52" s="99"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="178"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="144"/>
       <c r="B53" s="67">
         <v>44462</v>
       </c>
@@ -3507,7 +3499,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E53" s="116">
         <v>4</v>
@@ -3522,15 +3514,15 @@
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
       <c r="M53" s="50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="178"/>
-      <c r="B54" s="186">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="144"/>
+      <c r="B54" s="156">
         <v>44463</v>
       </c>
-      <c r="C54" s="172" t="s">
+      <c r="C54" s="168" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="54" t="s">
@@ -3540,28 +3532,28 @@
         <v>2</v>
       </c>
       <c r="F54" s="54" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G54" s="54" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H54" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="I54" s="190"/>
-      <c r="J54" s="200"/>
+        <v>135</v>
+      </c>
+      <c r="I54" s="129"/>
+      <c r="J54" s="141"/>
       <c r="K54" s="98"/>
       <c r="L54" s="55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M54" s="54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="179"/>
-      <c r="B55" s="187"/>
-      <c r="C55" s="173"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="145"/>
+      <c r="B55" s="157"/>
+      <c r="C55" s="169"/>
       <c r="D55" s="54" t="s">
         <v>63</v>
       </c>
@@ -3573,15 +3565,15 @@
       <c r="H55" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="191"/>
-      <c r="J55" s="201"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="142"/>
       <c r="K55" s="99"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="69" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="103"/>
       <c r="B56" s="100"/>
       <c r="C56" s="102"/>
@@ -3599,14 +3591,14 @@
       <c r="L56" s="47"/>
       <c r="M56" s="47"/>
     </row>
-    <row r="57" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="180" t="s">
+    <row r="57" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="188">
+      <c r="B57" s="161">
         <v>44466</v>
       </c>
-      <c r="C57" s="176" t="s">
+      <c r="C57" s="177" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="50" t="s">
@@ -3616,28 +3608,28 @@
         <v>2</v>
       </c>
       <c r="F57" s="50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G57" s="51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H57" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="I57" s="194"/>
-      <c r="J57" s="194"/>
+        <v>136</v>
+      </c>
+      <c r="I57" s="138"/>
+      <c r="J57" s="138"/>
       <c r="K57" s="62"/>
       <c r="L57" s="50"/>
       <c r="M57" s="50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="181"/>
-      <c r="B58" s="189"/>
-      <c r="C58" s="176"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="147"/>
+      <c r="B58" s="162"/>
+      <c r="C58" s="177"/>
       <c r="D58" s="50" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E58" s="116">
         <v>3</v>
@@ -3647,16 +3639,16 @@
         <v>14</v>
       </c>
       <c r="H58" s="97"/>
-      <c r="I58" s="195"/>
-      <c r="J58" s="195"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="139"/>
       <c r="K58" s="64"/>
       <c r="L58" s="97"/>
       <c r="M58" s="97" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="69" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="181"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="69" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="147"/>
       <c r="B59" s="66">
         <v>44467</v>
       </c>
@@ -3671,60 +3663,60 @@
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
       <c r="K59" s="109" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
       <c r="N59" s="34"/>
     </row>
-    <row r="60" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="181"/>
-      <c r="B60" s="184">
+    <row r="60" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="147"/>
+      <c r="B60" s="151">
         <v>44468</v>
       </c>
-      <c r="C60" s="169" t="s">
+      <c r="C60" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E60" s="119">
         <v>3</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G60" s="57" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H60" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="I60" s="196"/>
-      <c r="J60" s="196"/>
-      <c r="K60" s="196"/>
+        <v>137</v>
+      </c>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="127"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="181"/>
-      <c r="B61" s="185"/>
-      <c r="C61" s="169"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="147"/>
+      <c r="B61" s="152"/>
+      <c r="C61" s="165"/>
       <c r="D61" s="54"/>
       <c r="E61" s="119"/>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
-      <c r="I61" s="197"/>
-      <c r="J61" s="197"/>
-      <c r="K61" s="197"/>
+      <c r="I61" s="128"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="128"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
     </row>
-    <row r="62" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="181"/>
+    <row r="62" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="147"/>
       <c r="B62" s="67">
         <v>44469</v>
       </c>
@@ -3742,8 +3734,8 @@
       <c r="L62" s="97"/>
       <c r="M62" s="97"/>
     </row>
-    <row r="63" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="181"/>
+    <row r="63" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="147"/>
       <c r="B63" s="124">
         <v>44470</v>
       </c>
@@ -3751,27 +3743,27 @@
         <v>12</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E63" s="119">
         <v>4</v>
       </c>
       <c r="F63" s="57"/>
       <c r="G63" s="57" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H63" s="57"/>
       <c r="I63" s="123"/>
       <c r="J63" s="123"/>
       <c r="K63" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L63" s="108"/>
       <c r="M63" s="57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="107"/>
       <c r="B64" s="100"/>
       <c r="C64" s="102"/>
@@ -3789,7 +3781,7 @@
       <c r="L64" s="70"/>
       <c r="M64" s="70"/>
     </row>
-    <row r="65" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="104"/>
       <c r="B65" s="105"/>
       <c r="C65" s="106"/>
@@ -3804,16 +3796,87 @@
       <c r="L65" s="69"/>
       <c r="M65" s="69"/>
     </row>
-    <row r="66" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="159" t="s">
+    <row r="66" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="160"/>
-      <c r="C66" s="161"/>
+      <c r="B66" s="180"/>
+      <c r="C66" s="181"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="87">
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
     <mergeCell ref="K60:K61"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="L17:L18"/>
@@ -3830,84 +3893,12 @@
     <mergeCell ref="J43:J44"/>
     <mergeCell ref="I35:I38"/>
     <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K35:K38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J35" r:id="rId1" xr:uid="{6F56A95F-302D-430F-BB93-125813A81349}"/>
-    <hyperlink ref="J16" r:id="rId2" display="https://www.geeksforgeeks.org/python-lists-vs-numpy-arrays/" xr:uid="{09781CF8-AF85-4D15-ABEE-3A68ABE95295}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3919,24 +3910,24 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
-    <col min="2" max="2" width="11.15625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7890625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.5234375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5234375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.3671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
@@ -3945,29 +3936,29 @@
       <c r="D2" s="12"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
@@ -3997,8 +3988,8 @@
       </c>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="211">
+    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="209">
         <v>34</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -4013,9 +4004,9 @@
       <c r="I8" s="30"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="211"/>
-      <c r="B9" s="205" t="s">
+    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="209"/>
+      <c r="B9" s="211" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -4037,9 +4028,9 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="211"/>
-      <c r="B10" s="220"/>
+    <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="209"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4057,9 +4048,9 @@
       <c r="I10" s="23"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="51.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="211"/>
-      <c r="B11" s="220"/>
+    <row r="11" spans="1:10" ht="51.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="209"/>
+      <c r="B11" s="212"/>
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
@@ -4081,9 +4072,9 @@
       </c>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="211"/>
-      <c r="B12" s="221"/>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="209"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
@@ -4101,9 +4092,9 @@
       <c r="I12" s="17"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="211"/>
-      <c r="B13" s="222" t="s">
+    <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="209"/>
+      <c r="B13" s="214" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -4125,9 +4116,9 @@
       <c r="I13" s="30"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" ht="34.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="211"/>
-      <c r="B14" s="223"/>
+    <row r="14" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="209"/>
+      <c r="B14" s="215"/>
       <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
@@ -4145,9 +4136,9 @@
       <c r="I14" s="30"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10" ht="34.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="211"/>
-      <c r="B15" s="224"/>
+    <row r="15" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="209"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4165,9 +4156,9 @@
       <c r="I15" s="30"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="52.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="211"/>
-      <c r="B16" s="205" t="s">
+    <row r="16" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="209"/>
+      <c r="B16" s="211" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -4183,9 +4174,9 @@
       <c r="I16" s="23"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="52.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="211"/>
-      <c r="B17" s="221"/>
+    <row r="17" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="209"/>
+      <c r="B17" s="213"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="14"/>
@@ -4199,9 +4190,9 @@
       <c r="I17" s="23"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="211"/>
-      <c r="B18" s="222" t="s">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="209"/>
+      <c r="B18" s="214" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -4221,9 +4212,9 @@
       <c r="I18" s="30"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="211"/>
-      <c r="B19" s="223"/>
+    <row r="19" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="209"/>
+      <c r="B19" s="215"/>
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
@@ -4241,9 +4232,9 @@
       <c r="I19" s="30"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="219"/>
-      <c r="B20" s="224"/>
+    <row r="20" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="210"/>
+      <c r="B20" s="216"/>
       <c r="C20" s="30" t="s">
         <v>41</v>
       </c>
@@ -4261,11 +4252,11 @@
       <c r="I20" s="30"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="213">
+    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="202">
         <v>35</v>
       </c>
-      <c r="B21" s="217" t="s">
+      <c r="B21" s="205" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9"/>
@@ -4283,8 +4274,8 @@
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="212"/>
+    <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="203"/>
       <c r="B22" s="206"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4297,8 +4288,8 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="212"/>
+    <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="203"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
@@ -4311,9 +4302,9 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="212"/>
-      <c r="B24" s="217" t="s">
+    <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="203"/>
+      <c r="B24" s="205" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9"/>
@@ -4331,8 +4322,8 @@
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="212"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="203"/>
       <c r="B25" s="206"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
@@ -4343,9 +4334,9 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="212"/>
-      <c r="B26" s="217" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="203"/>
+      <c r="B26" s="205" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4361,8 +4352,8 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="212"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="203"/>
       <c r="B27" s="206"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4373,9 +4364,9 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="212"/>
-      <c r="B28" s="225" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="203"/>
+      <c r="B28" s="207" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="9"/>
@@ -4387,9 +4378,9 @@
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="216"/>
-      <c r="B29" s="226"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="204"/>
+      <c r="B29" s="208"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="21"/>
@@ -4399,11 +4390,11 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="210">
+    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="222">
         <v>36</v>
       </c>
-      <c r="B30" s="205" t="s">
+      <c r="B30" s="211" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="23"/>
@@ -4421,8 +4412,8 @@
       <c r="I30" s="23"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="211"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="209"/>
       <c r="B31" s="206"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -4433,8 +4424,8 @@
       <c r="I31" s="23"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="212"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="203"/>
       <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
@@ -4447,8 +4438,8 @@
       <c r="I32" s="23"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="212"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="203"/>
       <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
@@ -4465,9 +4456,9 @@
       <c r="I33" s="23"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="212"/>
-      <c r="B34" s="205" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="203"/>
+      <c r="B34" s="211" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -4483,8 +4474,8 @@
       <c r="I34" s="23"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="212"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="203"/>
       <c r="B35" s="206"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
@@ -4495,9 +4486,9 @@
       <c r="I35" s="23"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="212"/>
-      <c r="B36" s="205" t="s">
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="203"/>
+      <c r="B36" s="211" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="23"/>
@@ -4515,8 +4506,8 @@
       <c r="I36" s="23"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="212"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="203"/>
       <c r="B37" s="206"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
@@ -4527,11 +4518,11 @@
       <c r="I37" s="23"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="213">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="202">
         <v>37</v>
       </c>
-      <c r="B38" s="217" t="s">
+      <c r="B38" s="205" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="9"/>
@@ -4543,8 +4534,8 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="214"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="223"/>
       <c r="B39" s="206"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -4555,8 +4546,8 @@
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="215"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="224"/>
       <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
@@ -4569,8 +4560,8 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="215"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="224"/>
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4583,9 +4574,9 @@
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="215"/>
-      <c r="B42" s="217" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="224"/>
+      <c r="B42" s="205" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4601,9 +4592,9 @@
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="215"/>
-      <c r="B43" s="218"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="224"/>
+      <c r="B43" s="225"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4613,8 +4604,8 @@
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="215"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="224"/>
       <c r="B44" s="206"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -4625,9 +4616,9 @@
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="215"/>
-      <c r="B45" s="217" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="224"/>
+      <c r="B45" s="205" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="9"/>
@@ -4639,9 +4630,9 @@
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="212"/>
-      <c r="B46" s="218"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="203"/>
+      <c r="B46" s="225"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4651,8 +4642,8 @@
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="216"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="204"/>
       <c r="B47" s="206"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -4663,11 +4654,11 @@
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="203">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="217">
         <v>38</v>
       </c>
-      <c r="B48" s="205" t="s">
+      <c r="B48" s="211" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="23"/>
@@ -4679,8 +4670,8 @@
       <c r="I48" s="23"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="203"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="217"/>
       <c r="B49" s="206"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
@@ -4691,8 +4682,8 @@
       <c r="I49" s="23"/>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="204"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="218"/>
       <c r="B50" s="23" t="s">
         <v>10</v>
       </c>
@@ -4705,8 +4696,8 @@
       <c r="I50" s="23"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="204"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="218"/>
       <c r="B51" s="23" t="s">
         <v>13</v>
       </c>
@@ -4719,8 +4710,8 @@
       <c r="I51" s="23"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="204"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="218"/>
       <c r="B52" s="23" t="s">
         <v>11</v>
       </c>
@@ -4737,9 +4728,9 @@
       <c r="I52" s="23"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="204"/>
-      <c r="B53" s="203" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="218"/>
+      <c r="B53" s="217" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="17"/>
@@ -4751,9 +4742,9 @@
       <c r="I53" s="23"/>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="204"/>
-      <c r="B54" s="204"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="218"/>
+      <c r="B54" s="218"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="22"/>
@@ -4763,8 +4754,8 @@
       <c r="I54" s="23"/>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="207">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="219">
         <v>39</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -4779,8 +4770,8 @@
       <c r="I55" s="27"/>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="208"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="220"/>
       <c r="B56" s="25" t="s">
         <v>10</v>
       </c>
@@ -4792,8 +4783,8 @@
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="208"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="220"/>
       <c r="B57" s="25" t="s">
         <v>13</v>
       </c>
@@ -4805,8 +4796,8 @@
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="208"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="220"/>
       <c r="B58" s="25" t="s">
         <v>11</v>
       </c>
@@ -4822,8 +4813,8 @@
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="209"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="221"/>
       <c r="B59" s="26" t="s">
         <v>12</v>
       </c>
@@ -4837,16 +4828,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B53:B54"/>
@@ -4859,6 +4840,16 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4875,14 +4866,14 @@
       <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.62890625" customWidth="1"/>
-    <col min="3" max="4" width="56.47265625" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="4" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>53</v>
       </c>
@@ -4894,55 +4885,55 @@
       </c>
       <c r="D1" s="43"/>
     </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="113" t="s">
-        <v>144</v>
-      </c>
       <c r="C2" s="38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="37"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
     </row>
-    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="36"/>
@@ -4966,12 +4957,12 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="33.734375" customWidth="1"/>
+    <col min="1" max="3" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>19</v>
       </c>
@@ -4982,29 +4973,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="42"/>
       <c r="C4" s="41"/>

--- a/01_studieplan_och_schema.xlsx
+++ b/01_studieplan_och_schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsabellaGagner\Documents\Programming-projects\ec-python-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsabellaGagner\Documents\Programming-projects\EC\ec-python-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4953F21E-DA53-4FA1-9040-D04A0477851C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02505D8-4229-4B19-AF26-D5485F03B379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4014" yWindow="8544" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="4320" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema - Python" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="181">
   <si>
     <t>Utbildning: Data Scientist</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>https://realpython.com/python-f-strings/#f-strings-a-new-and-improved-way-to-format-strings-in-python</t>
+  </si>
+  <si>
+    <t>Att skapa ett git-repo</t>
   </si>
 </sst>
 </file>
@@ -1344,280 +1347,247 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,20 +1598,53 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2015,31 +2018,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="45"/>
-    <col min="2" max="2" width="8.21875" style="68" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="122" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="34" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" style="34" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="34" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" style="34" customWidth="1"/>
-    <col min="14" max="14" width="76.21875" style="34" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="34"/>
+    <col min="1" max="1" width="9.1015625" style="45"/>
+    <col min="2" max="2" width="8.20703125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="11.1015625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="8.7890625" style="122" customWidth="1"/>
+    <col min="6" max="6" width="20.3125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="29.68359375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="12.5234375" style="34" customWidth="1"/>
+    <col min="9" max="9" width="18.1015625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="13.1015625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="19.7890625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="17.1015625" style="34" customWidth="1"/>
+    <col min="13" max="13" width="19.3125" style="34" customWidth="1"/>
+    <col min="14" max="14" width="76.20703125" style="34" customWidth="1"/>
+    <col min="15" max="16384" width="9.1015625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="33" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="33" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="71" t="s">
         <v>2</v>
       </c>
@@ -2081,8 +2084,8 @@
       </c>
       <c r="N1" s="74"/>
     </row>
-    <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
+    <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="144" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="75">
@@ -2103,12 +2106,12 @@
       <c r="M2" s="48"/>
       <c r="N2" s="77"/>
     </row>
-    <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="154"/>
-      <c r="B3" s="183">
+    <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="144"/>
+      <c r="B3" s="164">
         <v>44432</v>
       </c>
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="163" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2126,10 +2129,10 @@
       <c r="H3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="182" t="s">
+      <c r="I3" s="163" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="182" t="s">
+      <c r="J3" s="163" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="79"/>
@@ -2141,10 +2144,10 @@
       </c>
       <c r="N3" s="77"/>
     </row>
-    <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="154"/>
-      <c r="B4" s="183"/>
-      <c r="C4" s="182"/>
+    <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="144"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="51" t="s">
         <v>22</v>
       </c>
@@ -2160,8 +2163,8 @@
       <c r="H4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="182"/>
-      <c r="J4" s="182"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
       <c r="K4" s="79"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
@@ -2169,10 +2172,10 @@
       </c>
       <c r="N4" s="77"/>
     </row>
-    <row r="5" spans="1:14" ht="27.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="154"/>
-      <c r="B5" s="183"/>
-      <c r="C5" s="182"/>
+    <row r="5" spans="1:14" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="144"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="51" t="s">
         <v>58</v>
       </c>
@@ -2188,8 +2191,8 @@
       <c r="H5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="182"/>
-      <c r="J5" s="182"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
       <c r="K5" s="79"/>
       <c r="L5" s="51" t="s">
         <v>38</v>
@@ -2199,12 +2202,12 @@
       </c>
       <c r="N5" s="77"/>
     </row>
-    <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="154"/>
-      <c r="B6" s="185">
+    <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="144"/>
+      <c r="B6" s="166">
         <v>44433</v>
       </c>
-      <c r="C6" s="189" t="s">
+      <c r="C6" s="150" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -2222,10 +2225,10 @@
       <c r="H6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="178" t="s">
+      <c r="I6" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="178" t="s">
+      <c r="J6" s="159" t="s">
         <v>48</v>
       </c>
       <c r="K6" s="56"/>
@@ -2235,10 +2238,10 @@
       </c>
       <c r="N6" s="77"/>
     </row>
-    <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="154"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="189"/>
+    <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="144"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="55" t="s">
         <v>59</v>
       </c>
@@ -2250,8 +2253,8 @@
       <c r="H7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
       <c r="K7" s="56"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55" t="s">
@@ -2259,8 +2262,8 @@
       </c>
       <c r="N7" s="77"/>
     </row>
-    <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="154"/>
+    <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="144"/>
       <c r="B8" s="78">
         <v>44434</v>
       </c>
@@ -2291,12 +2294,12 @@
       </c>
       <c r="N8" s="77"/>
     </row>
-    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154"/>
-      <c r="B9" s="185">
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="144"/>
+      <c r="B9" s="166">
         <v>44435</v>
       </c>
-      <c r="C9" s="189" t="s">
+      <c r="C9" s="150" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -2314,14 +2317,14 @@
       <c r="H9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="178" t="s">
+      <c r="I9" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="178" t="s">
+      <c r="J9" s="159" t="s">
         <v>146</v>
       </c>
       <c r="K9" s="56"/>
-      <c r="L9" s="129" t="s">
+      <c r="L9" s="191" t="s">
         <v>152</v>
       </c>
       <c r="M9" s="55" t="s">
@@ -2329,10 +2332,10 @@
       </c>
       <c r="N9" s="77"/>
     </row>
-    <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="189"/>
+    <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="144"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="55" t="s">
         <v>63</v>
       </c>
@@ -2344,16 +2347,16 @@
       <c r="H10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="130"/>
+      <c r="L10" s="192"/>
       <c r="M10" s="55" t="s">
         <v>143</v>
       </c>
       <c r="N10" s="77"/>
     </row>
-    <row r="11" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="80"/>
       <c r="B11" s="81"/>
       <c r="C11" s="82"/>
@@ -2372,14 +2375,14 @@
       <c r="M11" s="58"/>
       <c r="N11" s="77"/>
     </row>
-    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="154" t="s">
+    <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="158">
+      <c r="B12" s="142">
         <v>44438</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -2397,13 +2400,13 @@
       <c r="H12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="135" t="s">
+      <c r="I12" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="135" t="s">
+      <c r="J12" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="K12" s="197" t="s">
+      <c r="K12" s="134" t="s">
         <v>124</v>
       </c>
       <c r="L12" s="53"/>
@@ -2412,10 +2415,10 @@
       </c>
       <c r="N12" s="77"/>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="173"/>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="145"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="156"/>
       <c r="D13" s="50" t="s">
         <v>63</v>
       </c>
@@ -2423,23 +2426,25 @@
         <v>1</v>
       </c>
       <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+      <c r="G13" s="50" t="s">
+        <v>180</v>
+      </c>
       <c r="H13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="198"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="135"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51" t="s">
         <v>143</v>
       </c>
       <c r="N13" s="77"/>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="155"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="173"/>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="145"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="156"/>
       <c r="D14" s="50" t="s">
         <v>108</v>
       </c>
@@ -2451,19 +2456,19 @@
       <c r="H14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="198"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51" t="s">
         <v>143</v>
       </c>
       <c r="N14" s="77"/>
     </row>
-    <row r="15" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="155"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="190"/>
+    <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="145"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="157"/>
       <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
@@ -2479,17 +2484,17 @@
       <c r="H15" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="199"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51" t="s">
         <v>143</v>
       </c>
       <c r="N15" s="77"/>
     </row>
-    <row r="16" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="155"/>
+    <row r="16" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="145"/>
       <c r="B16" s="75">
         <v>44439</v>
       </c>
@@ -2504,7 +2509,7 @@
       <c r="I16" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="J16" s="226" t="s">
+      <c r="J16" s="127" t="s">
         <v>177</v>
       </c>
       <c r="K16" s="48"/>
@@ -2512,12 +2517,12 @@
       <c r="M16" s="48"/>
       <c r="N16" s="77"/>
     </row>
-    <row r="17" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="155"/>
-      <c r="B17" s="148">
+    <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="145"/>
+      <c r="B17" s="165">
         <v>44440</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="55" t="s">
@@ -2535,23 +2540,23 @@
       <c r="H17" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="129" t="s">
+      <c r="I17" s="191" t="s">
         <v>172</v>
       </c>
-      <c r="J17" s="129" t="s">
+      <c r="J17" s="191" t="s">
         <v>176</v>
       </c>
       <c r="K17" s="95"/>
-      <c r="L17" s="129"/>
+      <c r="L17" s="191"/>
       <c r="M17" s="55" t="s">
         <v>143</v>
       </c>
       <c r="N17" s="77"/>
     </row>
-    <row r="18" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="155"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="171"/>
+    <row r="18" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="145"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="55" t="s">
         <v>59</v>
       </c>
@@ -2565,21 +2570,21 @@
       <c r="H18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="130"/>
+      <c r="L18" s="192"/>
       <c r="M18" s="55" t="s">
         <v>143</v>
       </c>
       <c r="N18" s="77"/>
     </row>
-    <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="155"/>
-      <c r="B19" s="158">
+    <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="145"/>
+      <c r="B19" s="142">
         <v>44441</v>
       </c>
-      <c r="C19" s="172" t="s">
+      <c r="C19" s="153" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -2593,41 +2598,41 @@
         <v>14</v>
       </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="131" t="s">
+      <c r="I19" s="193" t="s">
         <v>168</v>
       </c>
-      <c r="J19" s="131" t="s">
+      <c r="J19" s="193" t="s">
         <v>178</v>
       </c>
       <c r="K19" s="93"/>
-      <c r="L19" s="131"/>
+      <c r="L19" s="193"/>
       <c r="M19" s="51" t="s">
         <v>167</v>
       </c>
       <c r="N19" s="77"/>
     </row>
-    <row r="20" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="155"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="174"/>
+    <row r="20" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="145"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="154"/>
       <c r="D20" s="51"/>
       <c r="E20" s="61"/>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
       <c r="K20" s="94"/>
-      <c r="L20" s="132"/>
+      <c r="L20" s="194"/>
       <c r="M20" s="51"/>
       <c r="N20" s="77"/>
     </row>
-    <row r="21" spans="1:14" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="155"/>
-      <c r="B21" s="188">
+    <row r="21" spans="1:14" ht="38.85" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="145"/>
+      <c r="B21" s="148">
         <v>44442</v>
       </c>
-      <c r="C21" s="170" t="s">
+      <c r="C21" s="155" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -2645,10 +2650,10 @@
       <c r="H21" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="129" t="s">
+      <c r="I21" s="191" t="s">
         <v>173</v>
       </c>
-      <c r="J21" s="227" t="s">
+      <c r="J21" s="128" t="s">
         <v>179</v>
       </c>
       <c r="K21" s="55"/>
@@ -2658,10 +2663,10 @@
       </c>
       <c r="N21" s="77"/>
     </row>
-    <row r="22" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="187"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="171"/>
+    <row r="22" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="146"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="55" t="s">
         <v>63</v>
       </c>
@@ -2673,7 +2678,7 @@
       <c r="H22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="130"/>
+      <c r="I22" s="192"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
@@ -2682,7 +2687,7 @@
       </c>
       <c r="N22" s="77"/>
     </row>
-    <row r="23" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="84"/>
       <c r="B23" s="85"/>
       <c r="C23" s="86"/>
@@ -2701,14 +2706,14 @@
       <c r="M23" s="48"/>
       <c r="N23" s="77"/>
     </row>
-    <row r="24" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="153" t="s">
+    <row r="24" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="158">
+      <c r="B24" s="142">
         <v>44445</v>
       </c>
-      <c r="C24" s="172" t="s">
+      <c r="C24" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -2726,11 +2731,11 @@
       <c r="H24" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="131" t="s">
+      <c r="I24" s="193" t="s">
         <v>155</v>
       </c>
-      <c r="J24" s="131"/>
-      <c r="K24" s="192" t="s">
+      <c r="J24" s="193"/>
+      <c r="K24" s="129" t="s">
         <v>118</v>
       </c>
       <c r="L24" s="51"/>
@@ -2739,10 +2744,10 @@
       </c>
       <c r="N24" s="77"/>
     </row>
-    <row r="25" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="154"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="173"/>
+    <row r="25" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="144"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="156"/>
       <c r="D25" s="51" t="s">
         <v>82</v>
       </c>
@@ -2756,19 +2761,19 @@
       <c r="H25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="193"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51" t="s">
         <v>103</v>
       </c>
       <c r="N25" s="77"/>
     </row>
-    <row r="26" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="154"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="173"/>
+    <row r="26" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="144"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="156"/>
       <c r="D26" s="51" t="s">
         <v>116</v>
       </c>
@@ -2782,19 +2787,19 @@
       <c r="H26" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="193"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="130"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51" t="s">
         <v>103</v>
       </c>
       <c r="N26" s="77"/>
     </row>
-    <row r="27" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="154"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="173"/>
+    <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="144"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="156"/>
       <c r="D27" s="51" t="s">
         <v>30</v>
       </c>
@@ -2810,17 +2815,17 @@
       <c r="H27" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="194"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="131"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51" t="s">
         <v>103</v>
       </c>
       <c r="N27" s="77"/>
     </row>
-    <row r="28" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="155"/>
+    <row r="28" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="145"/>
       <c r="B28" s="75">
         <v>44446</v>
       </c>
@@ -2840,12 +2845,12 @@
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
     </row>
-    <row r="29" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="155"/>
-      <c r="B29" s="148">
+    <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="145"/>
+      <c r="B29" s="165">
         <v>44447</v>
       </c>
-      <c r="C29" s="163" t="s">
+      <c r="C29" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -2863,13 +2868,13 @@
       <c r="H29" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="129" t="s">
+      <c r="I29" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="129" t="s">
+      <c r="J29" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="200" t="s">
+      <c r="K29" s="137" t="s">
         <v>125</v>
       </c>
       <c r="L29" s="55"/>
@@ -2878,10 +2883,10 @@
       </c>
       <c r="N29" s="77"/>
     </row>
-    <row r="30" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="155"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="164"/>
+    <row r="30" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="145"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="169"/>
       <c r="D30" s="55" t="s">
         <v>59</v>
       </c>
@@ -2895,17 +2900,17 @@
       <c r="H30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="201"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="138"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55" t="s">
         <v>103</v>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="155"/>
+    <row r="31" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="145"/>
       <c r="B31" s="88">
         <v>44448</v>
       </c>
@@ -2932,12 +2937,12 @@
       </c>
       <c r="N31" s="77"/>
     </row>
-    <row r="32" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="155"/>
-      <c r="B32" s="148">
+    <row r="32" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="145"/>
+      <c r="B32" s="165">
         <v>44449</v>
       </c>
-      <c r="C32" s="170" t="s">
+      <c r="C32" s="155" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="55" t="s">
@@ -2955,19 +2960,19 @@
       <c r="H32" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="129" t="s">
+      <c r="I32" s="191" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="129"/>
+      <c r="J32" s="191"/>
       <c r="K32" s="95"/>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="77"/>
     </row>
-    <row r="33" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="155"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="171"/>
+    <row r="33" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="145"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="152"/>
       <c r="D33" s="55" t="s">
         <v>63</v>
       </c>
@@ -2981,14 +2986,14 @@
       <c r="H33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="192"/>
       <c r="K33" s="96"/>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
       <c r="N33" s="77"/>
     </row>
-    <row r="34" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="89"/>
       <c r="B34" s="85"/>
       <c r="C34" s="86"/>
@@ -3007,14 +3012,14 @@
       <c r="M34" s="48"/>
       <c r="N34" s="77"/>
     </row>
-    <row r="35" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="153" t="s">
+    <row r="35" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="158">
+      <c r="B35" s="142">
         <v>44452</v>
       </c>
-      <c r="C35" s="172" t="s">
+      <c r="C35" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="52" t="s">
@@ -3032,13 +3037,13 @@
       <c r="H35" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="135" t="s">
+      <c r="I35" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="134" t="s">
+      <c r="J35" s="203" t="s">
         <v>156</v>
       </c>
-      <c r="K35" s="135" t="s">
+      <c r="K35" s="139" t="s">
         <v>126</v>
       </c>
       <c r="L35" s="51"/>
@@ -3046,10 +3051,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="154"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="173"/>
+    <row r="36" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="144"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="156"/>
       <c r="D36" s="50" t="s">
         <v>63</v>
       </c>
@@ -3065,19 +3070,19 @@
       <c r="H36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="136"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="136"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="140"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51" t="s">
         <v>143</v>
       </c>
       <c r="N36" s="77"/>
     </row>
-    <row r="37" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="154"/>
-      <c r="B37" s="159"/>
-      <c r="C37" s="173"/>
+    <row r="37" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="144"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="156"/>
       <c r="D37" s="50" t="s">
         <v>108</v>
       </c>
@@ -3093,19 +3098,19 @@
       <c r="H37" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="136"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="136"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="140"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51" t="s">
         <v>143</v>
       </c>
       <c r="N37" s="77"/>
     </row>
-    <row r="38" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="154"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="174"/>
+    <row r="38" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="144"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="154"/>
       <c r="D38" s="50" t="s">
         <v>30</v>
       </c>
@@ -3121,17 +3126,17 @@
       <c r="H38" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="137"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="137"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="141"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51" t="s">
         <v>143</v>
       </c>
       <c r="N38" s="77"/>
     </row>
-    <row r="39" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="155"/>
+    <row r="39" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="145"/>
       <c r="B39" s="90">
         <v>44453</v>
       </c>
@@ -3150,12 +3155,12 @@
       <c r="M39" s="48"/>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="155"/>
-      <c r="B40" s="148">
+    <row r="40" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="145"/>
+      <c r="B40" s="165">
         <v>44454</v>
       </c>
-      <c r="C40" s="163" t="s">
+      <c r="C40" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="55" t="s">
@@ -3173,18 +3178,18 @@
       <c r="H40" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
       <c r="K40" s="95"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="155"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="164"/>
+    <row r="41" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="145"/>
+      <c r="B41" s="183"/>
+      <c r="C41" s="169"/>
       <c r="D41" s="55" t="s">
         <v>59</v>
       </c>
@@ -3196,8 +3201,8 @@
       <c r="H41" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
       <c r="K41" s="96"/>
       <c r="L41" s="55"/>
       <c r="M41" s="55" t="s">
@@ -3205,8 +3210,8 @@
       </c>
       <c r="N41" s="77"/>
     </row>
-    <row r="42" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="155"/>
+    <row r="42" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="145"/>
       <c r="B42" s="88">
         <v>44455</v>
       </c>
@@ -3233,9 +3238,9 @@
       </c>
       <c r="N42" s="77"/>
     </row>
-    <row r="43" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="155"/>
-      <c r="B43" s="185">
+    <row r="43" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="145"/>
+      <c r="B43" s="166">
         <v>44456</v>
       </c>
       <c r="C43" s="175" t="s">
@@ -3256,9 +3261,9 @@
       <c r="H43" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="195" t="s">
+      <c r="I43" s="191"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="132" t="s">
         <v>119</v>
       </c>
       <c r="L43" s="55"/>
@@ -3267,9 +3272,9 @@
       </c>
       <c r="N43" s="77"/>
     </row>
-    <row r="44" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="155"/>
-      <c r="B44" s="186"/>
+    <row r="44" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="145"/>
+      <c r="B44" s="167"/>
       <c r="C44" s="175"/>
       <c r="D44" s="55" t="s">
         <v>63</v>
@@ -3282,16 +3287,16 @@
       <c r="H44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="196"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="133"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55" t="s">
         <v>103</v>
       </c>
       <c r="N44" s="77"/>
     </row>
-    <row r="45" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="107"/>
       <c r="B45" s="100"/>
       <c r="C45" s="59"/>
@@ -3309,11 +3314,11 @@
       <c r="L45" s="47"/>
       <c r="M45" s="47"/>
     </row>
-    <row r="46" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="143" t="s">
+    <row r="46" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="150">
+      <c r="B46" s="184">
         <v>44459</v>
       </c>
       <c r="C46" s="176" t="s">
@@ -3334,17 +3339,17 @@
       <c r="H46" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="I46" s="131"/>
-      <c r="J46" s="138"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="195"/>
       <c r="K46" s="62"/>
       <c r="L46" s="50"/>
       <c r="M46" s="50" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="144"/>
-      <c r="B47" s="150"/>
+    <row r="47" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="179"/>
+      <c r="B47" s="184"/>
       <c r="C47" s="176"/>
       <c r="D47" s="50" t="s">
         <v>63</v>
@@ -3357,17 +3362,17 @@
       <c r="H47" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="133"/>
-      <c r="J47" s="140"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
       <c r="K47" s="63"/>
       <c r="L47" s="50"/>
       <c r="M47" s="50" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="144"/>
-      <c r="B48" s="150"/>
+    <row r="48" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="179"/>
+      <c r="B48" s="184"/>
       <c r="C48" s="176"/>
       <c r="D48" s="50" t="s">
         <v>116</v>
@@ -3380,17 +3385,17 @@
       <c r="H48" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="133"/>
-      <c r="J48" s="140"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="200"/>
       <c r="K48" s="63"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="144"/>
-      <c r="B49" s="150"/>
+    <row r="49" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="179"/>
+      <c r="B49" s="184"/>
       <c r="C49" s="176"/>
       <c r="D49" s="50" t="s">
         <v>30</v>
@@ -3407,16 +3412,16 @@
       <c r="H49" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="132"/>
-      <c r="J49" s="139"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="196"/>
       <c r="K49" s="64"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="144"/>
+    <row r="50" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="179"/>
       <c r="B50" s="66">
         <v>44460</v>
       </c>
@@ -3434,12 +3439,12 @@
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
     </row>
-    <row r="51" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="144"/>
-      <c r="B51" s="151">
+    <row r="51" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="179"/>
+      <c r="B51" s="185">
         <v>44461</v>
       </c>
-      <c r="C51" s="166" t="s">
+      <c r="C51" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="54" t="s">
@@ -3457,20 +3462,20 @@
       <c r="H51" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="I51" s="129" t="s">
+      <c r="I51" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="J51" s="141"/>
+      <c r="J51" s="201"/>
       <c r="K51" s="98"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="144"/>
-      <c r="B52" s="152"/>
-      <c r="C52" s="167"/>
+    <row r="52" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="179"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="172"/>
       <c r="D52" s="54" t="s">
         <v>59</v>
       </c>
@@ -3482,16 +3487,16 @@
       <c r="H52" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="130"/>
-      <c r="J52" s="142"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="202"/>
       <c r="K52" s="99"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="144"/>
+    <row r="53" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="179"/>
       <c r="B53" s="67">
         <v>44462</v>
       </c>
@@ -3517,12 +3522,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="144"/>
-      <c r="B54" s="156">
+    <row r="54" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="179"/>
+      <c r="B54" s="187">
         <v>44463</v>
       </c>
-      <c r="C54" s="168" t="s">
+      <c r="C54" s="173" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="54" t="s">
@@ -3540,8 +3545,8 @@
       <c r="H54" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="I54" s="129"/>
-      <c r="J54" s="141"/>
+      <c r="I54" s="191"/>
+      <c r="J54" s="201"/>
       <c r="K54" s="98"/>
       <c r="L54" s="55" t="s">
         <v>107</v>
@@ -3550,10 +3555,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="145"/>
-      <c r="B55" s="157"/>
-      <c r="C55" s="169"/>
+    <row r="55" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="180"/>
+      <c r="B55" s="188"/>
+      <c r="C55" s="174"/>
       <c r="D55" s="54" t="s">
         <v>63</v>
       </c>
@@ -3565,15 +3570,15 @@
       <c r="H55" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="130"/>
-      <c r="J55" s="142"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="202"/>
       <c r="K55" s="99"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="103"/>
       <c r="B56" s="100"/>
       <c r="C56" s="102"/>
@@ -3591,11 +3596,11 @@
       <c r="L56" s="47"/>
       <c r="M56" s="47"/>
     </row>
-    <row r="57" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="146" t="s">
+    <row r="57" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="161">
+      <c r="B57" s="189">
         <v>44466</v>
       </c>
       <c r="C57" s="177" t="s">
@@ -3616,17 +3621,17 @@
       <c r="H57" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="I57" s="138"/>
-      <c r="J57" s="138"/>
+      <c r="I57" s="195"/>
+      <c r="J57" s="195"/>
       <c r="K57" s="62"/>
       <c r="L57" s="50"/>
       <c r="M57" s="50" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="147"/>
-      <c r="B58" s="162"/>
+    <row r="58" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="182"/>
+      <c r="B58" s="190"/>
       <c r="C58" s="177"/>
       <c r="D58" s="50" t="s">
         <v>120</v>
@@ -3639,16 +3644,16 @@
         <v>14</v>
       </c>
       <c r="H58" s="97"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="139"/>
+      <c r="I58" s="196"/>
+      <c r="J58" s="196"/>
       <c r="K58" s="64"/>
       <c r="L58" s="97"/>
       <c r="M58" s="97" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="69" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="147"/>
+    <row r="59" spans="1:14" s="69" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="182"/>
       <c r="B59" s="66">
         <v>44467</v>
       </c>
@@ -3669,12 +3674,12 @@
       <c r="M59" s="70"/>
       <c r="N59" s="34"/>
     </row>
-    <row r="60" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="147"/>
-      <c r="B60" s="151">
+    <row r="60" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="182"/>
+      <c r="B60" s="185">
         <v>44468</v>
       </c>
-      <c r="C60" s="165" t="s">
+      <c r="C60" s="170" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="54" t="s">
@@ -3692,31 +3697,31 @@
       <c r="H60" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="127"/>
-      <c r="J60" s="127"/>
-      <c r="K60" s="127"/>
+      <c r="I60" s="197"/>
+      <c r="J60" s="197"/>
+      <c r="K60" s="197"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="147"/>
-      <c r="B61" s="152"/>
-      <c r="C61" s="165"/>
+    <row r="61" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="182"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="170"/>
       <c r="D61" s="54"/>
       <c r="E61" s="119"/>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
-      <c r="I61" s="128"/>
-      <c r="J61" s="128"/>
-      <c r="K61" s="128"/>
+      <c r="I61" s="198"/>
+      <c r="J61" s="198"/>
+      <c r="K61" s="198"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
     </row>
-    <row r="62" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="147"/>
+    <row r="62" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="182"/>
       <c r="B62" s="67">
         <v>44469</v>
       </c>
@@ -3734,8 +3739,8 @@
       <c r="L62" s="97"/>
       <c r="M62" s="97"/>
     </row>
-    <row r="63" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="147"/>
+    <row r="63" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="182"/>
       <c r="B63" s="124">
         <v>44470</v>
       </c>
@@ -3763,7 +3768,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="107"/>
       <c r="B64" s="100"/>
       <c r="C64" s="102"/>
@@ -3781,7 +3786,7 @@
       <c r="L64" s="70"/>
       <c r="M64" s="70"/>
     </row>
-    <row r="65" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="104"/>
       <c r="B65" s="105"/>
       <c r="C65" s="106"/>
@@ -3796,33 +3801,70 @@
       <c r="L65" s="69"/>
       <c r="M65" s="69"/>
     </row>
-    <row r="66" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="179" t="s">
+    <row r="66" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="180"/>
-      <c r="C66" s="181"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="162"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="87">
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A66:C66"/>
@@ -3839,60 +3881,23 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="A24:A33"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K35:K38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J35" r:id="rId1" xr:uid="{6F56A95F-302D-430F-BB93-125813A81349}"/>
@@ -3910,24 +3915,24 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="11.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7890625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.5234375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5234375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1015625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="9" width="20.3125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
@@ -3936,29 +3941,29 @@
       <c r="D2" s="12"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
@@ -3988,8 +3993,8 @@
       </c>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="209">
+    <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="212">
         <v>34</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -4004,9 +4009,9 @@
       <c r="I8" s="30"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="209"/>
-      <c r="B9" s="211" t="s">
+    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="212"/>
+      <c r="B9" s="206" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -4028,9 +4033,9 @@
       </c>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="209"/>
-      <c r="B10" s="212"/>
+    <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="212"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4048,9 +4053,9 @@
       <c r="I10" s="23"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="51.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="209"/>
-      <c r="B11" s="212"/>
+    <row r="11" spans="1:10" ht="51.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="212"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
@@ -4072,9 +4077,9 @@
       </c>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="209"/>
-      <c r="B12" s="213"/>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="212"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
@@ -4092,9 +4097,9 @@
       <c r="I12" s="17"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="209"/>
-      <c r="B13" s="214" t="s">
+    <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="212"/>
+      <c r="B13" s="223" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -4116,9 +4121,9 @@
       <c r="I13" s="30"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="209"/>
-      <c r="B14" s="215"/>
+    <row r="14" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="212"/>
+      <c r="B14" s="224"/>
       <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
@@ -4136,9 +4141,9 @@
       <c r="I14" s="30"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="209"/>
-      <c r="B15" s="216"/>
+    <row r="15" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="212"/>
+      <c r="B15" s="225"/>
       <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4156,9 +4161,9 @@
       <c r="I15" s="30"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="209"/>
-      <c r="B16" s="211" t="s">
+    <row r="16" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="212"/>
+      <c r="B16" s="206" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -4174,9 +4179,9 @@
       <c r="I16" s="23"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="209"/>
-      <c r="B17" s="213"/>
+    <row r="17" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="212"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="14"/>
@@ -4190,9 +4195,9 @@
       <c r="I17" s="23"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="209"/>
-      <c r="B18" s="214" t="s">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="212"/>
+      <c r="B18" s="223" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -4212,9 +4217,9 @@
       <c r="I18" s="30"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="209"/>
-      <c r="B19" s="215"/>
+    <row r="19" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="212"/>
+      <c r="B19" s="224"/>
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
@@ -4232,9 +4237,9 @@
       <c r="I19" s="30"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="210"/>
-      <c r="B20" s="216"/>
+    <row r="20" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="220"/>
+      <c r="B20" s="225"/>
       <c r="C20" s="30" t="s">
         <v>41</v>
       </c>
@@ -4252,11 +4257,11 @@
       <c r="I20" s="30"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="202">
+    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="214">
         <v>35</v>
       </c>
-      <c r="B21" s="205" t="s">
+      <c r="B21" s="218" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9"/>
@@ -4274,9 +4279,9 @@
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="203"/>
-      <c r="B22" s="206"/>
+    <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="213"/>
+      <c r="B22" s="207"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="15"/>
@@ -4288,8 +4293,8 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="203"/>
+    <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="213"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
@@ -4302,9 +4307,9 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="203"/>
-      <c r="B24" s="205" t="s">
+    <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="213"/>
+      <c r="B24" s="218" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9"/>
@@ -4322,9 +4327,9 @@
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="203"/>
-      <c r="B25" s="206"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="213"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
       <c r="E25" s="9"/>
@@ -4334,9 +4339,9 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="203"/>
-      <c r="B26" s="205" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="213"/>
+      <c r="B26" s="218" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4352,9 +4357,9 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="203"/>
-      <c r="B27" s="206"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="213"/>
+      <c r="B27" s="207"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="15"/>
@@ -4364,9 +4369,9 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="203"/>
-      <c r="B28" s="207" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="213"/>
+      <c r="B28" s="226" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="9"/>
@@ -4378,9 +4383,9 @@
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="204"/>
-      <c r="B29" s="208"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="217"/>
+      <c r="B29" s="227"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="21"/>
@@ -4390,11 +4395,11 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="222">
+    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="211">
         <v>36</v>
       </c>
-      <c r="B30" s="211" t="s">
+      <c r="B30" s="206" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="23"/>
@@ -4412,9 +4417,9 @@
       <c r="I30" s="23"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="209"/>
-      <c r="B31" s="206"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="212"/>
+      <c r="B31" s="207"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="14"/>
@@ -4424,8 +4429,8 @@
       <c r="I31" s="23"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="203"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="213"/>
       <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
@@ -4438,8 +4443,8 @@
       <c r="I32" s="23"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="203"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="213"/>
       <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
@@ -4456,9 +4461,9 @@
       <c r="I33" s="23"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="203"/>
-      <c r="B34" s="211" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="213"/>
+      <c r="B34" s="206" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -4474,9 +4479,9 @@
       <c r="I34" s="23"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="203"/>
-      <c r="B35" s="206"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="213"/>
+      <c r="B35" s="207"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="14"/>
@@ -4486,9 +4491,9 @@
       <c r="I35" s="23"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="203"/>
-      <c r="B36" s="211" t="s">
+    <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="213"/>
+      <c r="B36" s="206" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="23"/>
@@ -4506,9 +4511,9 @@
       <c r="I36" s="23"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="203"/>
-      <c r="B37" s="206"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="213"/>
+      <c r="B37" s="207"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -4518,11 +4523,11 @@
       <c r="I37" s="23"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="202">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="214">
         <v>37</v>
       </c>
-      <c r="B38" s="205" t="s">
+      <c r="B38" s="218" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="9"/>
@@ -4534,9 +4539,9 @@
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="223"/>
-      <c r="B39" s="206"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="215"/>
+      <c r="B39" s="207"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="15"/>
@@ -4546,8 +4551,8 @@
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="224"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="216"/>
       <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
@@ -4560,8 +4565,8 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="224"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="216"/>
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4574,9 +4579,9 @@
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="224"/>
-      <c r="B42" s="205" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="216"/>
+      <c r="B42" s="218" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4592,9 +4597,9 @@
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="224"/>
-      <c r="B43" s="225"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="216"/>
+      <c r="B43" s="219"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4604,9 +4609,9 @@
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="224"/>
-      <c r="B44" s="206"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="216"/>
+      <c r="B44" s="207"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="20"/>
@@ -4616,9 +4621,9 @@
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="224"/>
-      <c r="B45" s="205" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="216"/>
+      <c r="B45" s="218" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="9"/>
@@ -4630,9 +4635,9 @@
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="203"/>
-      <c r="B46" s="225"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="213"/>
+      <c r="B46" s="219"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4642,9 +4647,9 @@
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="204"/>
-      <c r="B47" s="206"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="217"/>
+      <c r="B47" s="207"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="20"/>
@@ -4654,11 +4659,11 @@
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="217">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="204">
         <v>38</v>
       </c>
-      <c r="B48" s="211" t="s">
+      <c r="B48" s="206" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="23"/>
@@ -4670,9 +4675,9 @@
       <c r="I48" s="23"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="217"/>
-      <c r="B49" s="206"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="204"/>
+      <c r="B49" s="207"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -4682,8 +4687,8 @@
       <c r="I49" s="23"/>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="218"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="205"/>
       <c r="B50" s="23" t="s">
         <v>10</v>
       </c>
@@ -4696,8 +4701,8 @@
       <c r="I50" s="23"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="218"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="205"/>
       <c r="B51" s="23" t="s">
         <v>13</v>
       </c>
@@ -4710,8 +4715,8 @@
       <c r="I51" s="23"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="218"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="205"/>
       <c r="B52" s="23" t="s">
         <v>11</v>
       </c>
@@ -4728,9 +4733,9 @@
       <c r="I52" s="23"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="218"/>
-      <c r="B53" s="217" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="205"/>
+      <c r="B53" s="204" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="17"/>
@@ -4742,9 +4747,9 @@
       <c r="I53" s="23"/>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="218"/>
-      <c r="B54" s="218"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="205"/>
+      <c r="B54" s="205"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="22"/>
@@ -4754,8 +4759,8 @@
       <c r="I54" s="23"/>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="219">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="208">
         <v>39</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -4770,8 +4775,8 @@
       <c r="I55" s="27"/>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="220"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="209"/>
       <c r="B56" s="25" t="s">
         <v>10</v>
       </c>
@@ -4783,8 +4788,8 @@
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="220"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="209"/>
       <c r="B57" s="25" t="s">
         <v>13</v>
       </c>
@@ -4796,8 +4801,8 @@
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="220"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="209"/>
       <c r="B58" s="25" t="s">
         <v>11</v>
       </c>
@@ -4813,8 +4818,8 @@
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="221"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="210"/>
       <c r="B59" s="26" t="s">
         <v>12</v>
       </c>
@@ -4828,6 +4833,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B53:B54"/>
@@ -4840,16 +4855,6 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4866,14 +4871,14 @@
       <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="4" width="56.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.68359375" customWidth="1"/>
+    <col min="3" max="4" width="56.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="43" t="s">
         <v>53</v>
       </c>
@@ -4885,7 +4890,7 @@
       </c>
       <c r="D1" s="43"/>
     </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>138</v>
       </c>
@@ -4897,43 +4902,43 @@
       </c>
       <c r="D2" s="37"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
     </row>
-    <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="36"/>
@@ -4957,12 +4962,12 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.55" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="33.77734375" customWidth="1"/>
+    <col min="1" max="3" width="33.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="43" t="s">
         <v>19</v>
       </c>
@@ -4973,7 +4978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="39" t="s">
         <v>98</v>
       </c>
@@ -4984,7 +4989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="39" t="s">
         <v>139</v>
       </c>
@@ -4995,7 +5000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39"/>
       <c r="B4" s="42"/>
       <c r="C4" s="41"/>

--- a/01_studieplan_och_schema.xlsx
+++ b/01_studieplan_och_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsabellaGagner\Documents\Programming-projects\EC\ec-python-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02505D8-4229-4B19-AF26-D5485F03B379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B7D25-B9D4-4D8F-82E9-D0A59314D2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="4320" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="180">
   <si>
     <t>Utbildning: Data Scientist</t>
   </si>
@@ -528,9 +528,6 @@
     <t>Main-metod, skripting, funktion, typing, konventioner, docstrings</t>
   </si>
   <si>
-    <t>Repetition vecka 1, skripting, terminalkommandon, argparse</t>
-  </si>
-  <si>
     <t>PP 8-10</t>
   </si>
   <si>
@@ -582,7 +579,7 @@
     <t>https://realpython.com/python-f-strings/#f-strings-a-new-and-improved-way-to-format-strings-in-python</t>
   </si>
   <si>
-    <t>Att skapa ett git-repo</t>
+    <t>Repetition vecka 1, terminalkommandon, argparse, att skapa ett git-repo</t>
   </si>
 </sst>
 </file>
@@ -1353,6 +1350,201 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1383,211 +1575,55 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,52 +1634,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2018,9 +2015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I5"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2085,7 +2082,7 @@
       <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="156" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="75">
@@ -2107,11 +2104,11 @@
       <c r="N2" s="77"/>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="144"/>
-      <c r="B3" s="164">
+      <c r="A3" s="156"/>
+      <c r="B3" s="185">
         <v>44432</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="184" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2129,10 +2126,10 @@
       <c r="H3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="184" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="163" t="s">
+      <c r="J3" s="184" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="79"/>
@@ -2145,9 +2142,9 @@
       <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="144"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="163"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="184"/>
       <c r="D4" s="51" t="s">
         <v>22</v>
       </c>
@@ -2163,8 +2160,8 @@
       <c r="H4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
       <c r="K4" s="79"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
@@ -2173,9 +2170,9 @@
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="1:14" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="144"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="163"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="184"/>
       <c r="D5" s="51" t="s">
         <v>58</v>
       </c>
@@ -2191,8 +2188,8 @@
       <c r="H5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
       <c r="K5" s="79"/>
       <c r="L5" s="51" t="s">
         <v>38</v>
@@ -2203,11 +2200,11 @@
       <c r="N5" s="77"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="144"/>
-      <c r="B6" s="166">
+      <c r="A6" s="156"/>
+      <c r="B6" s="187">
         <v>44433</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="191" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -2225,10 +2222,10 @@
       <c r="H6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="180" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="159" t="s">
+      <c r="J6" s="180" t="s">
         <v>48</v>
       </c>
       <c r="K6" s="56"/>
@@ -2239,9 +2236,9 @@
       <c r="N6" s="77"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="144"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="150"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="55" t="s">
         <v>59</v>
       </c>
@@ -2253,8 +2250,8 @@
       <c r="H7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="56"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55" t="s">
@@ -2263,7 +2260,7 @@
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="144"/>
+      <c r="A8" s="156"/>
       <c r="B8" s="78">
         <v>44434</v>
       </c>
@@ -2295,11 +2292,11 @@
       <c r="N8" s="77"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="144"/>
-      <c r="B9" s="166">
+      <c r="A9" s="156"/>
+      <c r="B9" s="187">
         <v>44435</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="191" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -2317,14 +2314,14 @@
       <c r="H9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="159" t="s">
+      <c r="I9" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="159" t="s">
+      <c r="J9" s="180" t="s">
         <v>146</v>
       </c>
       <c r="K9" s="56"/>
-      <c r="L9" s="191" t="s">
+      <c r="L9" s="131" t="s">
         <v>152</v>
       </c>
       <c r="M9" s="55" t="s">
@@ -2333,9 +2330,9 @@
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="144"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="150"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="191"/>
       <c r="D10" s="55" t="s">
         <v>63</v>
       </c>
@@ -2347,10 +2344,10 @@
       <c r="H10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="192"/>
+      <c r="L10" s="132"/>
       <c r="M10" s="55" t="s">
         <v>143</v>
       </c>
@@ -2376,13 +2373,13 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="142">
+      <c r="B12" s="160">
         <v>44438</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -2395,18 +2392,18 @@
         <v>28</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="139" t="s">
+      <c r="I12" s="137" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="139" t="s">
-        <v>164</v>
-      </c>
-      <c r="K12" s="134" t="s">
+      <c r="K12" s="199" t="s">
         <v>124</v>
       </c>
       <c r="L12" s="53"/>
@@ -2416,9 +2413,9 @@
       <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="145"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="156"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="50" t="s">
         <v>63</v>
       </c>
@@ -2426,15 +2423,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="50"/>
-      <c r="G13" s="50" t="s">
-        <v>180</v>
-      </c>
+      <c r="G13" s="50"/>
       <c r="H13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="135"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="200"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51" t="s">
         <v>143</v>
@@ -2442,9 +2437,9 @@
       <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="145"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="156"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="50" t="s">
         <v>108</v>
       </c>
@@ -2456,9 +2451,9 @@
       <c r="H14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="135"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="200"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51" t="s">
         <v>143</v>
@@ -2466,9 +2461,9 @@
       <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="145"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="157"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
@@ -2484,9 +2479,9 @@
       <c r="H15" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="136"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="201"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51" t="s">
         <v>143</v>
@@ -2494,7 +2489,7 @@
       <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="145"/>
+      <c r="A16" s="157"/>
       <c r="B16" s="75">
         <v>44439</v>
       </c>
@@ -2510,7 +2505,7 @@
         <v>150</v>
       </c>
       <c r="J16" s="127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -2518,11 +2513,11 @@
       <c r="N16" s="77"/>
     </row>
     <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="145"/>
-      <c r="B17" s="165">
+      <c r="A17" s="157"/>
+      <c r="B17" s="150">
         <v>44440</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="55" t="s">
@@ -2535,28 +2530,28 @@
         <v>69</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H17" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="191" t="s">
-        <v>172</v>
-      </c>
-      <c r="J17" s="191" t="s">
-        <v>176</v>
+      <c r="I17" s="131" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="131" t="s">
+        <v>175</v>
       </c>
       <c r="K17" s="95"/>
-      <c r="L17" s="191"/>
+      <c r="L17" s="131"/>
       <c r="M17" s="55" t="s">
         <v>143</v>
       </c>
       <c r="N17" s="77"/>
     </row>
     <row r="18" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="145"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="152"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="55" t="s">
         <v>59</v>
       </c>
@@ -2570,21 +2565,21 @@
       <c r="H18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="192"/>
+      <c r="L18" s="132"/>
       <c r="M18" s="55" t="s">
         <v>143</v>
       </c>
       <c r="N18" s="77"/>
     </row>
     <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="145"/>
-      <c r="B19" s="142">
+      <c r="A19" s="157"/>
+      <c r="B19" s="160">
         <v>44441</v>
       </c>
-      <c r="C19" s="153" t="s">
+      <c r="C19" s="174" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -2598,41 +2593,41 @@
         <v>14</v>
       </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="193" t="s">
-        <v>168</v>
-      </c>
-      <c r="J19" s="193" t="s">
-        <v>178</v>
+      <c r="I19" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="133" t="s">
+        <v>177</v>
       </c>
       <c r="K19" s="93"/>
-      <c r="L19" s="193"/>
+      <c r="L19" s="133"/>
       <c r="M19" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N19" s="77"/>
     </row>
     <row r="20" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="145"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="154"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="176"/>
       <c r="D20" s="51"/>
       <c r="E20" s="61"/>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
       <c r="K20" s="94"/>
-      <c r="L20" s="194"/>
+      <c r="L20" s="134"/>
       <c r="M20" s="51"/>
       <c r="N20" s="77"/>
     </row>
     <row r="21" spans="1:14" ht="38.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="145"/>
-      <c r="B21" s="148">
+      <c r="A21" s="157"/>
+      <c r="B21" s="190">
         <v>44442</v>
       </c>
-      <c r="C21" s="155" t="s">
+      <c r="C21" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -2645,16 +2640,16 @@
         <v>78</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H21" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="191" t="s">
-        <v>173</v>
+      <c r="I21" s="131" t="s">
+        <v>172</v>
       </c>
       <c r="J21" s="128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
@@ -2664,9 +2659,9 @@
       <c r="N21" s="77"/>
     </row>
     <row r="22" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="146"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="152"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="173"/>
       <c r="D22" s="55" t="s">
         <v>63</v>
       </c>
@@ -2678,7 +2673,7 @@
       <c r="H22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="192"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
@@ -2707,13 +2702,13 @@
       <c r="N23" s="77"/>
     </row>
     <row r="24" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="168" t="s">
+      <c r="A24" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="142">
+      <c r="B24" s="160">
         <v>44445</v>
       </c>
-      <c r="C24" s="153" t="s">
+      <c r="C24" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -2731,11 +2726,11 @@
       <c r="H24" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="193" t="s">
+      <c r="I24" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="J24" s="193"/>
-      <c r="K24" s="129" t="s">
+      <c r="J24" s="133"/>
+      <c r="K24" s="194" t="s">
         <v>118</v>
       </c>
       <c r="L24" s="51"/>
@@ -2745,9 +2740,9 @@
       <c r="N24" s="77"/>
     </row>
     <row r="25" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="144"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="156"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="175"/>
       <c r="D25" s="51" t="s">
         <v>82</v>
       </c>
@@ -2761,9 +2756,9 @@
       <c r="H25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="130"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="195"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51" t="s">
         <v>103</v>
@@ -2771,9 +2766,9 @@
       <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="144"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="156"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="51" t="s">
         <v>116</v>
       </c>
@@ -2787,9 +2782,9 @@
       <c r="H26" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="130"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="195"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51" t="s">
         <v>103</v>
@@ -2797,9 +2792,9 @@
       <c r="N26" s="77"/>
     </row>
     <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="144"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="156"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="175"/>
       <c r="D27" s="51" t="s">
         <v>30</v>
       </c>
@@ -2815,9 +2810,9 @@
       <c r="H27" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="199"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="131"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="196"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51" t="s">
         <v>103</v>
@@ -2825,7 +2820,7 @@
       <c r="N27" s="77"/>
     </row>
     <row r="28" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="145"/>
+      <c r="A28" s="157"/>
       <c r="B28" s="75">
         <v>44446</v>
       </c>
@@ -2846,11 +2841,11 @@
       <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="145"/>
-      <c r="B29" s="165">
+      <c r="A29" s="157"/>
+      <c r="B29" s="150">
         <v>44447</v>
       </c>
-      <c r="C29" s="151" t="s">
+      <c r="C29" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -2868,13 +2863,13 @@
       <c r="H29" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="191" t="s">
+      <c r="I29" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="191" t="s">
+      <c r="J29" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="137" t="s">
+      <c r="K29" s="202" t="s">
         <v>125</v>
       </c>
       <c r="L29" s="55"/>
@@ -2884,9 +2879,9 @@
       <c r="N29" s="77"/>
     </row>
     <row r="30" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="145"/>
-      <c r="B30" s="183"/>
-      <c r="C30" s="169"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="166"/>
       <c r="D30" s="55" t="s">
         <v>59</v>
       </c>
@@ -2900,9 +2895,9 @@
       <c r="H30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="192"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="138"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="203"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55" t="s">
         <v>103</v>
@@ -2910,7 +2905,7 @@
       <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="145"/>
+      <c r="A31" s="157"/>
       <c r="B31" s="88">
         <v>44448</v>
       </c>
@@ -2938,11 +2933,11 @@
       <c r="N31" s="77"/>
     </row>
     <row r="32" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="145"/>
-      <c r="B32" s="165">
+      <c r="A32" s="157"/>
+      <c r="B32" s="150">
         <v>44449</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="55" t="s">
@@ -2960,19 +2955,19 @@
       <c r="H32" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="191" t="s">
+      <c r="I32" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="191"/>
+      <c r="J32" s="131"/>
       <c r="K32" s="95"/>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="77"/>
     </row>
     <row r="33" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="145"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="152"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="173"/>
       <c r="D33" s="55" t="s">
         <v>63</v>
       </c>
@@ -2986,8 +2981,8 @@
       <c r="H33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
       <c r="K33" s="96"/>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -3013,13 +3008,13 @@
       <c r="N34" s="77"/>
     </row>
     <row r="35" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="168" t="s">
+      <c r="A35" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="142">
+      <c r="B35" s="160">
         <v>44452</v>
       </c>
-      <c r="C35" s="153" t="s">
+      <c r="C35" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="52" t="s">
@@ -3032,18 +3027,18 @@
         <v>29</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="139" t="s">
+      <c r="I35" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="203" t="s">
+      <c r="J35" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="K35" s="139" t="s">
+      <c r="K35" s="137" t="s">
         <v>126</v>
       </c>
       <c r="L35" s="51"/>
@@ -3052,9 +3047,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="144"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="156"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="175"/>
       <c r="D36" s="50" t="s">
         <v>63</v>
       </c>
@@ -3070,9 +3065,9 @@
       <c r="H36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="140"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="140"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="138"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51" t="s">
         <v>143</v>
@@ -3080,9 +3075,9 @@
       <c r="N36" s="77"/>
     </row>
     <row r="37" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="144"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="156"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="175"/>
       <c r="D37" s="50" t="s">
         <v>108</v>
       </c>
@@ -3098,9 +3093,9 @@
       <c r="H37" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="140"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="140"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="138"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51" t="s">
         <v>143</v>
@@ -3108,9 +3103,9 @@
       <c r="N37" s="77"/>
     </row>
     <row r="38" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="144"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="154"/>
+      <c r="A38" s="156"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="176"/>
       <c r="D38" s="50" t="s">
         <v>30</v>
       </c>
@@ -3121,14 +3116,14 @@
         <v>29</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H38" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="141"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="141"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="139"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51" t="s">
         <v>143</v>
@@ -3136,7 +3131,7 @@
       <c r="N38" s="77"/>
     </row>
     <row r="39" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="145"/>
+      <c r="A39" s="157"/>
       <c r="B39" s="90">
         <v>44453</v>
       </c>
@@ -3156,11 +3151,11 @@
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="145"/>
-      <c r="B40" s="165">
+      <c r="A40" s="157"/>
+      <c r="B40" s="150">
         <v>44454</v>
       </c>
-      <c r="C40" s="151" t="s">
+      <c r="C40" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="55" t="s">
@@ -3178,8 +3173,8 @@
       <c r="H40" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="191"/>
-      <c r="J40" s="191"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
       <c r="K40" s="95"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55" t="s">
@@ -3187,9 +3182,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="145"/>
-      <c r="B41" s="183"/>
-      <c r="C41" s="169"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="166"/>
       <c r="D41" s="55" t="s">
         <v>59</v>
       </c>
@@ -3201,8 +3196,8 @@
       <c r="H41" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="192"/>
-      <c r="J41" s="192"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
       <c r="K41" s="96"/>
       <c r="L41" s="55"/>
       <c r="M41" s="55" t="s">
@@ -3211,7 +3206,7 @@
       <c r="N41" s="77"/>
     </row>
     <row r="42" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="145"/>
+      <c r="A42" s="157"/>
       <c r="B42" s="88">
         <v>44455</v>
       </c>
@@ -3239,11 +3234,11 @@
       <c r="N42" s="77"/>
     </row>
     <row r="43" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="145"/>
-      <c r="B43" s="166">
+      <c r="A43" s="157"/>
+      <c r="B43" s="187">
         <v>44456</v>
       </c>
-      <c r="C43" s="175" t="s">
+      <c r="C43" s="177" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="55" t="s">
@@ -3256,14 +3251,14 @@
         <v>76</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H43" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I43" s="191"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="132" t="s">
+      <c r="I43" s="131"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="197" t="s">
         <v>119</v>
       </c>
       <c r="L43" s="55"/>
@@ -3273,9 +3268,9 @@
       <c r="N43" s="77"/>
     </row>
     <row r="44" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="145"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="175"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="177"/>
       <c r="D44" s="55" t="s">
         <v>63</v>
       </c>
@@ -3287,9 +3282,9 @@
       <c r="H44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="192"/>
-      <c r="J44" s="192"/>
-      <c r="K44" s="133"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="198"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55" t="s">
         <v>103</v>
@@ -3315,13 +3310,13 @@
       <c r="M45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="178" t="s">
+      <c r="A46" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="184">
+      <c r="B46" s="152">
         <v>44459</v>
       </c>
-      <c r="C46" s="176" t="s">
+      <c r="C46" s="178" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="52" t="s">
@@ -3339,8 +3334,8 @@
       <c r="H46" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="I46" s="193"/>
-      <c r="J46" s="195"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="140"/>
       <c r="K46" s="62"/>
       <c r="L46" s="50"/>
       <c r="M46" s="50" t="s">
@@ -3348,9 +3343,9 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="179"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="176"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="178"/>
       <c r="D47" s="50" t="s">
         <v>63</v>
       </c>
@@ -3362,8 +3357,8 @@
       <c r="H47" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="199"/>
-      <c r="J47" s="200"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="142"/>
       <c r="K47" s="63"/>
       <c r="L47" s="50"/>
       <c r="M47" s="50" t="s">
@@ -3371,9 +3366,9 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="179"/>
-      <c r="B48" s="184"/>
-      <c r="C48" s="176"/>
+      <c r="A48" s="146"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="178"/>
       <c r="D48" s="50" t="s">
         <v>116</v>
       </c>
@@ -3385,8 +3380,8 @@
       <c r="H48" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="199"/>
-      <c r="J48" s="200"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="142"/>
       <c r="K48" s="63"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50" t="s">
@@ -3394,9 +3389,9 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="179"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="176"/>
+      <c r="A49" s="146"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="178"/>
       <c r="D49" s="50" t="s">
         <v>30</v>
       </c>
@@ -3412,8 +3407,8 @@
       <c r="H49" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="194"/>
-      <c r="J49" s="196"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="141"/>
       <c r="K49" s="64"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50" t="s">
@@ -3421,7 +3416,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="179"/>
+      <c r="A50" s="146"/>
       <c r="B50" s="66">
         <v>44460</v>
       </c>
@@ -3440,11 +3435,11 @@
       <c r="M50" s="47"/>
     </row>
     <row r="51" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="179"/>
-      <c r="B51" s="185">
+      <c r="A51" s="146"/>
+      <c r="B51" s="153">
         <v>44461</v>
       </c>
-      <c r="C51" s="171" t="s">
+      <c r="C51" s="168" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="54" t="s">
@@ -3462,10 +3457,10 @@
       <c r="H51" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="I51" s="191" t="s">
+      <c r="I51" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="J51" s="201"/>
+      <c r="J51" s="143"/>
       <c r="K51" s="98"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54" t="s">
@@ -3473,9 +3468,9 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="179"/>
-      <c r="B52" s="186"/>
-      <c r="C52" s="172"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="169"/>
       <c r="D52" s="54" t="s">
         <v>59</v>
       </c>
@@ -3487,8 +3482,8 @@
       <c r="H52" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="192"/>
-      <c r="J52" s="202"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="144"/>
       <c r="K52" s="99"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54" t="s">
@@ -3496,7 +3491,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="179"/>
+      <c r="A53" s="146"/>
       <c r="B53" s="67">
         <v>44462</v>
       </c>
@@ -3523,11 +3518,11 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="179"/>
-      <c r="B54" s="187">
+      <c r="A54" s="146"/>
+      <c r="B54" s="158">
         <v>44463</v>
       </c>
-      <c r="C54" s="173" t="s">
+      <c r="C54" s="170" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="54" t="s">
@@ -3537,16 +3532,16 @@
         <v>2</v>
       </c>
       <c r="F54" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" s="54" t="s">
         <v>170</v>
-      </c>
-      <c r="G54" s="54" t="s">
-        <v>171</v>
       </c>
       <c r="H54" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="I54" s="191"/>
-      <c r="J54" s="201"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="143"/>
       <c r="K54" s="98"/>
       <c r="L54" s="55" t="s">
         <v>107</v>
@@ -3556,9 +3551,9 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="180"/>
-      <c r="B55" s="188"/>
-      <c r="C55" s="174"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="171"/>
       <c r="D55" s="54" t="s">
         <v>63</v>
       </c>
@@ -3570,8 +3565,8 @@
       <c r="H55" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="192"/>
-      <c r="J55" s="202"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="144"/>
       <c r="K55" s="99"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54" t="s">
@@ -3597,13 +3592,13 @@
       <c r="M56" s="47"/>
     </row>
     <row r="57" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="181" t="s">
+      <c r="A57" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="189">
+      <c r="B57" s="163">
         <v>44466</v>
       </c>
-      <c r="C57" s="177" t="s">
+      <c r="C57" s="179" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="50" t="s">
@@ -3621,8 +3616,8 @@
       <c r="H57" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="I57" s="195"/>
-      <c r="J57" s="195"/>
+      <c r="I57" s="140"/>
+      <c r="J57" s="140"/>
       <c r="K57" s="62"/>
       <c r="L57" s="50"/>
       <c r="M57" s="50" t="s">
@@ -3630,9 +3625,9 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="182"/>
-      <c r="B58" s="190"/>
-      <c r="C58" s="177"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="179"/>
       <c r="D58" s="50" t="s">
         <v>120</v>
       </c>
@@ -3644,8 +3639,8 @@
         <v>14</v>
       </c>
       <c r="H58" s="97"/>
-      <c r="I58" s="196"/>
-      <c r="J58" s="196"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="141"/>
       <c r="K58" s="64"/>
       <c r="L58" s="97"/>
       <c r="M58" s="97" t="s">
@@ -3653,7 +3648,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="69" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="182"/>
+      <c r="A59" s="149"/>
       <c r="B59" s="66">
         <v>44467</v>
       </c>
@@ -3675,11 +3670,11 @@
       <c r="N59" s="34"/>
     </row>
     <row r="60" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="182"/>
-      <c r="B60" s="185">
+      <c r="A60" s="149"/>
+      <c r="B60" s="153">
         <v>44468</v>
       </c>
-      <c r="C60" s="170" t="s">
+      <c r="C60" s="167" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="54" t="s">
@@ -3697,31 +3692,31 @@
       <c r="H60" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="197"/>
-      <c r="J60" s="197"/>
-      <c r="K60" s="197"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="129"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="182"/>
-      <c r="B61" s="186"/>
-      <c r="C61" s="170"/>
+      <c r="A61" s="149"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="167"/>
       <c r="D61" s="54"/>
       <c r="E61" s="119"/>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
-      <c r="I61" s="198"/>
-      <c r="J61" s="198"/>
-      <c r="K61" s="198"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
     </row>
     <row r="62" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="182"/>
+      <c r="A62" s="149"/>
       <c r="B62" s="67">
         <v>44469</v>
       </c>
@@ -3740,7 +3735,7 @@
       <c r="M62" s="97"/>
     </row>
     <row r="63" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="182"/>
+      <c r="A63" s="149"/>
       <c r="B63" s="124">
         <v>44470</v>
       </c>
@@ -3802,15 +3797,86 @@
       <c r="M65" s="69"/>
     </row>
     <row r="66" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="160" t="s">
+      <c r="A66" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="161"/>
-      <c r="C66" s="162"/>
+      <c r="B66" s="182"/>
+      <c r="C66" s="183"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="87">
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
     <mergeCell ref="K60:K61"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="L17:L18"/>
@@ -3827,77 +3893,6 @@
     <mergeCell ref="J43:J44"/>
     <mergeCell ref="I35:I38"/>
     <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K35:K38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J35" r:id="rId1" xr:uid="{6F56A95F-302D-430F-BB93-125813A81349}"/>
@@ -3994,7 +3989,7 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="212">
+      <c r="A8" s="211">
         <v>34</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -4010,8 +4005,8 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="212"/>
-      <c r="B9" s="206" t="s">
+      <c r="A9" s="211"/>
+      <c r="B9" s="213" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -4034,8 +4029,8 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="212"/>
-      <c r="B10" s="221"/>
+      <c r="A10" s="211"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4054,8 +4049,8 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="51.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="212"/>
-      <c r="B11" s="221"/>
+      <c r="A11" s="211"/>
+      <c r="B11" s="214"/>
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
@@ -4078,8 +4073,8 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="212"/>
-      <c r="B12" s="222"/>
+      <c r="A12" s="211"/>
+      <c r="B12" s="215"/>
       <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
@@ -4098,8 +4093,8 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="212"/>
-      <c r="B13" s="223" t="s">
+      <c r="A13" s="211"/>
+      <c r="B13" s="216" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -4122,8 +4117,8 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="212"/>
-      <c r="B14" s="224"/>
+      <c r="A14" s="211"/>
+      <c r="B14" s="217"/>
       <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
@@ -4142,8 +4137,8 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="212"/>
-      <c r="B15" s="225"/>
+      <c r="A15" s="211"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4162,8 +4157,8 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="212"/>
-      <c r="B16" s="206" t="s">
+      <c r="A16" s="211"/>
+      <c r="B16" s="213" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -4180,8 +4175,8 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="212"/>
-      <c r="B17" s="222"/>
+      <c r="A17" s="211"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="14"/>
@@ -4196,8 +4191,8 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="212"/>
-      <c r="B18" s="223" t="s">
+      <c r="A18" s="211"/>
+      <c r="B18" s="216" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -4218,8 +4213,8 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="212"/>
-      <c r="B19" s="224"/>
+      <c r="A19" s="211"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
@@ -4238,8 +4233,8 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="220"/>
-      <c r="B20" s="225"/>
+      <c r="A20" s="212"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="30" t="s">
         <v>41</v>
       </c>
@@ -4258,10 +4253,10 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="214">
+      <c r="A21" s="204">
         <v>35</v>
       </c>
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="207" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9"/>
@@ -4280,8 +4275,8 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="213"/>
-      <c r="B22" s="207"/>
+      <c r="A22" s="205"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="15"/>
@@ -4294,7 +4289,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="213"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
@@ -4308,8 +4303,8 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="213"/>
-      <c r="B24" s="218" t="s">
+      <c r="A24" s="205"/>
+      <c r="B24" s="207" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9"/>
@@ -4328,8 +4323,8 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="213"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="205"/>
+      <c r="B25" s="208"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
       <c r="E25" s="9"/>
@@ -4340,8 +4335,8 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="213"/>
-      <c r="B26" s="218" t="s">
+      <c r="A26" s="205"/>
+      <c r="B26" s="207" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4358,8 +4353,8 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="213"/>
-      <c r="B27" s="207"/>
+      <c r="A27" s="205"/>
+      <c r="B27" s="208"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="15"/>
@@ -4370,8 +4365,8 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="213"/>
-      <c r="B28" s="226" t="s">
+      <c r="A28" s="205"/>
+      <c r="B28" s="209" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="9"/>
@@ -4384,8 +4379,8 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="217"/>
-      <c r="B29" s="227"/>
+      <c r="A29" s="206"/>
+      <c r="B29" s="210"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="21"/>
@@ -4396,10 +4391,10 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="211">
+      <c r="A30" s="224">
         <v>36</v>
       </c>
-      <c r="B30" s="206" t="s">
+      <c r="B30" s="213" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="23"/>
@@ -4418,8 +4413,8 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="212"/>
-      <c r="B31" s="207"/>
+      <c r="A31" s="211"/>
+      <c r="B31" s="208"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="14"/>
@@ -4430,7 +4425,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="213"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
@@ -4444,7 +4439,7 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="213"/>
+      <c r="A33" s="205"/>
       <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
@@ -4462,8 +4457,8 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="213"/>
-      <c r="B34" s="206" t="s">
+      <c r="A34" s="205"/>
+      <c r="B34" s="213" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -4480,8 +4475,8 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="213"/>
-      <c r="B35" s="207"/>
+      <c r="A35" s="205"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="14"/>
@@ -4492,8 +4487,8 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="213"/>
-      <c r="B36" s="206" t="s">
+      <c r="A36" s="205"/>
+      <c r="B36" s="213" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="23"/>
@@ -4512,8 +4507,8 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="213"/>
-      <c r="B37" s="207"/>
+      <c r="A37" s="205"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -4524,10 +4519,10 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="214">
+      <c r="A38" s="204">
         <v>37</v>
       </c>
-      <c r="B38" s="218" t="s">
+      <c r="B38" s="207" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="9"/>
@@ -4540,8 +4535,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="215"/>
-      <c r="B39" s="207"/>
+      <c r="A39" s="225"/>
+      <c r="B39" s="208"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="15"/>
@@ -4552,7 +4547,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="216"/>
+      <c r="A40" s="226"/>
       <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
@@ -4566,7 +4561,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="216"/>
+      <c r="A41" s="226"/>
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4580,8 +4575,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="216"/>
-      <c r="B42" s="218" t="s">
+      <c r="A42" s="226"/>
+      <c r="B42" s="207" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4598,8 +4593,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="216"/>
-      <c r="B43" s="219"/>
+      <c r="A43" s="226"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4610,8 +4605,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="216"/>
-      <c r="B44" s="207"/>
+      <c r="A44" s="226"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="20"/>
@@ -4622,8 +4617,8 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="216"/>
-      <c r="B45" s="218" t="s">
+      <c r="A45" s="226"/>
+      <c r="B45" s="207" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="9"/>
@@ -4636,8 +4631,8 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="213"/>
-      <c r="B46" s="219"/>
+      <c r="A46" s="205"/>
+      <c r="B46" s="227"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4648,8 +4643,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="217"/>
-      <c r="B47" s="207"/>
+      <c r="A47" s="206"/>
+      <c r="B47" s="208"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="20"/>
@@ -4660,10 +4655,10 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="204">
+      <c r="A48" s="219">
         <v>38</v>
       </c>
-      <c r="B48" s="206" t="s">
+      <c r="B48" s="213" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="23"/>
@@ -4676,8 +4671,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="204"/>
-      <c r="B49" s="207"/>
+      <c r="A49" s="219"/>
+      <c r="B49" s="208"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -4688,7 +4683,7 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="205"/>
+      <c r="A50" s="220"/>
       <c r="B50" s="23" t="s">
         <v>10</v>
       </c>
@@ -4702,7 +4697,7 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="205"/>
+      <c r="A51" s="220"/>
       <c r="B51" s="23" t="s">
         <v>13</v>
       </c>
@@ -4716,7 +4711,7 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="205"/>
+      <c r="A52" s="220"/>
       <c r="B52" s="23" t="s">
         <v>11</v>
       </c>
@@ -4734,8 +4729,8 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="205"/>
-      <c r="B53" s="204" t="s">
+      <c r="A53" s="220"/>
+      <c r="B53" s="219" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="17"/>
@@ -4748,8 +4743,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="205"/>
-      <c r="B54" s="205"/>
+      <c r="A54" s="220"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="22"/>
@@ -4760,7 +4755,7 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="208">
+      <c r="A55" s="221">
         <v>39</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -4776,7 +4771,7 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="209"/>
+      <c r="A56" s="222"/>
       <c r="B56" s="25" t="s">
         <v>10</v>
       </c>
@@ -4789,7 +4784,7 @@
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="209"/>
+      <c r="A57" s="222"/>
       <c r="B57" s="25" t="s">
         <v>13</v>
       </c>
@@ -4802,7 +4797,7 @@
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="209"/>
+      <c r="A58" s="222"/>
       <c r="B58" s="25" t="s">
         <v>11</v>
       </c>
@@ -4819,7 +4814,7 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="210"/>
+      <c r="A59" s="223"/>
       <c r="B59" s="26" t="s">
         <v>12</v>
       </c>
@@ -4833,16 +4828,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B53:B54"/>
@@ -4855,6 +4840,16 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/01_studieplan_och_schema.xlsx
+++ b/01_studieplan_och_schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsabellaGagner\Documents\Programming-projects\EC\ec-python-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexanderHagelborn\code\ec-python-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B7D25-B9D4-4D8F-82E9-D0A59314D2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC13A3C1-091C-4A44-83BA-FA0C9E6F0E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="4320" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema - Python" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="181">
   <si>
     <t>Utbildning: Data Scientist</t>
   </si>
@@ -333,9 +333,6 @@
     <t>Debuggning i Vscode, Exceptions, stack trace</t>
   </si>
   <si>
-    <t>Uppgifter på OOP: Klasser för nåt kategoriskt(typ Fordon, buss, bil), samt Point</t>
-  </si>
-  <si>
     <t>Python Data Science Handbook</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>Sätta upp sqlite3 databas</t>
   </si>
   <si>
-    <t>Vscode debugger</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -393,9 +387,6 @@
     <t>13.00-14.00</t>
   </si>
   <si>
-    <t>Skriva tester i pytest</t>
-  </si>
-  <si>
     <t>INLÄMNING 1 DEADLINE</t>
   </si>
   <si>
@@ -507,9 +498,6 @@
     <t>Moduler, paket och importer, DRY coding, commenting</t>
   </si>
   <si>
-    <t>PDS: 03.00-03.05, pandas repo, OOP exercises</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=8JJ101D3knE</t>
   </si>
   <si>
@@ -580,6 +568,21 @@
   </si>
   <si>
     <t>Repetition vecka 1, terminalkommandon, argparse, att skapa ett git-repo</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/docs/user_guide/10min.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDS: 03.00-03.05+ exercises/pandas.txt </t>
+  </si>
+  <si>
+    <t>exercises/classes_oop.txt</t>
+  </si>
+  <si>
+    <t>errors_exceptions.txt</t>
+  </si>
+  <si>
+    <t>pytest.txt</t>
   </si>
 </sst>
 </file>
@@ -1350,280 +1353,241 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1634,13 +1598,52 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2015,9 +2018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2053,7 +2056,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>3</v>
@@ -2071,7 +2074,7 @@
         <v>43</v>
       </c>
       <c r="K1" s="73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L1" s="73" t="s">
         <v>36</v>
@@ -2082,7 +2085,7 @@
       <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="144" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="75">
@@ -2104,11 +2107,11 @@
       <c r="N2" s="77"/>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="156"/>
-      <c r="B3" s="185">
+      <c r="A3" s="144"/>
+      <c r="B3" s="164">
         <v>44432</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="163" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2126,10 +2129,10 @@
       <c r="H3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="184" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" s="184" t="s">
+      <c r="I3" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="163" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="79"/>
@@ -2142,9 +2145,9 @@
       <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="156"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="184"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="51" t="s">
         <v>22</v>
       </c>
@@ -2160,19 +2163,19 @@
       <c r="H4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
       <c r="K4" s="79"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="1:14" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="156"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="184"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="51" t="s">
         <v>58</v>
       </c>
@@ -2183,13 +2186,13 @@
         <v>66</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
       <c r="K5" s="79"/>
       <c r="L5" s="51" t="s">
         <v>38</v>
@@ -2200,11 +2203,11 @@
       <c r="N5" s="77"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="156"/>
-      <c r="B6" s="187">
+      <c r="A6" s="144"/>
+      <c r="B6" s="166">
         <v>44433</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="150" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -2222,23 +2225,23 @@
       <c r="H6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="180" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="180" t="s">
+      <c r="I6" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="159" t="s">
         <v>48</v>
       </c>
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
       <c r="M6" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N6" s="77"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="156"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="191"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="55" t="s">
         <v>59</v>
       </c>
@@ -2250,17 +2253,17 @@
       <c r="H7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
       <c r="K7" s="56"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="156"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="78">
         <v>44434</v>
       </c>
@@ -2279,24 +2282,24 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="61" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" s="51"/>
       <c r="M8" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N8" s="77"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="156"/>
-      <c r="B9" s="187">
+      <c r="A9" s="144"/>
+      <c r="B9" s="166">
         <v>44435</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="150" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -2309,30 +2312,30 @@
         <v>67</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="180" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="180" t="s">
-        <v>146</v>
+      <c r="I9" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="159" t="s">
+        <v>143</v>
       </c>
       <c r="K9" s="56"/>
-      <c r="L9" s="131" t="s">
-        <v>152</v>
+      <c r="L9" s="191" t="s">
+        <v>149</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="156"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="191"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="55" t="s">
         <v>63</v>
       </c>
@@ -2344,12 +2347,12 @@
       <c r="H10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="132"/>
+      <c r="L10" s="192"/>
       <c r="M10" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N10" s="77"/>
     </row>
@@ -2373,13 +2376,13 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="160">
+      <c r="B12" s="142">
         <v>44438</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -2392,30 +2395,30 @@
         <v>28</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="137" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" s="137" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" s="199" t="s">
         <v>124</v>
+      </c>
+      <c r="I12" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="139" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="134" t="s">
+        <v>121</v>
       </c>
       <c r="L12" s="53"/>
       <c r="M12" s="53" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="157"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="175"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="156"/>
       <c r="D13" s="50" t="s">
         <v>63</v>
       </c>
@@ -2427,21 +2430,21 @@
       <c r="H13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="200"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="135"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="157"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="175"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="156"/>
       <c r="D14" s="50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="116">
         <v>1</v>
@@ -2451,19 +2454,19 @@
       <c r="H14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="200"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="157"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="192"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="157"/>
       <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
@@ -2474,22 +2477,22 @@
         <v>68</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="201"/>
+        <v>125</v>
+      </c>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="157"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="75">
         <v>44439</v>
       </c>
@@ -2502,10 +2505,10 @@
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
       <c r="I16" s="114" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J16" s="127" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -2513,11 +2516,11 @@
       <c r="N16" s="77"/>
     </row>
     <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="157"/>
-      <c r="B17" s="150">
+      <c r="A17" s="145"/>
+      <c r="B17" s="165">
         <v>44440</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="55" t="s">
@@ -2530,28 +2533,28 @@
         <v>69</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H17" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="131" t="s">
+      <c r="I17" s="191" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="191" t="s">
         <v>171</v>
       </c>
-      <c r="J17" s="131" t="s">
-        <v>175</v>
-      </c>
       <c r="K17" s="95"/>
-      <c r="L17" s="131"/>
+      <c r="L17" s="191"/>
       <c r="M17" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N17" s="77"/>
     </row>
     <row r="18" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="157"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="173"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="55" t="s">
         <v>59</v>
       </c>
@@ -2565,21 +2568,21 @@
       <c r="H18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="132"/>
+      <c r="L18" s="192"/>
       <c r="M18" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N18" s="77"/>
     </row>
     <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="157"/>
-      <c r="B19" s="160">
+      <c r="A19" s="145"/>
+      <c r="B19" s="142">
         <v>44441</v>
       </c>
-      <c r="C19" s="174" t="s">
+      <c r="C19" s="153" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -2593,41 +2596,41 @@
         <v>14</v>
       </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="J19" s="133" t="s">
-        <v>177</v>
+      <c r="I19" s="193" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="193" t="s">
+        <v>173</v>
       </c>
       <c r="K19" s="93"/>
-      <c r="L19" s="133"/>
+      <c r="L19" s="193"/>
       <c r="M19" s="51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N19" s="77"/>
     </row>
     <row r="20" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="157"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="176"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="154"/>
       <c r="D20" s="51"/>
       <c r="E20" s="61"/>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
       <c r="K20" s="94"/>
-      <c r="L20" s="134"/>
+      <c r="L20" s="194"/>
       <c r="M20" s="51"/>
       <c r="N20" s="77"/>
     </row>
     <row r="21" spans="1:14" ht="38.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="157"/>
-      <c r="B21" s="190">
+      <c r="A21" s="145"/>
+      <c r="B21" s="148">
         <v>44442</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="155" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -2640,28 +2643,28 @@
         <v>78</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="131" t="s">
-        <v>172</v>
+        <v>126</v>
+      </c>
+      <c r="I21" s="191" t="s">
+        <v>168</v>
       </c>
       <c r="J21" s="128" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
       <c r="M21" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N21" s="77"/>
     </row>
     <row r="22" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="189"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="173"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="55" t="s">
         <v>63</v>
       </c>
@@ -2673,12 +2676,12 @@
       <c r="H22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="132"/>
+      <c r="I22" s="192"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
       <c r="M22" s="55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N22" s="77"/>
     </row>
@@ -2702,13 +2705,13 @@
       <c r="N23" s="77"/>
     </row>
     <row r="24" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="155" t="s">
+      <c r="A24" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="160">
+      <c r="B24" s="142">
         <v>44445</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -2726,23 +2729,25 @@
       <c r="H24" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="133" t="s">
-        <v>155</v>
-      </c>
-      <c r="J24" s="133"/>
-      <c r="K24" s="194" t="s">
-        <v>118</v>
+      <c r="I24" s="193" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" s="203" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="129" t="s">
+        <v>115</v>
       </c>
       <c r="L24" s="51"/>
       <c r="M24" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N24" s="77"/>
     </row>
     <row r="25" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="156"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="175"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="156"/>
       <c r="D25" s="51" t="s">
         <v>82</v>
       </c>
@@ -2756,21 +2761,21 @@
       <c r="H25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="195"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="156"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="175"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="156"/>
       <c r="D26" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E26" s="61">
         <v>1</v>
@@ -2782,19 +2787,19 @@
       <c r="H26" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="195"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="130"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N26" s="77"/>
     </row>
     <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="156"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="175"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="156"/>
       <c r="D27" s="51" t="s">
         <v>30</v>
       </c>
@@ -2810,17 +2815,17 @@
       <c r="H27" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="196"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="131"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N27" s="77"/>
     </row>
     <row r="28" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="157"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="75">
         <v>44446</v>
       </c>
@@ -2833,7 +2838,7 @@
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
@@ -2841,11 +2846,11 @@
       <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="157"/>
-      <c r="B29" s="150">
+      <c r="A29" s="145"/>
+      <c r="B29" s="165">
         <v>44447</v>
       </c>
-      <c r="C29" s="165" t="s">
+      <c r="C29" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -2863,25 +2868,25 @@
       <c r="H29" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="131" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="131" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" s="202" t="s">
-        <v>125</v>
+      <c r="I29" s="191" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="191" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="137" t="s">
+        <v>122</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N29" s="77"/>
     </row>
     <row r="30" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="157"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="166"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="169"/>
       <c r="D30" s="55" t="s">
         <v>59</v>
       </c>
@@ -2895,17 +2900,17 @@
       <c r="H30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="203"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="138"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="157"/>
+      <c r="A31" s="145"/>
       <c r="B31" s="88">
         <v>44448</v>
       </c>
@@ -2928,16 +2933,16 @@
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
       <c r="M31" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N31" s="77"/>
     </row>
     <row r="32" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="157"/>
-      <c r="B32" s="150">
+      <c r="A32" s="145"/>
+      <c r="B32" s="165">
         <v>44449</v>
       </c>
-      <c r="C32" s="172" t="s">
+      <c r="C32" s="155" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="55" t="s">
@@ -2955,19 +2960,19 @@
       <c r="H32" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="131" t="s">
-        <v>117</v>
-      </c>
-      <c r="J32" s="131"/>
+      <c r="I32" s="191" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="191"/>
       <c r="K32" s="95"/>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="77"/>
     </row>
     <row r="33" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="157"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="173"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="152"/>
       <c r="D33" s="55" t="s">
         <v>63</v>
       </c>
@@ -2981,8 +2986,8 @@
       <c r="H33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="192"/>
       <c r="K33" s="96"/>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -3008,13 +3013,13 @@
       <c r="N34" s="77"/>
     </row>
     <row r="35" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="155" t="s">
+      <c r="A35" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="160">
+      <c r="B35" s="142">
         <v>44452</v>
       </c>
-      <c r="C35" s="174" t="s">
+      <c r="C35" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="52" t="s">
@@ -3027,29 +3032,29 @@
         <v>29</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="137" t="s">
+      <c r="I35" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="136" t="s">
-        <v>156</v>
-      </c>
-      <c r="K35" s="137" t="s">
-        <v>126</v>
+      <c r="J35" s="203" t="s">
+        <v>152</v>
+      </c>
+      <c r="K35" s="139" t="s">
+        <v>123</v>
       </c>
       <c r="L35" s="51"/>
       <c r="M35" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="156"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="175"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="156"/>
       <c r="D36" s="50" t="s">
         <v>63</v>
       </c>
@@ -3057,55 +3062,55 @@
         <v>1</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G36" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="138"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="138"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="140"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N36" s="77"/>
     </row>
     <row r="37" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="156"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="175"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="156"/>
       <c r="D37" s="50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E37" s="116">
         <v>1</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G37" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H37" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="138"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="138"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="140"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N37" s="77"/>
     </row>
     <row r="38" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="156"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="176"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="154"/>
       <c r="D38" s="50" t="s">
         <v>30</v>
       </c>
@@ -3116,22 +3121,22 @@
         <v>29</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" s="139"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="139"/>
+        <v>127</v>
+      </c>
+      <c r="I38" s="141"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="141"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N38" s="77"/>
     </row>
     <row r="39" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="157"/>
+      <c r="A39" s="145"/>
       <c r="B39" s="90">
         <v>44453</v>
       </c>
@@ -3151,11 +3156,11 @@
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="157"/>
-      <c r="B40" s="150">
+      <c r="A40" s="145"/>
+      <c r="B40" s="165">
         <v>44454</v>
       </c>
-      <c r="C40" s="165" t="s">
+      <c r="C40" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="55" t="s">
@@ -3168,23 +3173,23 @@
         <v>76</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
+        <v>128</v>
+      </c>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
       <c r="K40" s="95"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="157"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="166"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="183"/>
+      <c r="C41" s="169"/>
       <c r="D41" s="55" t="s">
         <v>59</v>
       </c>
@@ -3196,17 +3201,17 @@
       <c r="H41" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
       <c r="K41" s="96"/>
       <c r="L41" s="55"/>
       <c r="M41" s="55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N41" s="77"/>
     </row>
     <row r="42" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="157"/>
+      <c r="A42" s="145"/>
       <c r="B42" s="88">
         <v>44455</v>
       </c>
@@ -3229,16 +3234,16 @@
       <c r="K42" s="51"/>
       <c r="L42" s="51"/>
       <c r="M42" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N42" s="77"/>
     </row>
     <row r="43" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="157"/>
-      <c r="B43" s="187">
+      <c r="A43" s="145"/>
+      <c r="B43" s="166">
         <v>44456</v>
       </c>
-      <c r="C43" s="177" t="s">
+      <c r="C43" s="175" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="55" t="s">
@@ -3251,26 +3256,26 @@
         <v>76</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="I43" s="131"/>
-      <c r="J43" s="131"/>
-      <c r="K43" s="197" t="s">
-        <v>119</v>
+        <v>129</v>
+      </c>
+      <c r="I43" s="191"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="132" t="s">
+        <v>116</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N43" s="77"/>
     </row>
     <row r="44" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="157"/>
-      <c r="B44" s="188"/>
-      <c r="C44" s="177"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="55" t="s">
         <v>63</v>
       </c>
@@ -3282,12 +3287,12 @@
       <c r="H44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="198"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="133"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N44" s="77"/>
     </row>
@@ -3310,13 +3315,13 @@
       <c r="M45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="145" t="s">
+      <c r="A46" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="152">
+      <c r="B46" s="184">
         <v>44459</v>
       </c>
-      <c r="C46" s="178" t="s">
+      <c r="C46" s="176" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="52" t="s">
@@ -3326,26 +3331,26 @@
         <v>2</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="133"/>
-      <c r="J46" s="140"/>
+        <v>130</v>
+      </c>
+      <c r="I46" s="193"/>
+      <c r="J46" s="195"/>
       <c r="K46" s="62"/>
       <c r="L46" s="50"/>
       <c r="M46" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="146"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="178"/>
+      <c r="A47" s="179"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="176"/>
       <c r="D47" s="50" t="s">
         <v>63</v>
       </c>
@@ -3357,20 +3362,20 @@
       <c r="H47" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="135"/>
-      <c r="J47" s="142"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
       <c r="K47" s="63"/>
       <c r="L47" s="50"/>
       <c r="M47" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="146"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="178"/>
+      <c r="A48" s="179"/>
+      <c r="B48" s="184"/>
+      <c r="C48" s="176"/>
       <c r="D48" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E48" s="116">
         <v>1</v>
@@ -3380,18 +3385,18 @@
       <c r="H48" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="135"/>
-      <c r="J48" s="142"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="200"/>
       <c r="K48" s="63"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="146"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="178"/>
+      <c r="A49" s="179"/>
+      <c r="B49" s="184"/>
+      <c r="C49" s="176"/>
       <c r="D49" s="50" t="s">
         <v>30</v>
       </c>
@@ -3407,16 +3412,16 @@
       <c r="H49" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="134"/>
-      <c r="J49" s="141"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="196"/>
       <c r="K49" s="64"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="146"/>
+      <c r="A50" s="179"/>
       <c r="B50" s="66">
         <v>44460</v>
       </c>
@@ -3435,11 +3440,11 @@
       <c r="M50" s="47"/>
     </row>
     <row r="51" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="146"/>
-      <c r="B51" s="153">
+      <c r="A51" s="179"/>
+      <c r="B51" s="185">
         <v>44461</v>
       </c>
-      <c r="C51" s="168" t="s">
+      <c r="C51" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="54" t="s">
@@ -3455,22 +3460,22 @@
         <v>93</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="J51" s="143"/>
+        <v>131</v>
+      </c>
+      <c r="I51" s="191" t="s">
+        <v>100</v>
+      </c>
+      <c r="J51" s="201"/>
       <c r="K51" s="98"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="146"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="169"/>
+      <c r="A52" s="179"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="172"/>
       <c r="D52" s="54" t="s">
         <v>59</v>
       </c>
@@ -3482,16 +3487,16 @@
       <c r="H52" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="132"/>
-      <c r="J52" s="144"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="202"/>
       <c r="K52" s="99"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="146"/>
+      <c r="A53" s="179"/>
       <c r="B53" s="67">
         <v>44462</v>
       </c>
@@ -3499,7 +3504,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E53" s="116">
         <v>4</v>
@@ -3514,15 +3519,15 @@
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
       <c r="M53" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="146"/>
-      <c r="B54" s="158">
+      <c r="A54" s="179"/>
+      <c r="B54" s="187">
         <v>44463</v>
       </c>
-      <c r="C54" s="170" t="s">
+      <c r="C54" s="173" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="54" t="s">
@@ -3532,28 +3537,28 @@
         <v>2</v>
       </c>
       <c r="F54" s="54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G54" s="54" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H54" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="I54" s="131"/>
-      <c r="J54" s="143"/>
+        <v>132</v>
+      </c>
+      <c r="I54" s="191"/>
+      <c r="J54" s="201"/>
       <c r="K54" s="98"/>
       <c r="L54" s="55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M54" s="54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="147"/>
-      <c r="B55" s="159"/>
-      <c r="C55" s="171"/>
+      <c r="A55" s="180"/>
+      <c r="B55" s="188"/>
+      <c r="C55" s="174"/>
       <c r="D55" s="54" t="s">
         <v>63</v>
       </c>
@@ -3565,12 +3570,12 @@
       <c r="H55" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="132"/>
-      <c r="J55" s="144"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="202"/>
       <c r="K55" s="99"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3592,13 +3597,13 @@
       <c r="M56" s="47"/>
     </row>
     <row r="57" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="148" t="s">
+      <c r="A57" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="163">
+      <c r="B57" s="189">
         <v>44466</v>
       </c>
-      <c r="C57" s="179" t="s">
+      <c r="C57" s="177" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="50" t="s">
@@ -3608,28 +3613,28 @@
         <v>2</v>
       </c>
       <c r="F57" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H57" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="140"/>
-      <c r="J57" s="140"/>
+        <v>133</v>
+      </c>
+      <c r="I57" s="195"/>
+      <c r="J57" s="195"/>
       <c r="K57" s="62"/>
       <c r="L57" s="50"/>
       <c r="M57" s="50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="149"/>
-      <c r="B58" s="164"/>
-      <c r="C58" s="179"/>
+      <c r="A58" s="182"/>
+      <c r="B58" s="190"/>
+      <c r="C58" s="177"/>
       <c r="D58" s="50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E58" s="116">
         <v>3</v>
@@ -3639,16 +3644,16 @@
         <v>14</v>
       </c>
       <c r="H58" s="97"/>
-      <c r="I58" s="141"/>
-      <c r="J58" s="141"/>
+      <c r="I58" s="196"/>
+      <c r="J58" s="196"/>
       <c r="K58" s="64"/>
       <c r="L58" s="97"/>
       <c r="M58" s="97" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="69" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="149"/>
+      <c r="A59" s="182"/>
       <c r="B59" s="66">
         <v>44467</v>
       </c>
@@ -3663,60 +3668,60 @@
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
       <c r="K59" s="109" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
       <c r="N59" s="34"/>
     </row>
     <row r="60" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="149"/>
-      <c r="B60" s="153">
+      <c r="A60" s="182"/>
+      <c r="B60" s="185">
         <v>44468</v>
       </c>
-      <c r="C60" s="167" t="s">
+      <c r="C60" s="170" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E60" s="119">
         <v>3</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G60" s="57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H60" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
+        <v>134</v>
+      </c>
+      <c r="I60" s="197"/>
+      <c r="J60" s="197"/>
+      <c r="K60" s="197"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="149"/>
-      <c r="B61" s="154"/>
-      <c r="C61" s="167"/>
+      <c r="A61" s="182"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="170"/>
       <c r="D61" s="54"/>
       <c r="E61" s="119"/>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
-      <c r="I61" s="130"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="130"/>
+      <c r="I61" s="198"/>
+      <c r="J61" s="198"/>
+      <c r="K61" s="198"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
     </row>
     <row r="62" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="149"/>
+      <c r="A62" s="182"/>
       <c r="B62" s="67">
         <v>44469</v>
       </c>
@@ -3735,7 +3740,7 @@
       <c r="M62" s="97"/>
     </row>
     <row r="63" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="149"/>
+      <c r="A63" s="182"/>
       <c r="B63" s="124">
         <v>44470</v>
       </c>
@@ -3743,24 +3748,24 @@
         <v>12</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E63" s="119">
         <v>4</v>
       </c>
       <c r="F63" s="57"/>
       <c r="G63" s="57" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H63" s="57"/>
       <c r="I63" s="123"/>
       <c r="J63" s="123"/>
       <c r="K63" s="126" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L63" s="108"/>
       <c r="M63" s="57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3797,32 +3802,69 @@
       <c r="M65" s="69"/>
     </row>
     <row r="66" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="181" t="s">
+      <c r="A66" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="182"/>
-      <c r="C66" s="183"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="162"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="87">
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A66:C66"/>
@@ -3839,66 +3881,30 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="A24:A33"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K35:K38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J35" r:id="rId1" xr:uid="{6F56A95F-302D-430F-BB93-125813A81349}"/>
+    <hyperlink ref="J24" r:id="rId2" xr:uid="{E19BBD49-AB54-43CD-9FA5-26023BC0412A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3989,7 +3995,7 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="211">
+      <c r="A8" s="212">
         <v>34</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -4005,8 +4011,8 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="211"/>
-      <c r="B9" s="213" t="s">
+      <c r="A9" s="212"/>
+      <c r="B9" s="206" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -4029,8 +4035,8 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="211"/>
-      <c r="B10" s="214"/>
+      <c r="A10" s="212"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4049,8 +4055,8 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="51.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="211"/>
-      <c r="B11" s="214"/>
+      <c r="A11" s="212"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
@@ -4073,8 +4079,8 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="211"/>
-      <c r="B12" s="215"/>
+      <c r="A12" s="212"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
@@ -4093,8 +4099,8 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="211"/>
-      <c r="B13" s="216" t="s">
+      <c r="A13" s="212"/>
+      <c r="B13" s="223" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -4117,8 +4123,8 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="211"/>
-      <c r="B14" s="217"/>
+      <c r="A14" s="212"/>
+      <c r="B14" s="224"/>
       <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
@@ -4137,8 +4143,8 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="211"/>
-      <c r="B15" s="218"/>
+      <c r="A15" s="212"/>
+      <c r="B15" s="225"/>
       <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4157,8 +4163,8 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="211"/>
-      <c r="B16" s="213" t="s">
+      <c r="A16" s="212"/>
+      <c r="B16" s="206" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -4175,8 +4181,8 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="211"/>
-      <c r="B17" s="215"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="14"/>
@@ -4191,8 +4197,8 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="211"/>
-      <c r="B18" s="216" t="s">
+      <c r="A18" s="212"/>
+      <c r="B18" s="223" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -4213,8 +4219,8 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="211"/>
-      <c r="B19" s="217"/>
+      <c r="A19" s="212"/>
+      <c r="B19" s="224"/>
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
@@ -4233,8 +4239,8 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="212"/>
-      <c r="B20" s="218"/>
+      <c r="A20" s="220"/>
+      <c r="B20" s="225"/>
       <c r="C20" s="30" t="s">
         <v>41</v>
       </c>
@@ -4253,10 +4259,10 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="204">
+      <c r="A21" s="214">
         <v>35</v>
       </c>
-      <c r="B21" s="207" t="s">
+      <c r="B21" s="218" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9"/>
@@ -4275,8 +4281,8 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="205"/>
-      <c r="B22" s="208"/>
+      <c r="A22" s="213"/>
+      <c r="B22" s="207"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="15"/>
@@ -4289,7 +4295,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="205"/>
+      <c r="A23" s="213"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
@@ -4303,8 +4309,8 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="205"/>
-      <c r="B24" s="207" t="s">
+      <c r="A24" s="213"/>
+      <c r="B24" s="218" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9"/>
@@ -4323,8 +4329,8 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="205"/>
-      <c r="B25" s="208"/>
+      <c r="A25" s="213"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
       <c r="E25" s="9"/>
@@ -4335,8 +4341,8 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="205"/>
-      <c r="B26" s="207" t="s">
+      <c r="A26" s="213"/>
+      <c r="B26" s="218" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4353,8 +4359,8 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="205"/>
-      <c r="B27" s="208"/>
+      <c r="A27" s="213"/>
+      <c r="B27" s="207"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="15"/>
@@ -4365,8 +4371,8 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="205"/>
-      <c r="B28" s="209" t="s">
+      <c r="A28" s="213"/>
+      <c r="B28" s="226" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="9"/>
@@ -4379,8 +4385,8 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="206"/>
-      <c r="B29" s="210"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="227"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="21"/>
@@ -4391,10 +4397,10 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="224">
+      <c r="A30" s="211">
         <v>36</v>
       </c>
-      <c r="B30" s="213" t="s">
+      <c r="B30" s="206" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="23"/>
@@ -4413,8 +4419,8 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="211"/>
-      <c r="B31" s="208"/>
+      <c r="A31" s="212"/>
+      <c r="B31" s="207"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="14"/>
@@ -4425,7 +4431,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="205"/>
+      <c r="A32" s="213"/>
       <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
@@ -4439,7 +4445,7 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="205"/>
+      <c r="A33" s="213"/>
       <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
@@ -4457,8 +4463,8 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="205"/>
-      <c r="B34" s="213" t="s">
+      <c r="A34" s="213"/>
+      <c r="B34" s="206" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -4475,8 +4481,8 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="205"/>
-      <c r="B35" s="208"/>
+      <c r="A35" s="213"/>
+      <c r="B35" s="207"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="14"/>
@@ -4487,8 +4493,8 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="205"/>
-      <c r="B36" s="213" t="s">
+      <c r="A36" s="213"/>
+      <c r="B36" s="206" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="23"/>
@@ -4507,8 +4513,8 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="205"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="213"/>
+      <c r="B37" s="207"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -4519,10 +4525,10 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="204">
+      <c r="A38" s="214">
         <v>37</v>
       </c>
-      <c r="B38" s="207" t="s">
+      <c r="B38" s="218" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="9"/>
@@ -4535,8 +4541,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="225"/>
-      <c r="B39" s="208"/>
+      <c r="A39" s="215"/>
+      <c r="B39" s="207"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="15"/>
@@ -4547,7 +4553,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="226"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
@@ -4561,7 +4567,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="226"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4575,8 +4581,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="226"/>
-      <c r="B42" s="207" t="s">
+      <c r="A42" s="216"/>
+      <c r="B42" s="218" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4593,8 +4599,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="226"/>
-      <c r="B43" s="227"/>
+      <c r="A43" s="216"/>
+      <c r="B43" s="219"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4605,8 +4611,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="226"/>
-      <c r="B44" s="208"/>
+      <c r="A44" s="216"/>
+      <c r="B44" s="207"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="20"/>
@@ -4617,8 +4623,8 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="226"/>
-      <c r="B45" s="207" t="s">
+      <c r="A45" s="216"/>
+      <c r="B45" s="218" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="9"/>
@@ -4631,8 +4637,8 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="205"/>
-      <c r="B46" s="227"/>
+      <c r="A46" s="213"/>
+      <c r="B46" s="219"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4643,8 +4649,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="206"/>
-      <c r="B47" s="208"/>
+      <c r="A47" s="217"/>
+      <c r="B47" s="207"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="20"/>
@@ -4655,10 +4661,10 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="219">
+      <c r="A48" s="204">
         <v>38</v>
       </c>
-      <c r="B48" s="213" t="s">
+      <c r="B48" s="206" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="23"/>
@@ -4671,8 +4677,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="219"/>
-      <c r="B49" s="208"/>
+      <c r="A49" s="204"/>
+      <c r="B49" s="207"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -4683,7 +4689,7 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="220"/>
+      <c r="A50" s="205"/>
       <c r="B50" s="23" t="s">
         <v>10</v>
       </c>
@@ -4697,7 +4703,7 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="220"/>
+      <c r="A51" s="205"/>
       <c r="B51" s="23" t="s">
         <v>13</v>
       </c>
@@ -4711,7 +4717,7 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="220"/>
+      <c r="A52" s="205"/>
       <c r="B52" s="23" t="s">
         <v>11</v>
       </c>
@@ -4729,8 +4735,8 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="220"/>
-      <c r="B53" s="219" t="s">
+      <c r="A53" s="205"/>
+      <c r="B53" s="204" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="17"/>
@@ -4743,8 +4749,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="220"/>
-      <c r="B54" s="220"/>
+      <c r="A54" s="205"/>
+      <c r="B54" s="205"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="22"/>
@@ -4755,7 +4761,7 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="221">
+      <c r="A55" s="208">
         <v>39</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -4771,7 +4777,7 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="222"/>
+      <c r="A56" s="209"/>
       <c r="B56" s="25" t="s">
         <v>10</v>
       </c>
@@ -4784,7 +4790,7 @@
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="222"/>
+      <c r="A57" s="209"/>
       <c r="B57" s="25" t="s">
         <v>13</v>
       </c>
@@ -4797,7 +4803,7 @@
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="222"/>
+      <c r="A58" s="209"/>
       <c r="B58" s="25" t="s">
         <v>11</v>
       </c>
@@ -4814,7 +4820,7 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="223"/>
+      <c r="A59" s="210"/>
       <c r="B59" s="26" t="s">
         <v>12</v>
       </c>
@@ -4828,6 +4834,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B53:B54"/>
@@ -4840,16 +4856,6 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4887,13 +4893,13 @@
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="113" t="s">
-        <v>141</v>
-      </c>
       <c r="C2" s="38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="37"/>
     </row>
@@ -4975,24 +4981,24 @@
     </row>
     <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/01_studieplan_och_schema.xlsx
+++ b/01_studieplan_och_schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsabellaGagner\Documents\Programming-projects\EC\ec-python-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B7D25-B9D4-4D8F-82E9-D0A59314D2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E61ECA2-E2A8-4564-A153-906598A6EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="4320" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema - Python" sheetId="1" r:id="rId1"/>
@@ -537,9 +537,6 @@
     <t>Öppna och läsa från filer, spara till filer, plotting, numpy</t>
   </si>
   <si>
-    <t>pathlib, filhantering, flytta filer med shutil, f-strings</t>
-  </si>
-  <si>
     <t>Isabella, Alex</t>
   </si>
   <si>
@@ -579,7 +576,10 @@
     <t>https://realpython.com/python-f-strings/#f-strings-a-new-and-improved-way-to-format-strings-in-python</t>
   </si>
   <si>
-    <t>Repetition vecka 1, terminalkommandon, argparse, att skapa ett git-repo</t>
+    <t>Repetition vecka 1, terminalkommandon, argparse, att skapa ett git-repo, introduktion till inlämning 1</t>
+  </si>
+  <si>
+    <t>pathlib, filhantering, flytta filer med shutil</t>
   </si>
 </sst>
 </file>
@@ -1350,280 +1350,241 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1634,13 +1595,52 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2016,8 +2016,8 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2082,7 +2082,7 @@
       <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="144" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="75">
@@ -2104,11 +2104,11 @@
       <c r="N2" s="77"/>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="156"/>
-      <c r="B3" s="185">
+      <c r="A3" s="144"/>
+      <c r="B3" s="164">
         <v>44432</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="163" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2126,10 +2126,10 @@
       <c r="H3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="184" t="s">
+      <c r="I3" s="163" t="s">
         <v>160</v>
       </c>
-      <c r="J3" s="184" t="s">
+      <c r="J3" s="163" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="79"/>
@@ -2142,9 +2142,9 @@
       <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="156"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="184"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="51" t="s">
         <v>22</v>
       </c>
@@ -2160,8 +2160,8 @@
       <c r="H4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
       <c r="K4" s="79"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
@@ -2170,9 +2170,9 @@
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="1:14" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="156"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="184"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="51" t="s">
         <v>58</v>
       </c>
@@ -2188,8 +2188,8 @@
       <c r="H5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
       <c r="K5" s="79"/>
       <c r="L5" s="51" t="s">
         <v>38</v>
@@ -2200,11 +2200,11 @@
       <c r="N5" s="77"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="156"/>
-      <c r="B6" s="187">
+      <c r="A6" s="144"/>
+      <c r="B6" s="166">
         <v>44433</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="150" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -2222,10 +2222,10 @@
       <c r="H6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="180" t="s">
+      <c r="I6" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="180" t="s">
+      <c r="J6" s="159" t="s">
         <v>48</v>
       </c>
       <c r="K6" s="56"/>
@@ -2236,9 +2236,9 @@
       <c r="N6" s="77"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="156"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="191"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="55" t="s">
         <v>59</v>
       </c>
@@ -2250,8 +2250,8 @@
       <c r="H7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
       <c r="K7" s="56"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55" t="s">
@@ -2260,7 +2260,7 @@
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="156"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="78">
         <v>44434</v>
       </c>
@@ -2292,11 +2292,11 @@
       <c r="N8" s="77"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="156"/>
-      <c r="B9" s="187">
+      <c r="A9" s="144"/>
+      <c r="B9" s="166">
         <v>44435</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="150" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -2314,14 +2314,14 @@
       <c r="H9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="180" t="s">
+      <c r="I9" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="180" t="s">
+      <c r="J9" s="159" t="s">
         <v>146</v>
       </c>
       <c r="K9" s="56"/>
-      <c r="L9" s="131" t="s">
+      <c r="L9" s="191" t="s">
         <v>152</v>
       </c>
       <c r="M9" s="55" t="s">
@@ -2330,9 +2330,9 @@
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="156"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="191"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="55" t="s">
         <v>63</v>
       </c>
@@ -2344,10 +2344,10 @@
       <c r="H10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="132"/>
+      <c r="L10" s="192"/>
       <c r="M10" s="55" t="s">
         <v>143</v>
       </c>
@@ -2373,13 +2373,13 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="160">
+      <c r="B12" s="142">
         <v>44438</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -2392,18 +2392,18 @@
         <v>28</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H12" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="137" t="s">
+      <c r="I12" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="J12" s="137" t="s">
+      <c r="J12" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="K12" s="199" t="s">
+      <c r="K12" s="134" t="s">
         <v>124</v>
       </c>
       <c r="L12" s="53"/>
@@ -2413,9 +2413,9 @@
       <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="157"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="175"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="156"/>
       <c r="D13" s="50" t="s">
         <v>63</v>
       </c>
@@ -2427,9 +2427,9 @@
       <c r="H13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="200"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="135"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51" t="s">
         <v>143</v>
@@ -2437,9 +2437,9 @@
       <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="157"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="175"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="156"/>
       <c r="D14" s="50" t="s">
         <v>108</v>
       </c>
@@ -2451,9 +2451,9 @@
       <c r="H14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="200"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51" t="s">
         <v>143</v>
@@ -2461,9 +2461,9 @@
       <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="157"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="192"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="157"/>
       <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
@@ -2479,9 +2479,9 @@
       <c r="H15" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="201"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51" t="s">
         <v>143</v>
@@ -2489,7 +2489,7 @@
       <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="157"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="75">
         <v>44439</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>150</v>
       </c>
       <c r="J16" s="127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -2513,11 +2513,11 @@
       <c r="N16" s="77"/>
     </row>
     <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="157"/>
-      <c r="B17" s="150">
+      <c r="A17" s="145"/>
+      <c r="B17" s="165">
         <v>44440</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="55" t="s">
@@ -2535,23 +2535,23 @@
       <c r="H17" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="131" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" s="131" t="s">
-        <v>175</v>
+      <c r="I17" s="191" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="191" t="s">
+        <v>174</v>
       </c>
       <c r="K17" s="95"/>
-      <c r="L17" s="131"/>
+      <c r="L17" s="191"/>
       <c r="M17" s="55" t="s">
         <v>143</v>
       </c>
       <c r="N17" s="77"/>
     </row>
     <row r="18" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="157"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="173"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="55" t="s">
         <v>59</v>
       </c>
@@ -2565,21 +2565,21 @@
       <c r="H18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="132"/>
+      <c r="L18" s="192"/>
       <c r="M18" s="55" t="s">
         <v>143</v>
       </c>
       <c r="N18" s="77"/>
     </row>
     <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="157"/>
-      <c r="B19" s="160">
+      <c r="A19" s="145"/>
+      <c r="B19" s="142">
         <v>44441</v>
       </c>
-      <c r="C19" s="174" t="s">
+      <c r="C19" s="153" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -2593,41 +2593,41 @@
         <v>14</v>
       </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="J19" s="133" t="s">
-        <v>177</v>
+      <c r="I19" s="193" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="193" t="s">
+        <v>176</v>
       </c>
       <c r="K19" s="93"/>
-      <c r="L19" s="133"/>
+      <c r="L19" s="193"/>
       <c r="M19" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N19" s="77"/>
     </row>
     <row r="20" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="157"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="176"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="154"/>
       <c r="D20" s="51"/>
       <c r="E20" s="61"/>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
       <c r="K20" s="94"/>
-      <c r="L20" s="134"/>
+      <c r="L20" s="194"/>
       <c r="M20" s="51"/>
       <c r="N20" s="77"/>
     </row>
     <row r="21" spans="1:14" ht="38.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="157"/>
-      <c r="B21" s="190">
+      <c r="A21" s="145"/>
+      <c r="B21" s="148">
         <v>44442</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="155" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -2640,16 +2640,16 @@
         <v>78</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="H21" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="131" t="s">
-        <v>172</v>
+      <c r="I21" s="191" t="s">
+        <v>171</v>
       </c>
       <c r="J21" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
@@ -2659,9 +2659,9 @@
       <c r="N21" s="77"/>
     </row>
     <row r="22" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="189"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="173"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="55" t="s">
         <v>63</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="H22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="132"/>
+      <c r="I22" s="192"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
@@ -2702,13 +2702,13 @@
       <c r="N23" s="77"/>
     </row>
     <row r="24" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="155" t="s">
+      <c r="A24" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="160">
+      <c r="B24" s="142">
         <v>44445</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -2726,11 +2726,11 @@
       <c r="H24" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="133" t="s">
+      <c r="I24" s="193" t="s">
         <v>155</v>
       </c>
-      <c r="J24" s="133"/>
-      <c r="K24" s="194" t="s">
+      <c r="J24" s="193"/>
+      <c r="K24" s="129" t="s">
         <v>118</v>
       </c>
       <c r="L24" s="51"/>
@@ -2740,9 +2740,9 @@
       <c r="N24" s="77"/>
     </row>
     <row r="25" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="156"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="175"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="156"/>
       <c r="D25" s="51" t="s">
         <v>82</v>
       </c>
@@ -2756,9 +2756,9 @@
       <c r="H25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="195"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51" t="s">
         <v>103</v>
@@ -2766,9 +2766,9 @@
       <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="156"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="175"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="156"/>
       <c r="D26" s="51" t="s">
         <v>116</v>
       </c>
@@ -2782,9 +2782,9 @@
       <c r="H26" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="195"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="130"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51" t="s">
         <v>103</v>
@@ -2792,9 +2792,9 @@
       <c r="N26" s="77"/>
     </row>
     <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="156"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="175"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="156"/>
       <c r="D27" s="51" t="s">
         <v>30</v>
       </c>
@@ -2810,9 +2810,9 @@
       <c r="H27" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="196"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="131"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51" t="s">
         <v>103</v>
@@ -2820,7 +2820,7 @@
       <c r="N27" s="77"/>
     </row>
     <row r="28" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="157"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="75">
         <v>44446</v>
       </c>
@@ -2841,11 +2841,11 @@
       <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="157"/>
-      <c r="B29" s="150">
+      <c r="A29" s="145"/>
+      <c r="B29" s="165">
         <v>44447</v>
       </c>
-      <c r="C29" s="165" t="s">
+      <c r="C29" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -2863,13 +2863,13 @@
       <c r="H29" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="131" t="s">
+      <c r="I29" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="131" t="s">
+      <c r="J29" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="202" t="s">
+      <c r="K29" s="137" t="s">
         <v>125</v>
       </c>
       <c r="L29" s="55"/>
@@ -2879,9 +2879,9 @@
       <c r="N29" s="77"/>
     </row>
     <row r="30" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="157"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="166"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="169"/>
       <c r="D30" s="55" t="s">
         <v>59</v>
       </c>
@@ -2895,9 +2895,9 @@
       <c r="H30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="203"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="138"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55" t="s">
         <v>103</v>
@@ -2905,7 +2905,7 @@
       <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="157"/>
+      <c r="A31" s="145"/>
       <c r="B31" s="88">
         <v>44448</v>
       </c>
@@ -2933,11 +2933,11 @@
       <c r="N31" s="77"/>
     </row>
     <row r="32" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="157"/>
-      <c r="B32" s="150">
+      <c r="A32" s="145"/>
+      <c r="B32" s="165">
         <v>44449</v>
       </c>
-      <c r="C32" s="172" t="s">
+      <c r="C32" s="155" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="55" t="s">
@@ -2955,19 +2955,19 @@
       <c r="H32" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="131" t="s">
+      <c r="I32" s="191" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="131"/>
+      <c r="J32" s="191"/>
       <c r="K32" s="95"/>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="77"/>
     </row>
     <row r="33" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="157"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="173"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="152"/>
       <c r="D33" s="55" t="s">
         <v>63</v>
       </c>
@@ -2981,8 +2981,8 @@
       <c r="H33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="192"/>
       <c r="K33" s="96"/>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -3008,13 +3008,13 @@
       <c r="N34" s="77"/>
     </row>
     <row r="35" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="155" t="s">
+      <c r="A35" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="160">
+      <c r="B35" s="142">
         <v>44452</v>
       </c>
-      <c r="C35" s="174" t="s">
+      <c r="C35" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="52" t="s">
@@ -3027,18 +3027,18 @@
         <v>29</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="137" t="s">
+      <c r="I35" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="136" t="s">
+      <c r="J35" s="203" t="s">
         <v>156</v>
       </c>
-      <c r="K35" s="137" t="s">
+      <c r="K35" s="139" t="s">
         <v>126</v>
       </c>
       <c r="L35" s="51"/>
@@ -3047,9 +3047,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="156"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="175"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="156"/>
       <c r="D36" s="50" t="s">
         <v>63</v>
       </c>
@@ -3065,9 +3065,9 @@
       <c r="H36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="138"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="138"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="140"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51" t="s">
         <v>143</v>
@@ -3075,9 +3075,9 @@
       <c r="N36" s="77"/>
     </row>
     <row r="37" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="156"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="175"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="156"/>
       <c r="D37" s="50" t="s">
         <v>108</v>
       </c>
@@ -3093,9 +3093,9 @@
       <c r="H37" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="138"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="138"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="140"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51" t="s">
         <v>143</v>
@@ -3103,9 +3103,9 @@
       <c r="N37" s="77"/>
     </row>
     <row r="38" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="156"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="176"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="154"/>
       <c r="D38" s="50" t="s">
         <v>30</v>
       </c>
@@ -3116,14 +3116,14 @@
         <v>29</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H38" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="139"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="139"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="141"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51" t="s">
         <v>143</v>
@@ -3131,7 +3131,7 @@
       <c r="N38" s="77"/>
     </row>
     <row r="39" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="157"/>
+      <c r="A39" s="145"/>
       <c r="B39" s="90">
         <v>44453</v>
       </c>
@@ -3151,11 +3151,11 @@
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="157"/>
-      <c r="B40" s="150">
+      <c r="A40" s="145"/>
+      <c r="B40" s="165">
         <v>44454</v>
       </c>
-      <c r="C40" s="165" t="s">
+      <c r="C40" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="55" t="s">
@@ -3173,8 +3173,8 @@
       <c r="H40" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
       <c r="K40" s="95"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55" t="s">
@@ -3182,9 +3182,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="157"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="166"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="183"/>
+      <c r="C41" s="169"/>
       <c r="D41" s="55" t="s">
         <v>59</v>
       </c>
@@ -3196,8 +3196,8 @@
       <c r="H41" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
       <c r="K41" s="96"/>
       <c r="L41" s="55"/>
       <c r="M41" s="55" t="s">
@@ -3206,7 +3206,7 @@
       <c r="N41" s="77"/>
     </row>
     <row r="42" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="157"/>
+      <c r="A42" s="145"/>
       <c r="B42" s="88">
         <v>44455</v>
       </c>
@@ -3234,11 +3234,11 @@
       <c r="N42" s="77"/>
     </row>
     <row r="43" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="157"/>
-      <c r="B43" s="187">
+      <c r="A43" s="145"/>
+      <c r="B43" s="166">
         <v>44456</v>
       </c>
-      <c r="C43" s="177" t="s">
+      <c r="C43" s="175" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="55" t="s">
@@ -3251,14 +3251,14 @@
         <v>76</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H43" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="I43" s="131"/>
-      <c r="J43" s="131"/>
-      <c r="K43" s="197" t="s">
+      <c r="I43" s="191"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="132" t="s">
         <v>119</v>
       </c>
       <c r="L43" s="55"/>
@@ -3268,9 +3268,9 @@
       <c r="N43" s="77"/>
     </row>
     <row r="44" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="157"/>
-      <c r="B44" s="188"/>
-      <c r="C44" s="177"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="55" t="s">
         <v>63</v>
       </c>
@@ -3282,9 +3282,9 @@
       <c r="H44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="198"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="133"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55" t="s">
         <v>103</v>
@@ -3310,13 +3310,13 @@
       <c r="M45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="145" t="s">
+      <c r="A46" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="152">
+      <c r="B46" s="184">
         <v>44459</v>
       </c>
-      <c r="C46" s="178" t="s">
+      <c r="C46" s="176" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="52" t="s">
@@ -3334,8 +3334,8 @@
       <c r="H46" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="I46" s="133"/>
-      <c r="J46" s="140"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="195"/>
       <c r="K46" s="62"/>
       <c r="L46" s="50"/>
       <c r="M46" s="50" t="s">
@@ -3343,9 +3343,9 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="146"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="178"/>
+      <c r="A47" s="179"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="176"/>
       <c r="D47" s="50" t="s">
         <v>63</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="H47" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="135"/>
-      <c r="J47" s="142"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="200"/>
       <c r="K47" s="63"/>
       <c r="L47" s="50"/>
       <c r="M47" s="50" t="s">
@@ -3366,9 +3366,9 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="146"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="178"/>
+      <c r="A48" s="179"/>
+      <c r="B48" s="184"/>
+      <c r="C48" s="176"/>
       <c r="D48" s="50" t="s">
         <v>116</v>
       </c>
@@ -3380,8 +3380,8 @@
       <c r="H48" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="135"/>
-      <c r="J48" s="142"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="200"/>
       <c r="K48" s="63"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50" t="s">
@@ -3389,9 +3389,9 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="146"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="178"/>
+      <c r="A49" s="179"/>
+      <c r="B49" s="184"/>
+      <c r="C49" s="176"/>
       <c r="D49" s="50" t="s">
         <v>30</v>
       </c>
@@ -3407,8 +3407,8 @@
       <c r="H49" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="134"/>
-      <c r="J49" s="141"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="196"/>
       <c r="K49" s="64"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50" t="s">
@@ -3416,7 +3416,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="146"/>
+      <c r="A50" s="179"/>
       <c r="B50" s="66">
         <v>44460</v>
       </c>
@@ -3435,11 +3435,11 @@
       <c r="M50" s="47"/>
     </row>
     <row r="51" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="146"/>
-      <c r="B51" s="153">
+      <c r="A51" s="179"/>
+      <c r="B51" s="185">
         <v>44461</v>
       </c>
-      <c r="C51" s="168" t="s">
+      <c r="C51" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="54" t="s">
@@ -3457,10 +3457,10 @@
       <c r="H51" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="I51" s="131" t="s">
+      <c r="I51" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="J51" s="143"/>
+      <c r="J51" s="201"/>
       <c r="K51" s="98"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54" t="s">
@@ -3468,9 +3468,9 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="146"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="169"/>
+      <c r="A52" s="179"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="172"/>
       <c r="D52" s="54" t="s">
         <v>59</v>
       </c>
@@ -3482,8 +3482,8 @@
       <c r="H52" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="132"/>
-      <c r="J52" s="144"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="202"/>
       <c r="K52" s="99"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54" t="s">
@@ -3491,7 +3491,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="146"/>
+      <c r="A53" s="179"/>
       <c r="B53" s="67">
         <v>44462</v>
       </c>
@@ -3518,11 +3518,11 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="146"/>
-      <c r="B54" s="158">
+      <c r="A54" s="179"/>
+      <c r="B54" s="187">
         <v>44463</v>
       </c>
-      <c r="C54" s="170" t="s">
+      <c r="C54" s="173" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="54" t="s">
@@ -3532,16 +3532,16 @@
         <v>2</v>
       </c>
       <c r="F54" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="54" t="s">
         <v>169</v>
-      </c>
-      <c r="G54" s="54" t="s">
-        <v>170</v>
       </c>
       <c r="H54" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="I54" s="131"/>
-      <c r="J54" s="143"/>
+      <c r="I54" s="191"/>
+      <c r="J54" s="201"/>
       <c r="K54" s="98"/>
       <c r="L54" s="55" t="s">
         <v>107</v>
@@ -3551,9 +3551,9 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="147"/>
-      <c r="B55" s="159"/>
-      <c r="C55" s="171"/>
+      <c r="A55" s="180"/>
+      <c r="B55" s="188"/>
+      <c r="C55" s="174"/>
       <c r="D55" s="54" t="s">
         <v>63</v>
       </c>
@@ -3565,8 +3565,8 @@
       <c r="H55" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="132"/>
-      <c r="J55" s="144"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="202"/>
       <c r="K55" s="99"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54" t="s">
@@ -3592,13 +3592,13 @@
       <c r="M56" s="47"/>
     </row>
     <row r="57" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="148" t="s">
+      <c r="A57" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="163">
+      <c r="B57" s="189">
         <v>44466</v>
       </c>
-      <c r="C57" s="179" t="s">
+      <c r="C57" s="177" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="50" t="s">
@@ -3616,8 +3616,8 @@
       <c r="H57" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="I57" s="140"/>
-      <c r="J57" s="140"/>
+      <c r="I57" s="195"/>
+      <c r="J57" s="195"/>
       <c r="K57" s="62"/>
       <c r="L57" s="50"/>
       <c r="M57" s="50" t="s">
@@ -3625,9 +3625,9 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="149"/>
-      <c r="B58" s="164"/>
-      <c r="C58" s="179"/>
+      <c r="A58" s="182"/>
+      <c r="B58" s="190"/>
+      <c r="C58" s="177"/>
       <c r="D58" s="50" t="s">
         <v>120</v>
       </c>
@@ -3639,8 +3639,8 @@
         <v>14</v>
       </c>
       <c r="H58" s="97"/>
-      <c r="I58" s="141"/>
-      <c r="J58" s="141"/>
+      <c r="I58" s="196"/>
+      <c r="J58" s="196"/>
       <c r="K58" s="64"/>
       <c r="L58" s="97"/>
       <c r="M58" s="97" t="s">
@@ -3648,7 +3648,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="69" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="149"/>
+      <c r="A59" s="182"/>
       <c r="B59" s="66">
         <v>44467</v>
       </c>
@@ -3670,11 +3670,11 @@
       <c r="N59" s="34"/>
     </row>
     <row r="60" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="149"/>
-      <c r="B60" s="153">
+      <c r="A60" s="182"/>
+      <c r="B60" s="185">
         <v>44468</v>
       </c>
-      <c r="C60" s="167" t="s">
+      <c r="C60" s="170" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="54" t="s">
@@ -3692,31 +3692,31 @@
       <c r="H60" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
+      <c r="I60" s="197"/>
+      <c r="J60" s="197"/>
+      <c r="K60" s="197"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="149"/>
-      <c r="B61" s="154"/>
-      <c r="C61" s="167"/>
+      <c r="A61" s="182"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="170"/>
       <c r="D61" s="54"/>
       <c r="E61" s="119"/>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
-      <c r="I61" s="130"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="130"/>
+      <c r="I61" s="198"/>
+      <c r="J61" s="198"/>
+      <c r="K61" s="198"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
     </row>
     <row r="62" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="149"/>
+      <c r="A62" s="182"/>
       <c r="B62" s="67">
         <v>44469</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="M62" s="97"/>
     </row>
     <row r="63" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="149"/>
+      <c r="A63" s="182"/>
       <c r="B63" s="124">
         <v>44470</v>
       </c>
@@ -3797,32 +3797,69 @@
       <c r="M65" s="69"/>
     </row>
     <row r="66" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="181" t="s">
+      <c r="A66" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="182"/>
-      <c r="C66" s="183"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="162"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="87">
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A66:C66"/>
@@ -3839,60 +3876,23 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="A24:A33"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K35:K38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J35" r:id="rId1" xr:uid="{6F56A95F-302D-430F-BB93-125813A81349}"/>
@@ -3989,7 +3989,7 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="211">
+      <c r="A8" s="212">
         <v>34</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -4005,8 +4005,8 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="211"/>
-      <c r="B9" s="213" t="s">
+      <c r="A9" s="212"/>
+      <c r="B9" s="206" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -4029,8 +4029,8 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="211"/>
-      <c r="B10" s="214"/>
+      <c r="A10" s="212"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4049,8 +4049,8 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="51.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="211"/>
-      <c r="B11" s="214"/>
+      <c r="A11" s="212"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
@@ -4073,8 +4073,8 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="211"/>
-      <c r="B12" s="215"/>
+      <c r="A12" s="212"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
@@ -4093,8 +4093,8 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="211"/>
-      <c r="B13" s="216" t="s">
+      <c r="A13" s="212"/>
+      <c r="B13" s="223" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -4117,8 +4117,8 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="211"/>
-      <c r="B14" s="217"/>
+      <c r="A14" s="212"/>
+      <c r="B14" s="224"/>
       <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
@@ -4137,8 +4137,8 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="211"/>
-      <c r="B15" s="218"/>
+      <c r="A15" s="212"/>
+      <c r="B15" s="225"/>
       <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4157,8 +4157,8 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="211"/>
-      <c r="B16" s="213" t="s">
+      <c r="A16" s="212"/>
+      <c r="B16" s="206" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -4175,8 +4175,8 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="211"/>
-      <c r="B17" s="215"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="222"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="14"/>
@@ -4191,8 +4191,8 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="211"/>
-      <c r="B18" s="216" t="s">
+      <c r="A18" s="212"/>
+      <c r="B18" s="223" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -4213,8 +4213,8 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="211"/>
-      <c r="B19" s="217"/>
+      <c r="A19" s="212"/>
+      <c r="B19" s="224"/>
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
@@ -4233,8 +4233,8 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="212"/>
-      <c r="B20" s="218"/>
+      <c r="A20" s="220"/>
+      <c r="B20" s="225"/>
       <c r="C20" s="30" t="s">
         <v>41</v>
       </c>
@@ -4253,10 +4253,10 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="204">
+      <c r="A21" s="214">
         <v>35</v>
       </c>
-      <c r="B21" s="207" t="s">
+      <c r="B21" s="218" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9"/>
@@ -4275,8 +4275,8 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="205"/>
-      <c r="B22" s="208"/>
+      <c r="A22" s="213"/>
+      <c r="B22" s="207"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="15"/>
@@ -4289,7 +4289,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="205"/>
+      <c r="A23" s="213"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
@@ -4303,8 +4303,8 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="205"/>
-      <c r="B24" s="207" t="s">
+      <c r="A24" s="213"/>
+      <c r="B24" s="218" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9"/>
@@ -4323,8 +4323,8 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="205"/>
-      <c r="B25" s="208"/>
+      <c r="A25" s="213"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
       <c r="E25" s="9"/>
@@ -4335,8 +4335,8 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="205"/>
-      <c r="B26" s="207" t="s">
+      <c r="A26" s="213"/>
+      <c r="B26" s="218" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4353,8 +4353,8 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="205"/>
-      <c r="B27" s="208"/>
+      <c r="A27" s="213"/>
+      <c r="B27" s="207"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="15"/>
@@ -4365,8 +4365,8 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="205"/>
-      <c r="B28" s="209" t="s">
+      <c r="A28" s="213"/>
+      <c r="B28" s="226" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="9"/>
@@ -4379,8 +4379,8 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="206"/>
-      <c r="B29" s="210"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="227"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="21"/>
@@ -4391,10 +4391,10 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="224">
+      <c r="A30" s="211">
         <v>36</v>
       </c>
-      <c r="B30" s="213" t="s">
+      <c r="B30" s="206" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="23"/>
@@ -4413,8 +4413,8 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="211"/>
-      <c r="B31" s="208"/>
+      <c r="A31" s="212"/>
+      <c r="B31" s="207"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="14"/>
@@ -4425,7 +4425,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="205"/>
+      <c r="A32" s="213"/>
       <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
@@ -4439,7 +4439,7 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="205"/>
+      <c r="A33" s="213"/>
       <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
@@ -4457,8 +4457,8 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="205"/>
-      <c r="B34" s="213" t="s">
+      <c r="A34" s="213"/>
+      <c r="B34" s="206" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -4475,8 +4475,8 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="205"/>
-      <c r="B35" s="208"/>
+      <c r="A35" s="213"/>
+      <c r="B35" s="207"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="14"/>
@@ -4487,8 +4487,8 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="205"/>
-      <c r="B36" s="213" t="s">
+      <c r="A36" s="213"/>
+      <c r="B36" s="206" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="23"/>
@@ -4507,8 +4507,8 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="205"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="213"/>
+      <c r="B37" s="207"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -4519,10 +4519,10 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="204">
+      <c r="A38" s="214">
         <v>37</v>
       </c>
-      <c r="B38" s="207" t="s">
+      <c r="B38" s="218" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="9"/>
@@ -4535,8 +4535,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="225"/>
-      <c r="B39" s="208"/>
+      <c r="A39" s="215"/>
+      <c r="B39" s="207"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="15"/>
@@ -4547,7 +4547,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="226"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="226"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4575,8 +4575,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="226"/>
-      <c r="B42" s="207" t="s">
+      <c r="A42" s="216"/>
+      <c r="B42" s="218" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4593,8 +4593,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="226"/>
-      <c r="B43" s="227"/>
+      <c r="A43" s="216"/>
+      <c r="B43" s="219"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4605,8 +4605,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="226"/>
-      <c r="B44" s="208"/>
+      <c r="A44" s="216"/>
+      <c r="B44" s="207"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="20"/>
@@ -4617,8 +4617,8 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="226"/>
-      <c r="B45" s="207" t="s">
+      <c r="A45" s="216"/>
+      <c r="B45" s="218" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="9"/>
@@ -4631,8 +4631,8 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="205"/>
-      <c r="B46" s="227"/>
+      <c r="A46" s="213"/>
+      <c r="B46" s="219"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4643,8 +4643,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="206"/>
-      <c r="B47" s="208"/>
+      <c r="A47" s="217"/>
+      <c r="B47" s="207"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="20"/>
@@ -4655,10 +4655,10 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="219">
+      <c r="A48" s="204">
         <v>38</v>
       </c>
-      <c r="B48" s="213" t="s">
+      <c r="B48" s="206" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="23"/>
@@ -4671,8 +4671,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="219"/>
-      <c r="B49" s="208"/>
+      <c r="A49" s="204"/>
+      <c r="B49" s="207"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -4683,7 +4683,7 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="220"/>
+      <c r="A50" s="205"/>
       <c r="B50" s="23" t="s">
         <v>10</v>
       </c>
@@ -4697,7 +4697,7 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="220"/>
+      <c r="A51" s="205"/>
       <c r="B51" s="23" t="s">
         <v>13</v>
       </c>
@@ -4711,7 +4711,7 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="220"/>
+      <c r="A52" s="205"/>
       <c r="B52" s="23" t="s">
         <v>11</v>
       </c>
@@ -4729,8 +4729,8 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="220"/>
-      <c r="B53" s="219" t="s">
+      <c r="A53" s="205"/>
+      <c r="B53" s="204" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="17"/>
@@ -4743,8 +4743,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="220"/>
-      <c r="B54" s="220"/>
+      <c r="A54" s="205"/>
+      <c r="B54" s="205"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="22"/>
@@ -4755,7 +4755,7 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="221">
+      <c r="A55" s="208">
         <v>39</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -4771,7 +4771,7 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="222"/>
+      <c r="A56" s="209"/>
       <c r="B56" s="25" t="s">
         <v>10</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="222"/>
+      <c r="A57" s="209"/>
       <c r="B57" s="25" t="s">
         <v>13</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="222"/>
+      <c r="A58" s="209"/>
       <c r="B58" s="25" t="s">
         <v>11</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="223"/>
+      <c r="A59" s="210"/>
       <c r="B59" s="26" t="s">
         <v>12</v>
       </c>
@@ -4828,6 +4828,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B53:B54"/>
@@ -4840,16 +4850,6 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/01_studieplan_och_schema.xlsx
+++ b/01_studieplan_och_schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsabellaGagner\Documents\Programming-projects\EC\ec-python-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E61ECA2-E2A8-4564-A153-906598A6EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1CFC1E-E18C-4ED0-A153-F8A9E8BA7F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="179">
   <si>
     <t>Utbildning: Data Scientist</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Hur man på ett strukturerat sätt går igenom kod</t>
   </si>
   <si>
-    <t>Versionshantering med git</t>
-  </si>
-  <si>
     <t>Git</t>
   </si>
   <si>
@@ -558,12 +555,6 @@
     <t>PP 15</t>
   </si>
   <si>
-    <t>git</t>
-  </si>
-  <si>
-    <t>UML-diagram, OOP repetition</t>
-  </si>
-  <si>
     <t>PDS 04.01, PDS 04.05</t>
   </si>
   <si>
@@ -580,6 +571,12 @@
   </si>
   <si>
     <t>pathlib, filhantering, flytta filer med shutil</t>
+  </si>
+  <si>
+    <t>OOP repetition</t>
+  </si>
+  <si>
+    <t>git: merge conflicts</t>
   </si>
 </sst>
 </file>
@@ -1350,6 +1347,201 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1380,211 +1572,55 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,52 +1631,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2016,8 +2013,8 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2053,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>3</v>
@@ -2071,7 +2068,7 @@
         <v>43</v>
       </c>
       <c r="K1" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L1" s="73" t="s">
         <v>36</v>
@@ -2082,7 +2079,7 @@
       <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="156" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="75">
@@ -2104,11 +2101,11 @@
       <c r="N2" s="77"/>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="144"/>
-      <c r="B3" s="164">
+      <c r="A3" s="156"/>
+      <c r="B3" s="185">
         <v>44432</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="184" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2126,10 +2123,10 @@
       <c r="H3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="163" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" s="163" t="s">
+      <c r="I3" s="184" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="184" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="79"/>
@@ -2142,9 +2139,9 @@
       <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="144"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="163"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="184"/>
       <c r="D4" s="51" t="s">
         <v>22</v>
       </c>
@@ -2160,19 +2157,19 @@
       <c r="H4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
       <c r="K4" s="79"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="1:14" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="144"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="163"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="184"/>
       <c r="D5" s="51" t="s">
         <v>58</v>
       </c>
@@ -2183,13 +2180,13 @@
         <v>66</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
       <c r="K5" s="79"/>
       <c r="L5" s="51" t="s">
         <v>38</v>
@@ -2200,11 +2197,11 @@
       <c r="N5" s="77"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="144"/>
-      <c r="B6" s="166">
+      <c r="A6" s="156"/>
+      <c r="B6" s="187">
         <v>44433</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="191" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -2222,23 +2219,23 @@
       <c r="H6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="159" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="159" t="s">
+      <c r="I6" s="180" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="180" t="s">
         <v>48</v>
       </c>
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
       <c r="M6" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N6" s="77"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="144"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="150"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="55" t="s">
         <v>59</v>
       </c>
@@ -2250,17 +2247,17 @@
       <c r="H7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="56"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="144"/>
+      <c r="A8" s="156"/>
       <c r="B8" s="78">
         <v>44434</v>
       </c>
@@ -2279,24 +2276,24 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" s="51"/>
       <c r="M8" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N8" s="77"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="144"/>
-      <c r="B9" s="166">
+      <c r="A9" s="156"/>
+      <c r="B9" s="187">
         <v>44435</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="191" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -2309,30 +2306,30 @@
         <v>67</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="159" t="s">
+      <c r="I9" s="180" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="180" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="56"/>
+      <c r="L9" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="159" t="s">
-        <v>146</v>
-      </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="191" t="s">
-        <v>152</v>
-      </c>
       <c r="M9" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="144"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="150"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="191"/>
       <c r="D10" s="55" t="s">
         <v>63</v>
       </c>
@@ -2344,12 +2341,12 @@
       <c r="H10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="192"/>
+      <c r="L10" s="132"/>
       <c r="M10" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N10" s="77"/>
     </row>
@@ -2373,13 +2370,13 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="142">
+      <c r="B12" s="160">
         <v>44438</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -2392,30 +2389,30 @@
         <v>28</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="139" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="137" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="J12" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" s="134" t="s">
-        <v>124</v>
+      <c r="K12" s="199" t="s">
+        <v>123</v>
       </c>
       <c r="L12" s="53"/>
       <c r="M12" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="145"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="156"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="50" t="s">
         <v>63</v>
       </c>
@@ -2427,19 +2424,19 @@
       <c r="H13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="135"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="200"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="145"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="156"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="50" t="s">
         <v>108</v>
       </c>
@@ -2451,19 +2448,19 @@
       <c r="H14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="135"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="200"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="145"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="157"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
@@ -2474,22 +2471,22 @@
         <v>68</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="136"/>
+        <v>127</v>
+      </c>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="201"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="145"/>
+      <c r="A16" s="157"/>
       <c r="B16" s="75">
         <v>44439</v>
       </c>
@@ -2502,10 +2499,10 @@
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
       <c r="I16" s="114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J16" s="127" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -2513,11 +2510,11 @@
       <c r="N16" s="77"/>
     </row>
     <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="145"/>
-      <c r="B17" s="165">
+      <c r="A17" s="157"/>
+      <c r="B17" s="150">
         <v>44440</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="55" t="s">
@@ -2530,28 +2527,28 @@
         <v>69</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="191" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="191" t="s">
-        <v>174</v>
+      <c r="I17" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="131" t="s">
+        <v>171</v>
       </c>
       <c r="K17" s="95"/>
-      <c r="L17" s="191"/>
+      <c r="L17" s="131"/>
       <c r="M17" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N17" s="77"/>
     </row>
     <row r="18" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="145"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="152"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="55" t="s">
         <v>59</v>
       </c>
@@ -2565,21 +2562,21 @@
       <c r="H18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="192"/>
+      <c r="L18" s="132"/>
       <c r="M18" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N18" s="77"/>
     </row>
     <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="145"/>
-      <c r="B19" s="142">
+      <c r="A19" s="157"/>
+      <c r="B19" s="160">
         <v>44441</v>
       </c>
-      <c r="C19" s="153" t="s">
+      <c r="C19" s="174" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -2593,41 +2590,41 @@
         <v>14</v>
       </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="193" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" s="193" t="s">
-        <v>176</v>
+      <c r="I19" s="133" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="133" t="s">
+        <v>173</v>
       </c>
       <c r="K19" s="93"/>
-      <c r="L19" s="193"/>
+      <c r="L19" s="133"/>
       <c r="M19" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N19" s="77"/>
     </row>
     <row r="20" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="145"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="154"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="176"/>
       <c r="D20" s="51"/>
       <c r="E20" s="61"/>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
       <c r="K20" s="94"/>
-      <c r="L20" s="194"/>
+      <c r="L20" s="134"/>
       <c r="M20" s="51"/>
       <c r="N20" s="77"/>
     </row>
     <row r="21" spans="1:14" ht="38.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="145"/>
-      <c r="B21" s="148">
+      <c r="A21" s="157"/>
+      <c r="B21" s="190">
         <v>44442</v>
       </c>
-      <c r="C21" s="155" t="s">
+      <c r="C21" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -2640,28 +2637,28 @@
         <v>78</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="191" t="s">
-        <v>171</v>
+        <v>128</v>
+      </c>
+      <c r="I21" s="131" t="s">
+        <v>170</v>
       </c>
       <c r="J21" s="128" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
       <c r="M21" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N21" s="77"/>
     </row>
     <row r="22" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="146"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="152"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="173"/>
       <c r="D22" s="55" t="s">
         <v>63</v>
       </c>
@@ -2673,12 +2670,12 @@
       <c r="H22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="192"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
       <c r="M22" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N22" s="77"/>
     </row>
@@ -2702,13 +2699,13 @@
       <c r="N23" s="77"/>
     </row>
     <row r="24" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="168" t="s">
+      <c r="A24" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="142">
+      <c r="B24" s="160">
         <v>44445</v>
       </c>
-      <c r="C24" s="153" t="s">
+      <c r="C24" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -2726,12 +2723,12 @@
       <c r="H24" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="193" t="s">
-        <v>155</v>
-      </c>
-      <c r="J24" s="193"/>
-      <c r="K24" s="129" t="s">
-        <v>118</v>
+      <c r="I24" s="133" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="133"/>
+      <c r="K24" s="194" t="s">
+        <v>117</v>
       </c>
       <c r="L24" s="51"/>
       <c r="M24" s="51" t="s">
@@ -2740,9 +2737,9 @@
       <c r="N24" s="77"/>
     </row>
     <row r="25" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="144"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="156"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="175"/>
       <c r="D25" s="51" t="s">
         <v>82</v>
       </c>
@@ -2756,9 +2753,9 @@
       <c r="H25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="130"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="195"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51" t="s">
         <v>103</v>
@@ -2766,11 +2763,11 @@
       <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="144"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="156"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="61">
         <v>1</v>
@@ -2782,9 +2779,9 @@
       <c r="H26" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="130"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="195"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51" t="s">
         <v>103</v>
@@ -2792,9 +2789,9 @@
       <c r="N26" s="77"/>
     </row>
     <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="144"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="156"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="175"/>
       <c r="D27" s="51" t="s">
         <v>30</v>
       </c>
@@ -2810,9 +2807,9 @@
       <c r="H27" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="199"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="131"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="196"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51" t="s">
         <v>103</v>
@@ -2820,7 +2817,7 @@
       <c r="N27" s="77"/>
     </row>
     <row r="28" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="145"/>
+      <c r="A28" s="157"/>
       <c r="B28" s="75">
         <v>44446</v>
       </c>
@@ -2841,11 +2838,11 @@
       <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="145"/>
-      <c r="B29" s="165">
+      <c r="A29" s="157"/>
+      <c r="B29" s="150">
         <v>44447</v>
       </c>
-      <c r="C29" s="151" t="s">
+      <c r="C29" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -2863,14 +2860,14 @@
       <c r="H29" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="191" t="s">
+      <c r="I29" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="191" t="s">
+      <c r="J29" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="137" t="s">
-        <v>125</v>
+      <c r="K29" s="202" t="s">
+        <v>124</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55" t="s">
@@ -2879,9 +2876,9 @@
       <c r="N29" s="77"/>
     </row>
     <row r="30" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="145"/>
-      <c r="B30" s="183"/>
-      <c r="C30" s="169"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="166"/>
       <c r="D30" s="55" t="s">
         <v>59</v>
       </c>
@@ -2895,9 +2892,9 @@
       <c r="H30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="192"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="138"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="203"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55" t="s">
         <v>103</v>
@@ -2905,7 +2902,7 @@
       <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="145"/>
+      <c r="A31" s="157"/>
       <c r="B31" s="88">
         <v>44448</v>
       </c>
@@ -2928,16 +2925,16 @@
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
       <c r="M31" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N31" s="77"/>
     </row>
     <row r="32" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="145"/>
-      <c r="B32" s="165">
+      <c r="A32" s="157"/>
+      <c r="B32" s="150">
         <v>44449</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="55" t="s">
@@ -2955,19 +2952,19 @@
       <c r="H32" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="191" t="s">
-        <v>117</v>
-      </c>
-      <c r="J32" s="191"/>
+      <c r="I32" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" s="131"/>
       <c r="K32" s="95"/>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="77"/>
     </row>
     <row r="33" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="145"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="152"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="173"/>
       <c r="D33" s="55" t="s">
         <v>63</v>
       </c>
@@ -2981,8 +2978,8 @@
       <c r="H33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
       <c r="K33" s="96"/>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -3008,13 +3005,13 @@
       <c r="N34" s="77"/>
     </row>
     <row r="35" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="168" t="s">
+      <c r="A35" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="142">
+      <c r="B35" s="160">
         <v>44452</v>
       </c>
-      <c r="C35" s="153" t="s">
+      <c r="C35" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="52" t="s">
@@ -3027,85 +3024,77 @@
         <v>29</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I35" s="139" t="s">
+      <c r="I35" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="203" t="s">
-        <v>156</v>
-      </c>
-      <c r="K35" s="139" t="s">
-        <v>126</v>
+      <c r="J35" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="137" t="s">
+        <v>125</v>
       </c>
       <c r="L35" s="51"/>
       <c r="M35" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="144"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="156"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="175"/>
       <c r="D36" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="116">
         <v>1</v>
       </c>
-      <c r="F36" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="51" t="s">
-        <v>111</v>
-      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="140"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="140"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="138"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N36" s="77"/>
     </row>
     <row r="37" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="144"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="156"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="175"/>
       <c r="D37" s="50" t="s">
         <v>108</v>
       </c>
       <c r="E37" s="116">
         <v>1</v>
       </c>
-      <c r="F37" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="51" t="s">
-        <v>111</v>
-      </c>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="140"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="140"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="138"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N37" s="77"/>
     </row>
-    <row r="38" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="144"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="154"/>
+    <row r="38" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="156"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="176"/>
       <c r="D38" s="50" t="s">
         <v>30</v>
       </c>
@@ -3113,25 +3102,25 @@
         <v>2</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" s="141"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="141"/>
+        <v>129</v>
+      </c>
+      <c r="I38" s="139"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="139"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N38" s="77"/>
     </row>
     <row r="39" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="145"/>
+      <c r="A39" s="157"/>
       <c r="B39" s="90">
         <v>44453</v>
       </c>
@@ -3151,11 +3140,11 @@
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="145"/>
-      <c r="B40" s="165">
+      <c r="A40" s="157"/>
+      <c r="B40" s="150">
         <v>44454</v>
       </c>
-      <c r="C40" s="151" t="s">
+      <c r="C40" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="55" t="s">
@@ -3171,10 +3160,10 @@
         <v>104</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="191"/>
-      <c r="J40" s="191"/>
+        <v>130</v>
+      </c>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
       <c r="K40" s="95"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55" t="s">
@@ -3182,9 +3171,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="145"/>
-      <c r="B41" s="183"/>
-      <c r="C41" s="169"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="166"/>
       <c r="D41" s="55" t="s">
         <v>59</v>
       </c>
@@ -3196,8 +3185,8 @@
       <c r="H41" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="192"/>
-      <c r="J41" s="192"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
       <c r="K41" s="96"/>
       <c r="L41" s="55"/>
       <c r="M41" s="55" t="s">
@@ -3206,7 +3195,7 @@
       <c r="N41" s="77"/>
     </row>
     <row r="42" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="145"/>
+      <c r="A42" s="157"/>
       <c r="B42" s="88">
         <v>44455</v>
       </c>
@@ -3229,16 +3218,16 @@
       <c r="K42" s="51"/>
       <c r="L42" s="51"/>
       <c r="M42" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N42" s="77"/>
     </row>
     <row r="43" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="145"/>
-      <c r="B43" s="166">
+      <c r="A43" s="157"/>
+      <c r="B43" s="187">
         <v>44456</v>
       </c>
-      <c r="C43" s="175" t="s">
+      <c r="C43" s="177" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="55" t="s">
@@ -3251,15 +3240,15 @@
         <v>76</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="I43" s="191"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="132" t="s">
-        <v>119</v>
+        <v>131</v>
+      </c>
+      <c r="I43" s="131"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="197" t="s">
+        <v>118</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="55" t="s">
@@ -3268,9 +3257,9 @@
       <c r="N43" s="77"/>
     </row>
     <row r="44" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="145"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="175"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="177"/>
       <c r="D44" s="55" t="s">
         <v>63</v>
       </c>
@@ -3282,9 +3271,9 @@
       <c r="H44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="192"/>
-      <c r="J44" s="192"/>
-      <c r="K44" s="133"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="198"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55" t="s">
         <v>103</v>
@@ -3310,13 +3299,13 @@
       <c r="M45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="178" t="s">
+      <c r="A46" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="184">
+      <c r="B46" s="152">
         <v>44459</v>
       </c>
-      <c r="C46" s="176" t="s">
+      <c r="C46" s="178" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="52" t="s">
@@ -3332,10 +3321,10 @@
         <v>105</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="I46" s="193"/>
-      <c r="J46" s="195"/>
+        <v>132</v>
+      </c>
+      <c r="I46" s="133"/>
+      <c r="J46" s="140"/>
       <c r="K46" s="62"/>
       <c r="L46" s="50"/>
       <c r="M46" s="50" t="s">
@@ -3343,9 +3332,9 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="179"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="176"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="178"/>
       <c r="D47" s="50" t="s">
         <v>63</v>
       </c>
@@ -3357,8 +3346,8 @@
       <c r="H47" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="199"/>
-      <c r="J47" s="200"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="142"/>
       <c r="K47" s="63"/>
       <c r="L47" s="50"/>
       <c r="M47" s="50" t="s">
@@ -3366,11 +3355,11 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="179"/>
-      <c r="B48" s="184"/>
-      <c r="C48" s="176"/>
+      <c r="A48" s="146"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="178"/>
       <c r="D48" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="116">
         <v>1</v>
@@ -3380,8 +3369,8 @@
       <c r="H48" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="199"/>
-      <c r="J48" s="200"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="142"/>
       <c r="K48" s="63"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50" t="s">
@@ -3389,9 +3378,9 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="179"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="176"/>
+      <c r="A49" s="146"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="178"/>
       <c r="D49" s="50" t="s">
         <v>30</v>
       </c>
@@ -3407,8 +3396,8 @@
       <c r="H49" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="I49" s="194"/>
-      <c r="J49" s="196"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="141"/>
       <c r="K49" s="64"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50" t="s">
@@ -3416,7 +3405,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="179"/>
+      <c r="A50" s="146"/>
       <c r="B50" s="66">
         <v>44460</v>
       </c>
@@ -3435,11 +3424,11 @@
       <c r="M50" s="47"/>
     </row>
     <row r="51" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="179"/>
-      <c r="B51" s="185">
+      <c r="A51" s="146"/>
+      <c r="B51" s="153">
         <v>44461</v>
       </c>
-      <c r="C51" s="171" t="s">
+      <c r="C51" s="168" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="54" t="s">
@@ -3455,12 +3444,12 @@
         <v>93</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" s="191" t="s">
+        <v>133</v>
+      </c>
+      <c r="I51" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="J51" s="201"/>
+      <c r="J51" s="143"/>
       <c r="K51" s="98"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54" t="s">
@@ -3468,9 +3457,9 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="179"/>
-      <c r="B52" s="186"/>
-      <c r="C52" s="172"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="169"/>
       <c r="D52" s="54" t="s">
         <v>59</v>
       </c>
@@ -3482,8 +3471,8 @@
       <c r="H52" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="192"/>
-      <c r="J52" s="202"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="144"/>
       <c r="K52" s="99"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54" t="s">
@@ -3491,7 +3480,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="179"/>
+      <c r="A53" s="146"/>
       <c r="B53" s="67">
         <v>44462</v>
       </c>
@@ -3499,7 +3488,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53" s="116">
         <v>4</v>
@@ -3514,15 +3503,15 @@
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
       <c r="M53" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="179"/>
-      <c r="B54" s="187">
+      <c r="A54" s="146"/>
+      <c r="B54" s="158">
         <v>44463</v>
       </c>
-      <c r="C54" s="173" t="s">
+      <c r="C54" s="170" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="54" t="s">
@@ -3532,16 +3521,16 @@
         <v>2</v>
       </c>
       <c r="F54" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="G54" s="54" t="s">
-        <v>169</v>
-      </c>
       <c r="H54" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="I54" s="191"/>
-      <c r="J54" s="201"/>
+        <v>134</v>
+      </c>
+      <c r="I54" s="131"/>
+      <c r="J54" s="143"/>
       <c r="K54" s="98"/>
       <c r="L54" s="55" t="s">
         <v>107</v>
@@ -3551,9 +3540,9 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="180"/>
-      <c r="B55" s="188"/>
-      <c r="C55" s="174"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="171"/>
       <c r="D55" s="54" t="s">
         <v>63</v>
       </c>
@@ -3565,8 +3554,8 @@
       <c r="H55" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="192"/>
-      <c r="J55" s="202"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="144"/>
       <c r="K55" s="99"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54" t="s">
@@ -3592,13 +3581,13 @@
       <c r="M56" s="47"/>
     </row>
     <row r="57" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="181" t="s">
+      <c r="A57" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="189">
+      <c r="B57" s="163">
         <v>44466</v>
       </c>
-      <c r="C57" s="177" t="s">
+      <c r="C57" s="179" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="50" t="s">
@@ -3608,28 +3597,28 @@
         <v>2</v>
       </c>
       <c r="F57" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G57" s="51" t="s">
         <v>110</v>
       </c>
       <c r="H57" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="195"/>
-      <c r="J57" s="195"/>
+        <v>135</v>
+      </c>
+      <c r="I57" s="140"/>
+      <c r="J57" s="140"/>
       <c r="K57" s="62"/>
       <c r="L57" s="50"/>
       <c r="M57" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="182"/>
-      <c r="B58" s="190"/>
-      <c r="C58" s="177"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="179"/>
       <c r="D58" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E58" s="116">
         <v>3</v>
@@ -3639,16 +3628,16 @@
         <v>14</v>
       </c>
       <c r="H58" s="97"/>
-      <c r="I58" s="196"/>
-      <c r="J58" s="196"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="141"/>
       <c r="K58" s="64"/>
       <c r="L58" s="97"/>
       <c r="M58" s="97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="69" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="182"/>
+      <c r="A59" s="149"/>
       <c r="B59" s="66">
         <v>44467</v>
       </c>
@@ -3663,22 +3652,22 @@
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
       <c r="K59" s="109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
       <c r="N59" s="34"/>
     </row>
     <row r="60" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="182"/>
-      <c r="B60" s="185">
+      <c r="A60" s="149"/>
+      <c r="B60" s="153">
         <v>44468</v>
       </c>
-      <c r="C60" s="170" t="s">
+      <c r="C60" s="167" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E60" s="119">
         <v>3</v>
@@ -3687,36 +3676,36 @@
         <v>109</v>
       </c>
       <c r="G60" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H60" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="I60" s="197"/>
-      <c r="J60" s="197"/>
-      <c r="K60" s="197"/>
+        <v>136</v>
+      </c>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="129"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="182"/>
-      <c r="B61" s="186"/>
-      <c r="C61" s="170"/>
+      <c r="A61" s="149"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="167"/>
       <c r="D61" s="54"/>
       <c r="E61" s="119"/>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
-      <c r="I61" s="198"/>
-      <c r="J61" s="198"/>
-      <c r="K61" s="198"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
     </row>
     <row r="62" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="182"/>
+      <c r="A62" s="149"/>
       <c r="B62" s="67">
         <v>44469</v>
       </c>
@@ -3735,7 +3724,7 @@
       <c r="M62" s="97"/>
     </row>
     <row r="63" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="182"/>
+      <c r="A63" s="149"/>
       <c r="B63" s="124">
         <v>44470</v>
       </c>
@@ -3743,24 +3732,24 @@
         <v>12</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" s="119">
         <v>4</v>
       </c>
       <c r="F63" s="57"/>
       <c r="G63" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H63" s="57"/>
       <c r="I63" s="123"/>
       <c r="J63" s="123"/>
       <c r="K63" s="126" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L63" s="108"/>
       <c r="M63" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3797,15 +3786,86 @@
       <c r="M65" s="69"/>
     </row>
     <row r="66" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="160" t="s">
+      <c r="A66" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="161"/>
-      <c r="C66" s="162"/>
+      <c r="B66" s="182"/>
+      <c r="C66" s="183"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="87">
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
     <mergeCell ref="K60:K61"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="L17:L18"/>
@@ -3822,77 +3882,6 @@
     <mergeCell ref="J43:J44"/>
     <mergeCell ref="I35:I38"/>
     <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K35:K38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J35" r:id="rId1" xr:uid="{6F56A95F-302D-430F-BB93-125813A81349}"/>
@@ -3989,7 +3978,7 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="212">
+      <c r="A8" s="211">
         <v>34</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -4005,8 +3994,8 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="212"/>
-      <c r="B9" s="206" t="s">
+      <c r="A9" s="211"/>
+      <c r="B9" s="213" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -4029,8 +4018,8 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="212"/>
-      <c r="B10" s="221"/>
+      <c r="A10" s="211"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4049,8 +4038,8 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="51.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="212"/>
-      <c r="B11" s="221"/>
+      <c r="A11" s="211"/>
+      <c r="B11" s="214"/>
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
@@ -4073,8 +4062,8 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="212"/>
-      <c r="B12" s="222"/>
+      <c r="A12" s="211"/>
+      <c r="B12" s="215"/>
       <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
@@ -4093,8 +4082,8 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="212"/>
-      <c r="B13" s="223" t="s">
+      <c r="A13" s="211"/>
+      <c r="B13" s="216" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -4117,8 +4106,8 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="212"/>
-      <c r="B14" s="224"/>
+      <c r="A14" s="211"/>
+      <c r="B14" s="217"/>
       <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
@@ -4137,8 +4126,8 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="212"/>
-      <c r="B15" s="225"/>
+      <c r="A15" s="211"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4157,8 +4146,8 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="212"/>
-      <c r="B16" s="206" t="s">
+      <c r="A16" s="211"/>
+      <c r="B16" s="213" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -4175,8 +4164,8 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="212"/>
-      <c r="B17" s="222"/>
+      <c r="A17" s="211"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="14"/>
@@ -4191,8 +4180,8 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="212"/>
-      <c r="B18" s="223" t="s">
+      <c r="A18" s="211"/>
+      <c r="B18" s="216" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -4213,8 +4202,8 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="212"/>
-      <c r="B19" s="224"/>
+      <c r="A19" s="211"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
@@ -4233,8 +4222,8 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="220"/>
-      <c r="B20" s="225"/>
+      <c r="A20" s="212"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="30" t="s">
         <v>41</v>
       </c>
@@ -4253,10 +4242,10 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="214">
+      <c r="A21" s="204">
         <v>35</v>
       </c>
-      <c r="B21" s="218" t="s">
+      <c r="B21" s="207" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9"/>
@@ -4275,8 +4264,8 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="213"/>
-      <c r="B22" s="207"/>
+      <c r="A22" s="205"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="15"/>
@@ -4289,7 +4278,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="213"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
@@ -4303,8 +4292,8 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="213"/>
-      <c r="B24" s="218" t="s">
+      <c r="A24" s="205"/>
+      <c r="B24" s="207" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9"/>
@@ -4323,8 +4312,8 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="213"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="205"/>
+      <c r="B25" s="208"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
       <c r="E25" s="9"/>
@@ -4335,8 +4324,8 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="213"/>
-      <c r="B26" s="218" t="s">
+      <c r="A26" s="205"/>
+      <c r="B26" s="207" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4353,8 +4342,8 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="213"/>
-      <c r="B27" s="207"/>
+      <c r="A27" s="205"/>
+      <c r="B27" s="208"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="15"/>
@@ -4365,8 +4354,8 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="213"/>
-      <c r="B28" s="226" t="s">
+      <c r="A28" s="205"/>
+      <c r="B28" s="209" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="9"/>
@@ -4379,8 +4368,8 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="217"/>
-      <c r="B29" s="227"/>
+      <c r="A29" s="206"/>
+      <c r="B29" s="210"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="21"/>
@@ -4391,10 +4380,10 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="211">
+      <c r="A30" s="224">
         <v>36</v>
       </c>
-      <c r="B30" s="206" t="s">
+      <c r="B30" s="213" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="23"/>
@@ -4413,8 +4402,8 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="212"/>
-      <c r="B31" s="207"/>
+      <c r="A31" s="211"/>
+      <c r="B31" s="208"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="14"/>
@@ -4425,7 +4414,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="213"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
@@ -4439,7 +4428,7 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="213"/>
+      <c r="A33" s="205"/>
       <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
@@ -4457,8 +4446,8 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="213"/>
-      <c r="B34" s="206" t="s">
+      <c r="A34" s="205"/>
+      <c r="B34" s="213" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -4475,8 +4464,8 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="213"/>
-      <c r="B35" s="207"/>
+      <c r="A35" s="205"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="14"/>
@@ -4487,8 +4476,8 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="213"/>
-      <c r="B36" s="206" t="s">
+      <c r="A36" s="205"/>
+      <c r="B36" s="213" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="23"/>
@@ -4507,8 +4496,8 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="213"/>
-      <c r="B37" s="207"/>
+      <c r="A37" s="205"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -4519,10 +4508,10 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="214">
+      <c r="A38" s="204">
         <v>37</v>
       </c>
-      <c r="B38" s="218" t="s">
+      <c r="B38" s="207" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="9"/>
@@ -4535,8 +4524,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="215"/>
-      <c r="B39" s="207"/>
+      <c r="A39" s="225"/>
+      <c r="B39" s="208"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="15"/>
@@ -4547,7 +4536,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="216"/>
+      <c r="A40" s="226"/>
       <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
@@ -4561,7 +4550,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="216"/>
+      <c r="A41" s="226"/>
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4575,8 +4564,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="216"/>
-      <c r="B42" s="218" t="s">
+      <c r="A42" s="226"/>
+      <c r="B42" s="207" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4593,8 +4582,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="216"/>
-      <c r="B43" s="219"/>
+      <c r="A43" s="226"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4605,8 +4594,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="216"/>
-      <c r="B44" s="207"/>
+      <c r="A44" s="226"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="20"/>
@@ -4617,8 +4606,8 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="216"/>
-      <c r="B45" s="218" t="s">
+      <c r="A45" s="226"/>
+      <c r="B45" s="207" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="9"/>
@@ -4631,8 +4620,8 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="213"/>
-      <c r="B46" s="219"/>
+      <c r="A46" s="205"/>
+      <c r="B46" s="227"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4643,8 +4632,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="217"/>
-      <c r="B47" s="207"/>
+      <c r="A47" s="206"/>
+      <c r="B47" s="208"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="20"/>
@@ -4655,10 +4644,10 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="204">
+      <c r="A48" s="219">
         <v>38</v>
       </c>
-      <c r="B48" s="206" t="s">
+      <c r="B48" s="213" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="23"/>
@@ -4671,8 +4660,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="204"/>
-      <c r="B49" s="207"/>
+      <c r="A49" s="219"/>
+      <c r="B49" s="208"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -4683,7 +4672,7 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="205"/>
+      <c r="A50" s="220"/>
       <c r="B50" s="23" t="s">
         <v>10</v>
       </c>
@@ -4697,7 +4686,7 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="205"/>
+      <c r="A51" s="220"/>
       <c r="B51" s="23" t="s">
         <v>13</v>
       </c>
@@ -4711,7 +4700,7 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="205"/>
+      <c r="A52" s="220"/>
       <c r="B52" s="23" t="s">
         <v>11</v>
       </c>
@@ -4729,8 +4718,8 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="205"/>
-      <c r="B53" s="204" t="s">
+      <c r="A53" s="220"/>
+      <c r="B53" s="219" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="17"/>
@@ -4743,8 +4732,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="205"/>
-      <c r="B54" s="205"/>
+      <c r="A54" s="220"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="22"/>
@@ -4755,7 +4744,7 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="208">
+      <c r="A55" s="221">
         <v>39</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -4771,7 +4760,7 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="209"/>
+      <c r="A56" s="222"/>
       <c r="B56" s="25" t="s">
         <v>10</v>
       </c>
@@ -4784,7 +4773,7 @@
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="209"/>
+      <c r="A57" s="222"/>
       <c r="B57" s="25" t="s">
         <v>13</v>
       </c>
@@ -4797,7 +4786,7 @@
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="209"/>
+      <c r="A58" s="222"/>
       <c r="B58" s="25" t="s">
         <v>11</v>
       </c>
@@ -4814,7 +4803,7 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="210"/>
+      <c r="A59" s="223"/>
       <c r="B59" s="26" t="s">
         <v>12</v>
       </c>
@@ -4828,16 +4817,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B53:B54"/>
@@ -4850,6 +4829,16 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4887,13 +4876,13 @@
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>141</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>142</v>
       </c>
       <c r="D2" s="37"/>
     </row>
@@ -4978,7 +4967,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>99</v>
@@ -4986,10 +4975,10 @@
     </row>
     <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>139</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>140</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>99</v>

--- a/01_studieplan_och_schema.xlsx
+++ b/01_studieplan_och_schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsabellaGagner\Documents\Programming-projects\EC\ec-python-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1CFC1E-E18C-4ED0-A153-F8A9E8BA7F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F38C0-D1AF-47D2-8358-7A16DD620CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7188" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema - Python" sheetId="1" r:id="rId1"/>
@@ -279,9 +279,6 @@
     <t>God programmeringssed, Filhantering</t>
   </si>
   <si>
-    <t>Skapa UML-diagram från förra veckans uppgifter</t>
-  </si>
-  <si>
     <t>Dataframes med Pandas</t>
   </si>
   <si>
@@ -577,6 +574,9 @@
   </si>
   <si>
     <t>git: merge conflicts</t>
+  </si>
+  <si>
+    <t>PP 16-18</t>
   </si>
 </sst>
 </file>
@@ -2013,8 +2013,8 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2050,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>3</v>
@@ -2068,7 +2068,7 @@
         <v>43</v>
       </c>
       <c r="K1" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L1" s="73" t="s">
         <v>36</v>
@@ -2124,7 +2124,7 @@
         <v>55</v>
       </c>
       <c r="I3" s="184" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J3" s="184" t="s">
         <v>46</v>
@@ -2162,7 +2162,7 @@
       <c r="K4" s="79"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N4" s="77"/>
     </row>
@@ -2180,7 +2180,7 @@
         <v>66</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>77</v>
@@ -2220,7 +2220,7 @@
         <v>57</v>
       </c>
       <c r="I6" s="180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J6" s="180" t="s">
         <v>48</v>
@@ -2228,7 +2228,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
       <c r="M6" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N6" s="77"/>
     </row>
@@ -2252,7 +2252,7 @@
       <c r="K7" s="56"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N7" s="77"/>
     </row>
@@ -2276,15 +2276,15 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" s="51"/>
       <c r="M8" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N8" s="77"/>
     </row>
@@ -2306,23 +2306,23 @@
         <v>67</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="55" t="s">
         <v>62</v>
       </c>
       <c r="I9" s="180" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J9" s="180" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N9" s="77"/>
     </row>
@@ -2346,7 +2346,7 @@
       <c r="K10" s="56"/>
       <c r="L10" s="132"/>
       <c r="M10" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N10" s="77"/>
     </row>
@@ -2389,23 +2389,23 @@
         <v>28</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I12" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="J12" s="137" t="s">
-        <v>162</v>
-      </c>
       <c r="K12" s="199" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" s="53"/>
       <c r="M12" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N12" s="77"/>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="K13" s="200"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N13" s="77"/>
     </row>
@@ -2438,7 +2438,7 @@
       <c r="B14" s="161"/>
       <c r="C14" s="175"/>
       <c r="D14" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="116">
         <v>1</v>
@@ -2453,7 +2453,7 @@
       <c r="K14" s="200"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N14" s="77"/>
     </row>
@@ -2471,17 +2471,17 @@
         <v>68</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I15" s="139"/>
       <c r="J15" s="139"/>
       <c r="K15" s="201"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N15" s="77"/>
     </row>
@@ -2499,10 +2499,10 @@
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
       <c r="I16" s="114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J16" s="127" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -2527,21 +2527,21 @@
         <v>69</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H17" s="55" t="s">
         <v>64</v>
       </c>
       <c r="I17" s="131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J17" s="131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K17" s="95"/>
       <c r="L17" s="131"/>
       <c r="M17" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N17" s="77"/>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="K18" s="96"/>
       <c r="L18" s="132"/>
       <c r="M18" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N18" s="77"/>
     </row>
@@ -2591,15 +2591,15 @@
       </c>
       <c r="H19" s="51"/>
       <c r="I19" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J19" s="133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K19" s="93"/>
       <c r="L19" s="133"/>
       <c r="M19" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N19" s="77"/>
     </row>
@@ -2637,21 +2637,21 @@
         <v>78</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I21" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J21" s="128" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
       <c r="M21" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N21" s="77"/>
     </row>
@@ -2675,7 +2675,7 @@
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
       <c r="M22" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N22" s="77"/>
     </row>
@@ -2709,30 +2709,30 @@
         <v>7</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="111">
         <v>1.5</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H24" s="51" t="s">
         <v>65</v>
       </c>
       <c r="I24" s="133" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" s="133"/>
       <c r="K24" s="194" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L24" s="51"/>
       <c r="M24" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N24" s="77"/>
     </row>
@@ -2741,13 +2741,13 @@
       <c r="B25" s="161"/>
       <c r="C25" s="175"/>
       <c r="D25" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="61">
         <v>1.5</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="51"/>
       <c r="H25" s="51" t="s">
@@ -2758,7 +2758,7 @@
       <c r="K25" s="195"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N25" s="77"/>
     </row>
@@ -2767,13 +2767,13 @@
       <c r="B26" s="161"/>
       <c r="C26" s="175"/>
       <c r="D26" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" s="61">
         <v>1</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="51" t="s">
@@ -2784,7 +2784,7 @@
       <c r="K26" s="195"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N26" s="77"/>
     </row>
@@ -2802,17 +2802,17 @@
         <v>29</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="135"/>
       <c r="J27" s="135"/>
       <c r="K27" s="196"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N27" s="77"/>
     </row>
@@ -2830,7 +2830,7 @@
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
@@ -2852,26 +2852,26 @@
         <v>2</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="131" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J29" s="131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K29" s="202" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N29" s="77"/>
     </row>
@@ -2886,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="55" t="s">
@@ -2897,7 +2897,7 @@
       <c r="K30" s="203"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N30" s="87"/>
     </row>
@@ -2925,7 +2925,7 @@
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
       <c r="M31" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N31" s="77"/>
     </row>
@@ -2944,16 +2944,16 @@
         <v>2</v>
       </c>
       <c r="F32" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="65" t="s">
-        <v>86</v>
-      </c>
       <c r="H32" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I32" s="131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J32" s="131"/>
       <c r="K32" s="95"/>
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" s="55"/>
       <c r="H33" s="55" t="s">
@@ -3024,23 +3024,23 @@
         <v>29</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" s="137" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="J35" s="136" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K35" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L35" s="51"/>
       <c r="M35" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
@@ -3063,7 +3063,7 @@
       <c r="K36" s="138"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N36" s="77"/>
     </row>
@@ -3072,7 +3072,7 @@
       <c r="B37" s="161"/>
       <c r="C37" s="175"/>
       <c r="D37" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="116">
         <v>1</v>
@@ -3087,7 +3087,7 @@
       <c r="K37" s="138"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N37" s="77"/>
     </row>
@@ -3102,20 +3102,20 @@
         <v>2</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I38" s="139"/>
       <c r="J38" s="134"/>
       <c r="K38" s="139"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N38" s="77"/>
     </row>
@@ -3157,17 +3157,17 @@
         <v>76</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I40" s="131"/>
       <c r="J40" s="131"/>
       <c r="K40" s="95"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3190,7 +3190,7 @@
       <c r="K41" s="96"/>
       <c r="L41" s="55"/>
       <c r="M41" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N41" s="77"/>
     </row>
@@ -3218,7 +3218,7 @@
       <c r="K42" s="51"/>
       <c r="L42" s="51"/>
       <c r="M42" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N42" s="77"/>
     </row>
@@ -3240,19 +3240,19 @@
         <v>76</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="131"/>
       <c r="J43" s="131"/>
       <c r="K43" s="197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N43" s="77"/>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="K44" s="198"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N44" s="77"/>
     </row>
@@ -3315,20 +3315,20 @@
         <v>2</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I46" s="133"/>
       <c r="J46" s="140"/>
       <c r="K46" s="62"/>
       <c r="L46" s="50"/>
       <c r="M46" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3351,7 +3351,7 @@
       <c r="K47" s="63"/>
       <c r="L47" s="50"/>
       <c r="M47" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3359,7 +3359,7 @@
       <c r="B48" s="152"/>
       <c r="C48" s="178"/>
       <c r="D48" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" s="116">
         <v>1</v>
@@ -3374,7 +3374,7 @@
       <c r="K48" s="63"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3388,20 +3388,20 @@
         <v>2</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H49" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I49" s="134"/>
       <c r="J49" s="141"/>
       <c r="K49" s="64"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3438,22 +3438,22 @@
         <v>2</v>
       </c>
       <c r="F51" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G51" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I51" s="131" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J51" s="143"/>
       <c r="K51" s="98"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3476,7 +3476,7 @@
       <c r="K52" s="99"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3488,7 +3488,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="116">
         <v>4</v>
@@ -3503,7 +3503,7 @@
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
       <c r="M53" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3521,22 +3521,22 @@
         <v>2</v>
       </c>
       <c r="F54" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="G54" s="54" t="s">
-        <v>168</v>
-      </c>
       <c r="H54" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I54" s="131"/>
       <c r="J54" s="143"/>
       <c r="K54" s="98"/>
       <c r="L54" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M54" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3559,7 +3559,7 @@
       <c r="K55" s="99"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3597,20 +3597,20 @@
         <v>2</v>
       </c>
       <c r="F57" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G57" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H57" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I57" s="140"/>
       <c r="J57" s="140"/>
       <c r="K57" s="62"/>
       <c r="L57" s="50"/>
       <c r="M57" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3618,7 +3618,7 @@
       <c r="B58" s="164"/>
       <c r="C58" s="179"/>
       <c r="D58" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" s="116">
         <v>3</v>
@@ -3633,7 +3633,7 @@
       <c r="K58" s="64"/>
       <c r="L58" s="97"/>
       <c r="M58" s="97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="69" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
@@ -3652,7 +3652,7 @@
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
       <c r="K59" s="109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
@@ -3667,26 +3667,26 @@
         <v>13</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" s="119">
         <v>3</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G60" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H60" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I60" s="129"/>
       <c r="J60" s="129"/>
       <c r="K60" s="129"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3732,24 +3732,24 @@
         <v>12</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E63" s="119">
         <v>4</v>
       </c>
       <c r="F63" s="57"/>
       <c r="G63" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H63" s="57"/>
       <c r="I63" s="123"/>
       <c r="J63" s="123"/>
       <c r="K63" s="126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L63" s="108"/>
       <c r="M63" s="57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3787,7 +3787,7 @@
     </row>
     <row r="66" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="182"/>
       <c r="C66" s="183"/>
@@ -4876,13 +4876,13 @@
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>140</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>141</v>
       </c>
       <c r="D2" s="37"/>
     </row>
@@ -4964,24 +4964,24 @@
     </row>
     <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="C3" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/01_studieplan_och_schema.xlsx
+++ b/01_studieplan_och_schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsabellaGagner\Documents\Programming-projects\EC\ec-python-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexanderHagelborn\code\ec-python-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F38C0-D1AF-47D2-8358-7A16DD620CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855568D3-509F-47A5-A0E1-10D05EDD1726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7188" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema - Python" sheetId="1" r:id="rId1"/>
@@ -318,9 +318,6 @@
     <t>EGEN STUDIETID</t>
   </si>
   <si>
-    <t>Få ut data från databas med SQL</t>
-  </si>
-  <si>
     <t>Introduktion till databaser och SQL</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>WTP: s. 45-52</t>
   </si>
   <si>
-    <t>Sätta upp sqlite3 databas</t>
-  </si>
-  <si>
     <t>Vscode debugger</t>
   </si>
   <si>
@@ -354,12 +348,6 @@
     <t>Vad ett API är, RESTful och pythons requests</t>
   </si>
   <si>
-    <t>Streamlit</t>
-  </si>
-  <si>
-    <t>Interaktiv visualisering</t>
-  </si>
-  <si>
     <t>Mentimeter för repetition vecka 6</t>
   </si>
   <si>
@@ -577,6 +565,18 @@
   </si>
   <si>
     <t>PP 16-18</t>
+  </si>
+  <si>
+    <t>Surprise!</t>
+  </si>
+  <si>
+    <t>Uppgift 1-5 i sql.txt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NvrpuBAMddw, https://www.youtube.com/watch?v=llF06RLZbBY</t>
+  </si>
+  <si>
+    <t>Koppla pandas och SQLite</t>
   </si>
 </sst>
 </file>
@@ -1347,280 +1347,238 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,15 +1589,55 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2013,8 +2011,8 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35:I38"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2050,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>3</v>
@@ -2068,7 +2066,7 @@
         <v>43</v>
       </c>
       <c r="K1" s="73" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L1" s="73" t="s">
         <v>36</v>
@@ -2079,7 +2077,7 @@
       <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="144" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="75">
@@ -2101,11 +2099,11 @@
       <c r="N2" s="77"/>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="156"/>
-      <c r="B3" s="185">
+      <c r="A3" s="144"/>
+      <c r="B3" s="164">
         <v>44432</v>
       </c>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="163" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2123,10 +2121,10 @@
       <c r="H3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="184" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="184" t="s">
+      <c r="I3" s="163" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="163" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="79"/>
@@ -2139,9 +2137,9 @@
       <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="156"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="184"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="163"/>
       <c r="D4" s="51" t="s">
         <v>22</v>
       </c>
@@ -2157,19 +2155,19 @@
       <c r="H4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
       <c r="K4" s="79"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="1:14" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="156"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="184"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="51" t="s">
         <v>58</v>
       </c>
@@ -2180,13 +2178,13 @@
         <v>66</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
       <c r="K5" s="79"/>
       <c r="L5" s="51" t="s">
         <v>38</v>
@@ -2197,11 +2195,11 @@
       <c r="N5" s="77"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="156"/>
-      <c r="B6" s="187">
+      <c r="A6" s="144"/>
+      <c r="B6" s="166">
         <v>44433</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="150" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -2219,23 +2217,23 @@
       <c r="H6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="180" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="180" t="s">
+      <c r="I6" s="159" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="159" t="s">
         <v>48</v>
       </c>
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
       <c r="M6" s="55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N6" s="77"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="156"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="191"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="55" t="s">
         <v>59</v>
       </c>
@@ -2247,17 +2245,17 @@
       <c r="H7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
       <c r="K7" s="56"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="156"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="78">
         <v>44434</v>
       </c>
@@ -2276,24 +2274,24 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="61" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" s="51"/>
       <c r="M8" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N8" s="77"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="156"/>
-      <c r="B9" s="187">
+      <c r="A9" s="144"/>
+      <c r="B9" s="166">
         <v>44435</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="150" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -2306,30 +2304,30 @@
         <v>67</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="180" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="180" t="s">
-        <v>144</v>
+      <c r="I9" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="159" t="s">
+        <v>140</v>
       </c>
       <c r="K9" s="56"/>
-      <c r="L9" s="131" t="s">
-        <v>150</v>
+      <c r="L9" s="191" t="s">
+        <v>146</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="156"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="191"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="55" t="s">
         <v>63</v>
       </c>
@@ -2341,12 +2339,12 @@
       <c r="H10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="132"/>
+      <c r="L10" s="192"/>
       <c r="M10" s="55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N10" s="77"/>
     </row>
@@ -2370,13 +2368,13 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="160">
+      <c r="B12" s="142">
         <v>44438</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -2389,30 +2387,30 @@
         <v>28</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="137" t="s">
-        <v>160</v>
-      </c>
-      <c r="J12" s="137" t="s">
-        <v>161</v>
-      </c>
-      <c r="K12" s="199" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="I12" s="139" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="134" t="s">
+        <v>118</v>
       </c>
       <c r="L12" s="53"/>
       <c r="M12" s="53" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="157"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="175"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="156"/>
       <c r="D13" s="50" t="s">
         <v>63</v>
       </c>
@@ -2424,21 +2422,21 @@
       <c r="H13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="200"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="135"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="157"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="175"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="156"/>
       <c r="D14" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E14" s="116">
         <v>1</v>
@@ -2448,19 +2446,19 @@
       <c r="H14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="200"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="157"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="192"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="157"/>
       <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
@@ -2471,22 +2469,22 @@
         <v>68</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="201"/>
+        <v>122</v>
+      </c>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="157"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="75">
         <v>44439</v>
       </c>
@@ -2499,10 +2497,10 @@
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
       <c r="I16" s="114" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J16" s="127" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
@@ -2510,11 +2508,11 @@
       <c r="N16" s="77"/>
     </row>
     <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="157"/>
-      <c r="B17" s="150">
+      <c r="A17" s="145"/>
+      <c r="B17" s="165">
         <v>44440</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="55" t="s">
@@ -2527,28 +2525,28 @@
         <v>69</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H17" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="131" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="131" t="s">
-        <v>170</v>
+      <c r="I17" s="191" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" s="191" t="s">
+        <v>166</v>
       </c>
       <c r="K17" s="95"/>
-      <c r="L17" s="131"/>
+      <c r="L17" s="191"/>
       <c r="M17" s="55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N17" s="77"/>
     </row>
     <row r="18" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="157"/>
-      <c r="B18" s="186"/>
-      <c r="C18" s="173"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="152"/>
       <c r="D18" s="55" t="s">
         <v>59</v>
       </c>
@@ -2562,21 +2560,21 @@
       <c r="H18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="132"/>
+      <c r="L18" s="192"/>
       <c r="M18" s="55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N18" s="77"/>
     </row>
     <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="157"/>
-      <c r="B19" s="160">
+      <c r="A19" s="145"/>
+      <c r="B19" s="142">
         <v>44441</v>
       </c>
-      <c r="C19" s="174" t="s">
+      <c r="C19" s="153" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -2590,41 +2588,41 @@
         <v>14</v>
       </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="J19" s="133" t="s">
-        <v>172</v>
+      <c r="I19" s="193" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="193" t="s">
+        <v>168</v>
       </c>
       <c r="K19" s="93"/>
-      <c r="L19" s="133"/>
+      <c r="L19" s="193"/>
       <c r="M19" s="51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N19" s="77"/>
     </row>
     <row r="20" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="157"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="176"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="154"/>
       <c r="D20" s="51"/>
       <c r="E20" s="61"/>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
       <c r="K20" s="94"/>
-      <c r="L20" s="134"/>
+      <c r="L20" s="194"/>
       <c r="M20" s="51"/>
       <c r="N20" s="77"/>
     </row>
     <row r="21" spans="1:14" ht="38.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="157"/>
-      <c r="B21" s="190">
+      <c r="A21" s="145"/>
+      <c r="B21" s="148">
         <v>44442</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="155" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -2637,28 +2635,28 @@
         <v>78</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="191" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="128" t="s">
         <v>169</v>
-      </c>
-      <c r="J21" s="128" t="s">
-        <v>173</v>
       </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
       <c r="M21" s="55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N21" s="77"/>
     </row>
     <row r="22" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="189"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="173"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="55" t="s">
         <v>63</v>
       </c>
@@ -2670,12 +2668,12 @@
       <c r="H22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="132"/>
+      <c r="I22" s="192"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
       <c r="M22" s="55" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N22" s="77"/>
     </row>
@@ -2699,13 +2697,13 @@
       <c r="N23" s="77"/>
     </row>
     <row r="24" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="155" t="s">
+      <c r="A24" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="160">
+      <c r="B24" s="142">
         <v>44445</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -2723,23 +2721,23 @@
       <c r="H24" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="133" t="s">
-        <v>153</v>
-      </c>
-      <c r="J24" s="133"/>
-      <c r="K24" s="194" t="s">
-        <v>116</v>
+      <c r="I24" s="193" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="193"/>
+      <c r="K24" s="129" t="s">
+        <v>112</v>
       </c>
       <c r="L24" s="51"/>
       <c r="M24" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N24" s="77"/>
     </row>
     <row r="25" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="156"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="175"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="156"/>
       <c r="D25" s="51" t="s">
         <v>81</v>
       </c>
@@ -2753,21 +2751,21 @@
       <c r="H25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="195"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="156"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="175"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="156"/>
       <c r="D26" s="51" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E26" s="61">
         <v>1</v>
@@ -2779,19 +2777,19 @@
       <c r="H26" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="195"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="130"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N26" s="77"/>
     </row>
     <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="156"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="175"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="156"/>
       <c r="D27" s="51" t="s">
         <v>30</v>
       </c>
@@ -2807,17 +2805,17 @@
       <c r="H27" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="196"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="131"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N27" s="77"/>
     </row>
     <row r="28" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="157"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="75">
         <v>44446</v>
       </c>
@@ -2830,7 +2828,7 @@
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
@@ -2838,11 +2836,11 @@
       <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="157"/>
-      <c r="B29" s="150">
+      <c r="A29" s="145"/>
+      <c r="B29" s="165">
         <v>44447</v>
       </c>
-      <c r="C29" s="165" t="s">
+      <c r="C29" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -2855,30 +2853,30 @@
         <v>84</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="J29" s="131" t="s">
+      <c r="I29" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="202" t="s">
-        <v>123</v>
+      <c r="J29" s="191" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="137" t="s">
+        <v>119</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N29" s="77"/>
     </row>
     <row r="30" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="157"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="166"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="169"/>
       <c r="D30" s="55" t="s">
         <v>59</v>
       </c>
@@ -2892,17 +2890,17 @@
       <c r="H30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="203"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="138"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="157"/>
+      <c r="A31" s="145"/>
       <c r="B31" s="88">
         <v>44448</v>
       </c>
@@ -2925,16 +2923,16 @@
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
       <c r="M31" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N31" s="77"/>
     </row>
     <row r="32" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="157"/>
-      <c r="B32" s="150">
+      <c r="A32" s="145"/>
+      <c r="B32" s="165">
         <v>44449</v>
       </c>
-      <c r="C32" s="172" t="s">
+      <c r="C32" s="155" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="55" t="s">
@@ -2952,19 +2950,19 @@
       <c r="H32" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="131" t="s">
-        <v>115</v>
-      </c>
-      <c r="J32" s="131"/>
+      <c r="I32" s="191" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="191"/>
       <c r="K32" s="95"/>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="77"/>
     </row>
     <row r="33" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="157"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="173"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="152"/>
       <c r="D33" s="55" t="s">
         <v>63</v>
       </c>
@@ -2978,8 +2976,8 @@
       <c r="H33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="192"/>
       <c r="K33" s="96"/>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -3005,13 +3003,13 @@
       <c r="N34" s="77"/>
     </row>
     <row r="35" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="155" t="s">
+      <c r="A35" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="160">
+      <c r="B35" s="142">
         <v>44452</v>
       </c>
-      <c r="C35" s="174" t="s">
+      <c r="C35" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="52" t="s">
@@ -3024,29 +3022,29 @@
         <v>29</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="I35" s="137" t="s">
-        <v>178</v>
-      </c>
-      <c r="J35" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="K35" s="137" t="s">
-        <v>124</v>
+      <c r="I35" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="202" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" s="139" t="s">
+        <v>120</v>
       </c>
       <c r="L35" s="51"/>
       <c r="M35" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="156"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="175"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="156"/>
       <c r="D36" s="50" t="s">
         <v>63</v>
       </c>
@@ -3058,21 +3056,21 @@
       <c r="H36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="138"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="138"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="140"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N36" s="77"/>
     </row>
     <row r="37" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="156"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="175"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="156"/>
       <c r="D37" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E37" s="116">
         <v>1</v>
@@ -3082,19 +3080,19 @@
       <c r="H37" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="138"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="138"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="140"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N37" s="77"/>
     </row>
     <row r="38" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="156"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="176"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="154"/>
       <c r="D38" s="50" t="s">
         <v>30</v>
       </c>
@@ -3102,25 +3100,25 @@
         <v>2</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="I38" s="139"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="139"/>
+        <v>124</v>
+      </c>
+      <c r="I38" s="141"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="141"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N38" s="77"/>
     </row>
     <row r="39" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="157"/>
+      <c r="A39" s="145"/>
       <c r="B39" s="90">
         <v>44453</v>
       </c>
@@ -3140,11 +3138,11 @@
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="157"/>
-      <c r="B40" s="150">
+      <c r="A40" s="145"/>
+      <c r="B40" s="165">
         <v>44454</v>
       </c>
-      <c r="C40" s="165" t="s">
+      <c r="C40" s="151" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="55" t="s">
@@ -3157,23 +3155,23 @@
         <v>76</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
+        <v>125</v>
+      </c>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
       <c r="K40" s="95"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="157"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="166"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="183"/>
+      <c r="C41" s="169"/>
       <c r="D41" s="55" t="s">
         <v>59</v>
       </c>
@@ -3185,17 +3183,17 @@
       <c r="H41" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
       <c r="K41" s="96"/>
       <c r="L41" s="55"/>
       <c r="M41" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N41" s="77"/>
     </row>
     <row r="42" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="157"/>
+      <c r="A42" s="145"/>
       <c r="B42" s="88">
         <v>44455</v>
       </c>
@@ -3218,16 +3216,16 @@
       <c r="K42" s="51"/>
       <c r="L42" s="51"/>
       <c r="M42" s="51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N42" s="77"/>
     </row>
     <row r="43" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="157"/>
-      <c r="B43" s="187">
+      <c r="A43" s="145"/>
+      <c r="B43" s="166">
         <v>44456</v>
       </c>
-      <c r="C43" s="177" t="s">
+      <c r="C43" s="175" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="55" t="s">
@@ -3240,26 +3238,26 @@
         <v>76</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="I43" s="131"/>
-      <c r="J43" s="131"/>
-      <c r="K43" s="197" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="I43" s="191"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="132" t="s">
+        <v>113</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N43" s="77"/>
     </row>
     <row r="44" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="157"/>
-      <c r="B44" s="188"/>
-      <c r="C44" s="177"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="55" t="s">
         <v>63</v>
       </c>
@@ -3271,12 +3269,12 @@
       <c r="H44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="198"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="133"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N44" s="77"/>
     </row>
@@ -3299,13 +3297,13 @@
       <c r="M45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="145" t="s">
+      <c r="A46" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="152">
+      <c r="B46" s="184">
         <v>44459</v>
       </c>
-      <c r="C46" s="178" t="s">
+      <c r="C46" s="176" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="52" t="s">
@@ -3315,26 +3313,30 @@
         <v>2</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="I46" s="133"/>
-      <c r="J46" s="140"/>
+        <v>127</v>
+      </c>
+      <c r="I46" s="193" t="s">
+        <v>176</v>
+      </c>
+      <c r="J46" s="227" t="s">
+        <v>177</v>
+      </c>
       <c r="K46" s="62"/>
       <c r="L46" s="50"/>
       <c r="M46" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="146"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="178"/>
+      <c r="A47" s="179"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="176"/>
       <c r="D47" s="50" t="s">
         <v>63</v>
       </c>
@@ -3346,20 +3348,20 @@
       <c r="H47" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="135"/>
-      <c r="J47" s="142"/>
+      <c r="I47" s="199"/>
+      <c r="J47" s="227"/>
       <c r="K47" s="63"/>
       <c r="L47" s="50"/>
       <c r="M47" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="146"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="178"/>
+      <c r="A48" s="179"/>
+      <c r="B48" s="184"/>
+      <c r="C48" s="176"/>
       <c r="D48" s="50" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E48" s="116">
         <v>1</v>
@@ -3369,43 +3371,41 @@
       <c r="H48" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="135"/>
-      <c r="J48" s="142"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="227"/>
       <c r="K48" s="63"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="146"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="178"/>
+      <c r="A49" s="179"/>
+      <c r="B49" s="184"/>
+      <c r="C49" s="176"/>
       <c r="D49" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E49" s="116">
         <v>2</v>
       </c>
-      <c r="F49" s="50" t="s">
-        <v>94</v>
-      </c>
+      <c r="F49" s="50"/>
       <c r="G49" s="50" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="H49" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I49" s="134"/>
-      <c r="J49" s="141"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="227"/>
       <c r="K49" s="64"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="146"/>
+      <c r="A50" s="179"/>
       <c r="B50" s="66">
         <v>44460</v>
       </c>
@@ -3424,11 +3424,11 @@
       <c r="M50" s="47"/>
     </row>
     <row r="51" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="146"/>
-      <c r="B51" s="153">
+      <c r="A51" s="179"/>
+      <c r="B51" s="185">
         <v>44461</v>
       </c>
-      <c r="C51" s="168" t="s">
+      <c r="C51" s="171" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="54" t="s">
@@ -3438,28 +3438,26 @@
         <v>2</v>
       </c>
       <c r="F51" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G51" s="54" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="I51" s="131" t="s">
-        <v>100</v>
-      </c>
-      <c r="J51" s="143"/>
+        <v>128</v>
+      </c>
+      <c r="I51" s="191"/>
+      <c r="J51" s="200"/>
       <c r="K51" s="98"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="146"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="169"/>
+      <c r="A52" s="179"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="172"/>
       <c r="D52" s="54" t="s">
         <v>59</v>
       </c>
@@ -3471,16 +3469,16 @@
       <c r="H52" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="132"/>
-      <c r="J52" s="144"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="201"/>
       <c r="K52" s="99"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="146"/>
+      <c r="A53" s="179"/>
       <c r="B53" s="67">
         <v>44462</v>
       </c>
@@ -3488,7 +3486,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E53" s="116">
         <v>4</v>
@@ -3503,15 +3501,15 @@
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
       <c r="M53" s="50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="146"/>
-      <c r="B54" s="158">
+      <c r="A54" s="179"/>
+      <c r="B54" s="187">
         <v>44463</v>
       </c>
-      <c r="C54" s="170" t="s">
+      <c r="C54" s="173" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="54" t="s">
@@ -3521,28 +3519,28 @@
         <v>2</v>
       </c>
       <c r="F54" s="54" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G54" s="54" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H54" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="I54" s="131"/>
-      <c r="J54" s="143"/>
+        <v>129</v>
+      </c>
+      <c r="I54" s="191"/>
+      <c r="J54" s="200"/>
       <c r="K54" s="98"/>
       <c r="L54" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M54" s="54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="147"/>
-      <c r="B55" s="159"/>
-      <c r="C55" s="171"/>
+      <c r="A55" s="180"/>
+      <c r="B55" s="188"/>
+      <c r="C55" s="174"/>
       <c r="D55" s="54" t="s">
         <v>63</v>
       </c>
@@ -3554,12 +3552,12 @@
       <c r="H55" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="132"/>
-      <c r="J55" s="144"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="201"/>
       <c r="K55" s="99"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3581,13 +3579,13 @@
       <c r="M56" s="47"/>
     </row>
     <row r="57" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="148" t="s">
+      <c r="A57" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="163">
+      <c r="B57" s="189">
         <v>44466</v>
       </c>
-      <c r="C57" s="179" t="s">
+      <c r="C57" s="177" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="50" t="s">
@@ -3597,28 +3595,28 @@
         <v>2</v>
       </c>
       <c r="F57" s="50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G57" s="51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H57" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="I57" s="140"/>
-      <c r="J57" s="140"/>
+        <v>130</v>
+      </c>
+      <c r="I57" s="195"/>
+      <c r="J57" s="195"/>
       <c r="K57" s="62"/>
       <c r="L57" s="50"/>
       <c r="M57" s="50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="149"/>
-      <c r="B58" s="164"/>
-      <c r="C58" s="179"/>
+      <c r="A58" s="182"/>
+      <c r="B58" s="190"/>
+      <c r="C58" s="177"/>
       <c r="D58" s="50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E58" s="116">
         <v>3</v>
@@ -3628,16 +3626,16 @@
         <v>14</v>
       </c>
       <c r="H58" s="97"/>
-      <c r="I58" s="141"/>
-      <c r="J58" s="141"/>
+      <c r="I58" s="196"/>
+      <c r="J58" s="196"/>
       <c r="K58" s="64"/>
       <c r="L58" s="97"/>
       <c r="M58" s="97" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="69" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="149"/>
+      <c r="A59" s="182"/>
       <c r="B59" s="66">
         <v>44467</v>
       </c>
@@ -3652,60 +3650,60 @@
       <c r="I59" s="70"/>
       <c r="J59" s="70"/>
       <c r="K59" s="109" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
       <c r="N59" s="34"/>
     </row>
     <row r="60" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="149"/>
-      <c r="B60" s="153">
+      <c r="A60" s="182"/>
+      <c r="B60" s="185">
         <v>44468</v>
       </c>
-      <c r="C60" s="167" t="s">
+      <c r="C60" s="170" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E60" s="119">
         <v>3</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G60" s="57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H60" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
+        <v>131</v>
+      </c>
+      <c r="I60" s="197"/>
+      <c r="J60" s="197"/>
+      <c r="K60" s="197"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="149"/>
-      <c r="B61" s="154"/>
-      <c r="C61" s="167"/>
+      <c r="A61" s="182"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="170"/>
       <c r="D61" s="54"/>
       <c r="E61" s="119"/>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
-      <c r="I61" s="130"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="130"/>
+      <c r="I61" s="198"/>
+      <c r="J61" s="198"/>
+      <c r="K61" s="198"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
     </row>
     <row r="62" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="149"/>
+      <c r="A62" s="182"/>
       <c r="B62" s="67">
         <v>44469</v>
       </c>
@@ -3724,7 +3722,7 @@
       <c r="M62" s="97"/>
     </row>
     <row r="63" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="149"/>
+      <c r="A63" s="182"/>
       <c r="B63" s="124">
         <v>44470</v>
       </c>
@@ -3732,24 +3730,24 @@
         <v>12</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E63" s="119">
         <v>4</v>
       </c>
       <c r="F63" s="57"/>
       <c r="G63" s="57" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H63" s="57"/>
       <c r="I63" s="123"/>
       <c r="J63" s="123"/>
       <c r="K63" s="126" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L63" s="108"/>
       <c r="M63" s="57" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3786,32 +3784,69 @@
       <c r="M65" s="69"/>
     </row>
     <row r="66" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="181" t="s">
+      <c r="A66" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="182"/>
-      <c r="C66" s="183"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="162"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="87">
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K35:K38"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A66:C66"/>
@@ -3828,60 +3863,23 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="A24:A33"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K35:K38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J35" r:id="rId1" xr:uid="{6F56A95F-302D-430F-BB93-125813A81349}"/>
@@ -3995,7 +3993,7 @@
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="211"/>
-      <c r="B9" s="213" t="s">
+      <c r="B9" s="205" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -4019,7 +4017,7 @@
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="211"/>
-      <c r="B10" s="214"/>
+      <c r="B10" s="220"/>
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4039,7 +4037,7 @@
     </row>
     <row r="11" spans="1:10" ht="51.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="211"/>
-      <c r="B11" s="214"/>
+      <c r="B11" s="220"/>
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
@@ -4063,7 +4061,7 @@
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="211"/>
-      <c r="B12" s="215"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
@@ -4083,7 +4081,7 @@
     </row>
     <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="211"/>
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="222" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -4107,7 +4105,7 @@
     </row>
     <row r="14" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="211"/>
-      <c r="B14" s="217"/>
+      <c r="B14" s="223"/>
       <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
@@ -4127,7 +4125,7 @@
     </row>
     <row r="15" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="211"/>
-      <c r="B15" s="218"/>
+      <c r="B15" s="224"/>
       <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4147,7 +4145,7 @@
     </row>
     <row r="16" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="211"/>
-      <c r="B16" s="213" t="s">
+      <c r="B16" s="205" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -4165,7 +4163,7 @@
     </row>
     <row r="17" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="211"/>
-      <c r="B17" s="215"/>
+      <c r="B17" s="221"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="14"/>
@@ -4181,7 +4179,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="211"/>
-      <c r="B18" s="216" t="s">
+      <c r="B18" s="222" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -4203,7 +4201,7 @@
     </row>
     <row r="19" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="211"/>
-      <c r="B19" s="217"/>
+      <c r="B19" s="223"/>
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
@@ -4222,8 +4220,8 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="212"/>
-      <c r="B20" s="218"/>
+      <c r="A20" s="219"/>
+      <c r="B20" s="224"/>
       <c r="C20" s="30" t="s">
         <v>41</v>
       </c>
@@ -4242,10 +4240,10 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="204">
+      <c r="A21" s="213">
         <v>35</v>
       </c>
-      <c r="B21" s="207" t="s">
+      <c r="B21" s="217" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9"/>
@@ -4264,8 +4262,8 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="205"/>
-      <c r="B22" s="208"/>
+      <c r="A22" s="212"/>
+      <c r="B22" s="206"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="15"/>
@@ -4278,7 +4276,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="205"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
@@ -4292,8 +4290,8 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="205"/>
-      <c r="B24" s="207" t="s">
+      <c r="A24" s="212"/>
+      <c r="B24" s="217" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9"/>
@@ -4312,8 +4310,8 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="205"/>
-      <c r="B25" s="208"/>
+      <c r="A25" s="212"/>
+      <c r="B25" s="206"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
       <c r="E25" s="9"/>
@@ -4324,8 +4322,8 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="205"/>
-      <c r="B26" s="207" t="s">
+      <c r="A26" s="212"/>
+      <c r="B26" s="217" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4342,8 +4340,8 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="205"/>
-      <c r="B27" s="208"/>
+      <c r="A27" s="212"/>
+      <c r="B27" s="206"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="15"/>
@@ -4354,8 +4352,8 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="205"/>
-      <c r="B28" s="209" t="s">
+      <c r="A28" s="212"/>
+      <c r="B28" s="225" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="9"/>
@@ -4368,8 +4366,8 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="206"/>
-      <c r="B29" s="210"/>
+      <c r="A29" s="216"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="21"/>
@@ -4380,10 +4378,10 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="224">
+      <c r="A30" s="210">
         <v>36</v>
       </c>
-      <c r="B30" s="213" t="s">
+      <c r="B30" s="205" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="23"/>
@@ -4403,7 +4401,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="211"/>
-      <c r="B31" s="208"/>
+      <c r="B31" s="206"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="14"/>
@@ -4414,7 +4412,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="205"/>
+      <c r="A32" s="212"/>
       <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
@@ -4428,7 +4426,7 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="205"/>
+      <c r="A33" s="212"/>
       <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
@@ -4446,8 +4444,8 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="205"/>
-      <c r="B34" s="213" t="s">
+      <c r="A34" s="212"/>
+      <c r="B34" s="205" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -4464,8 +4462,8 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="205"/>
-      <c r="B35" s="208"/>
+      <c r="A35" s="212"/>
+      <c r="B35" s="206"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="14"/>
@@ -4476,8 +4474,8 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="205"/>
-      <c r="B36" s="213" t="s">
+      <c r="A36" s="212"/>
+      <c r="B36" s="205" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="23"/>
@@ -4496,8 +4494,8 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="205"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="212"/>
+      <c r="B37" s="206"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -4508,10 +4506,10 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="204">
+      <c r="A38" s="213">
         <v>37</v>
       </c>
-      <c r="B38" s="207" t="s">
+      <c r="B38" s="217" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="9"/>
@@ -4524,8 +4522,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="225"/>
-      <c r="B39" s="208"/>
+      <c r="A39" s="214"/>
+      <c r="B39" s="206"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="15"/>
@@ -4536,7 +4534,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="226"/>
+      <c r="A40" s="215"/>
       <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
@@ -4550,7 +4548,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="226"/>
+      <c r="A41" s="215"/>
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4564,8 +4562,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="226"/>
-      <c r="B42" s="207" t="s">
+      <c r="A42" s="215"/>
+      <c r="B42" s="217" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4582,8 +4580,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="226"/>
-      <c r="B43" s="227"/>
+      <c r="A43" s="215"/>
+      <c r="B43" s="218"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4594,8 +4592,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="226"/>
-      <c r="B44" s="208"/>
+      <c r="A44" s="215"/>
+      <c r="B44" s="206"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="20"/>
@@ -4606,8 +4604,8 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="226"/>
-      <c r="B45" s="207" t="s">
+      <c r="A45" s="215"/>
+      <c r="B45" s="217" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="9"/>
@@ -4620,8 +4618,8 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="205"/>
-      <c r="B46" s="227"/>
+      <c r="A46" s="212"/>
+      <c r="B46" s="218"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4632,8 +4630,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="206"/>
-      <c r="B47" s="208"/>
+      <c r="A47" s="216"/>
+      <c r="B47" s="206"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="20"/>
@@ -4644,10 +4642,10 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="219">
+      <c r="A48" s="203">
         <v>38</v>
       </c>
-      <c r="B48" s="213" t="s">
+      <c r="B48" s="205" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="23"/>
@@ -4660,8 +4658,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="219"/>
-      <c r="B49" s="208"/>
+      <c r="A49" s="203"/>
+      <c r="B49" s="206"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -4672,7 +4670,7 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="220"/>
+      <c r="A50" s="204"/>
       <c r="B50" s="23" t="s">
         <v>10</v>
       </c>
@@ -4686,7 +4684,7 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="220"/>
+      <c r="A51" s="204"/>
       <c r="B51" s="23" t="s">
         <v>13</v>
       </c>
@@ -4700,7 +4698,7 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="220"/>
+      <c r="A52" s="204"/>
       <c r="B52" s="23" t="s">
         <v>11</v>
       </c>
@@ -4718,8 +4716,8 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="220"/>
-      <c r="B53" s="219" t="s">
+      <c r="A53" s="204"/>
+      <c r="B53" s="203" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="17"/>
@@ -4732,8 +4730,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="220"/>
-      <c r="B54" s="220"/>
+      <c r="A54" s="204"/>
+      <c r="B54" s="204"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="22"/>
@@ -4744,7 +4742,7 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="221">
+      <c r="A55" s="207">
         <v>39</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -4760,7 +4758,7 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="222"/>
+      <c r="A56" s="208"/>
       <c r="B56" s="25" t="s">
         <v>10</v>
       </c>
@@ -4773,7 +4771,7 @@
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="222"/>
+      <c r="A57" s="208"/>
       <c r="B57" s="25" t="s">
         <v>13</v>
       </c>
@@ -4786,7 +4784,7 @@
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="222"/>
+      <c r="A58" s="208"/>
       <c r="B58" s="25" t="s">
         <v>11</v>
       </c>
@@ -4803,7 +4801,7 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="223"/>
+      <c r="A59" s="209"/>
       <c r="B59" s="26" t="s">
         <v>12</v>
       </c>
@@ -4817,6 +4815,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B53:B54"/>
@@ -4829,16 +4837,6 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4876,13 +4874,13 @@
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>136</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>140</v>
       </c>
       <c r="D2" s="37"/>
     </row>
@@ -4964,24 +4962,24 @@
     </row>
     <row r="2" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">

--- a/01_studieplan_och_schema.xlsx
+++ b/01_studieplan_och_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexanderHagelborn\code\ec-python-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855568D3-509F-47A5-A0E1-10D05EDD1726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC6F47A-3684-4035-B6CF-2C57DEDE0BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="181">
   <si>
     <t>Utbildning: Data Scientist</t>
   </si>
@@ -576,7 +576,13 @@
     <t>https://www.youtube.com/watch?v=NvrpuBAMddw, https://www.youtube.com/watch?v=llF06RLZbBY</t>
   </si>
   <si>
-    <t>Koppla pandas och SQLite</t>
+    <t>Koppla pandas och SQLite + Streamlit</t>
+  </si>
+  <si>
+    <t>Uppgift 1-5 I exercises.txt</t>
+  </si>
+  <si>
+    <t>PDS 4.14 Visualization with Seaborn</t>
   </si>
 </sst>
 </file>
@@ -1347,6 +1353,199 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1377,208 +1576,55 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1589,55 +1635,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2012,7 +2018,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2077,7 +2083,7 @@
       <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="156" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="75">
@@ -2099,11 +2105,11 @@
       <c r="N2" s="77"/>
     </row>
     <row r="3" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="144"/>
-      <c r="B3" s="164">
+      <c r="A3" s="156"/>
+      <c r="B3" s="185">
         <v>44432</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="184" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="51" t="s">
@@ -2121,10 +2127,10 @@
       <c r="H3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="163" t="s">
+      <c r="J3" s="184" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="79"/>
@@ -2137,9 +2143,9 @@
       <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="144"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="163"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="184"/>
       <c r="D4" s="51" t="s">
         <v>22</v>
       </c>
@@ -2155,8 +2161,8 @@
       <c r="H4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
       <c r="K4" s="79"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51" t="s">
@@ -2165,9 +2171,9 @@
       <c r="N4" s="77"/>
     </row>
     <row r="5" spans="1:14" ht="27.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="144"/>
-      <c r="B5" s="164"/>
-      <c r="C5" s="163"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="184"/>
       <c r="D5" s="51" t="s">
         <v>58</v>
       </c>
@@ -2183,8 +2189,8 @@
       <c r="H5" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
       <c r="K5" s="79"/>
       <c r="L5" s="51" t="s">
         <v>38</v>
@@ -2195,11 +2201,11 @@
       <c r="N5" s="77"/>
     </row>
     <row r="6" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="144"/>
-      <c r="B6" s="166">
+      <c r="A6" s="156"/>
+      <c r="B6" s="187">
         <v>44433</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="191" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="55" t="s">
@@ -2217,10 +2223,10 @@
       <c r="H6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="159" t="s">
+      <c r="I6" s="180" t="s">
         <v>142</v>
       </c>
-      <c r="J6" s="159" t="s">
+      <c r="J6" s="180" t="s">
         <v>48</v>
       </c>
       <c r="K6" s="56"/>
@@ -2231,9 +2237,9 @@
       <c r="N6" s="77"/>
     </row>
     <row r="7" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="144"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="150"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="55" t="s">
         <v>59</v>
       </c>
@@ -2245,8 +2251,8 @@
       <c r="H7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="56"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55" t="s">
@@ -2255,7 +2261,7 @@
       <c r="N7" s="77"/>
     </row>
     <row r="8" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="144"/>
+      <c r="A8" s="156"/>
       <c r="B8" s="78">
         <v>44434</v>
       </c>
@@ -2287,11 +2293,11 @@
       <c r="N8" s="77"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="144"/>
-      <c r="B9" s="166">
+      <c r="A9" s="156"/>
+      <c r="B9" s="187">
         <v>44435</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="191" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -2309,14 +2315,14 @@
       <c r="H9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="159" t="s">
+      <c r="I9" s="180" t="s">
         <v>145</v>
       </c>
-      <c r="J9" s="159" t="s">
+      <c r="J9" s="180" t="s">
         <v>140</v>
       </c>
       <c r="K9" s="56"/>
-      <c r="L9" s="191" t="s">
+      <c r="L9" s="131" t="s">
         <v>146</v>
       </c>
       <c r="M9" s="55" t="s">
@@ -2325,9 +2331,9 @@
       <c r="N9" s="77"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="144"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="150"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="191"/>
       <c r="D10" s="55" t="s">
         <v>63</v>
       </c>
@@ -2339,10 +2345,10 @@
       <c r="H10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="56"/>
-      <c r="L10" s="192"/>
+      <c r="L10" s="132"/>
       <c r="M10" s="55" t="s">
         <v>137</v>
       </c>
@@ -2368,13 +2374,13 @@
       <c r="N11" s="77"/>
     </row>
     <row r="12" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="142">
+      <c r="B12" s="160">
         <v>44438</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -2392,13 +2398,13 @@
       <c r="H12" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="I12" s="139" t="s">
+      <c r="I12" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="J12" s="139" t="s">
+      <c r="J12" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="134" t="s">
+      <c r="K12" s="199" t="s">
         <v>118</v>
       </c>
       <c r="L12" s="53"/>
@@ -2408,9 +2414,9 @@
       <c r="N12" s="77"/>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="145"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="156"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="50" t="s">
         <v>63</v>
       </c>
@@ -2422,9 +2428,9 @@
       <c r="H13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="135"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="200"/>
       <c r="L13" s="51"/>
       <c r="M13" s="51" t="s">
         <v>137</v>
@@ -2432,9 +2438,9 @@
       <c r="N13" s="77"/>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="145"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="156"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="50" t="s">
         <v>103</v>
       </c>
@@ -2446,9 +2452,9 @@
       <c r="H14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="135"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="200"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51" t="s">
         <v>137</v>
@@ -2456,9 +2462,9 @@
       <c r="N14" s="77"/>
     </row>
     <row r="15" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="145"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="157"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
@@ -2474,9 +2480,9 @@
       <c r="H15" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="136"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="201"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51" t="s">
         <v>137</v>
@@ -2484,7 +2490,7 @@
       <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="145"/>
+      <c r="A16" s="157"/>
       <c r="B16" s="75">
         <v>44439</v>
       </c>
@@ -2508,11 +2514,11 @@
       <c r="N16" s="77"/>
     </row>
     <row r="17" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="145"/>
-      <c r="B17" s="165">
+      <c r="A17" s="157"/>
+      <c r="B17" s="150">
         <v>44440</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="55" t="s">
@@ -2530,23 +2536,23 @@
       <c r="H17" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="191" t="s">
+      <c r="I17" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="J17" s="191" t="s">
+      <c r="J17" s="131" t="s">
         <v>166</v>
       </c>
       <c r="K17" s="95"/>
-      <c r="L17" s="191"/>
+      <c r="L17" s="131"/>
       <c r="M17" s="55" t="s">
         <v>137</v>
       </c>
       <c r="N17" s="77"/>
     </row>
     <row r="18" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="145"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="152"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="55" t="s">
         <v>59</v>
       </c>
@@ -2560,21 +2566,21 @@
       <c r="H18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
       <c r="K18" s="96"/>
-      <c r="L18" s="192"/>
+      <c r="L18" s="132"/>
       <c r="M18" s="55" t="s">
         <v>137</v>
       </c>
       <c r="N18" s="77"/>
     </row>
     <row r="19" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="145"/>
-      <c r="B19" s="142">
+      <c r="A19" s="157"/>
+      <c r="B19" s="160">
         <v>44441</v>
       </c>
-      <c r="C19" s="153" t="s">
+      <c r="C19" s="174" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="51" t="s">
@@ -2588,41 +2594,41 @@
         <v>14</v>
       </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="193" t="s">
+      <c r="I19" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="J19" s="193" t="s">
+      <c r="J19" s="133" t="s">
         <v>168</v>
       </c>
       <c r="K19" s="93"/>
-      <c r="L19" s="193"/>
+      <c r="L19" s="133"/>
       <c r="M19" s="51" t="s">
         <v>159</v>
       </c>
       <c r="N19" s="77"/>
     </row>
     <row r="20" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="145"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="154"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="176"/>
       <c r="D20" s="51"/>
       <c r="E20" s="61"/>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
       <c r="K20" s="94"/>
-      <c r="L20" s="194"/>
+      <c r="L20" s="134"/>
       <c r="M20" s="51"/>
       <c r="N20" s="77"/>
     </row>
     <row r="21" spans="1:14" ht="38.85" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="145"/>
-      <c r="B21" s="148">
+      <c r="A21" s="157"/>
+      <c r="B21" s="190">
         <v>44442</v>
       </c>
-      <c r="C21" s="155" t="s">
+      <c r="C21" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -2640,7 +2646,7 @@
       <c r="H21" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="191" t="s">
+      <c r="I21" s="131" t="s">
         <v>165</v>
       </c>
       <c r="J21" s="128" t="s">
@@ -2654,9 +2660,9 @@
       <c r="N21" s="77"/>
     </row>
     <row r="22" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="146"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="152"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="173"/>
       <c r="D22" s="55" t="s">
         <v>63</v>
       </c>
@@ -2668,7 +2674,7 @@
       <c r="H22" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="192"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
@@ -2697,13 +2703,13 @@
       <c r="N23" s="77"/>
     </row>
     <row r="24" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="168" t="s">
+      <c r="A24" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="142">
+      <c r="B24" s="160">
         <v>44445</v>
       </c>
-      <c r="C24" s="153" t="s">
+      <c r="C24" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="53" t="s">
@@ -2721,11 +2727,11 @@
       <c r="H24" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="193" t="s">
+      <c r="I24" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="193"/>
-      <c r="K24" s="129" t="s">
+      <c r="J24" s="133"/>
+      <c r="K24" s="194" t="s">
         <v>112</v>
       </c>
       <c r="L24" s="51"/>
@@ -2735,9 +2741,9 @@
       <c r="N24" s="77"/>
     </row>
     <row r="25" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="144"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="156"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="175"/>
       <c r="D25" s="51" t="s">
         <v>81</v>
       </c>
@@ -2751,9 +2757,9 @@
       <c r="H25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="130"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="195"/>
       <c r="L25" s="51"/>
       <c r="M25" s="51" t="s">
         <v>100</v>
@@ -2761,9 +2767,9 @@
       <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="144"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="156"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="51" t="s">
         <v>110</v>
       </c>
@@ -2777,9 +2783,9 @@
       <c r="H26" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="130"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="195"/>
       <c r="L26" s="51"/>
       <c r="M26" s="51" t="s">
         <v>100</v>
@@ -2787,9 +2793,9 @@
       <c r="N26" s="77"/>
     </row>
     <row r="27" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="144"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="156"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="175"/>
       <c r="D27" s="51" t="s">
         <v>30</v>
       </c>
@@ -2805,9 +2811,9 @@
       <c r="H27" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="199"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="131"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="196"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51" t="s">
         <v>100</v>
@@ -2815,7 +2821,7 @@
       <c r="N27" s="77"/>
     </row>
     <row r="28" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="145"/>
+      <c r="A28" s="157"/>
       <c r="B28" s="75">
         <v>44446</v>
       </c>
@@ -2836,11 +2842,11 @@
       <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="145"/>
-      <c r="B29" s="165">
+      <c r="A29" s="157"/>
+      <c r="B29" s="150">
         <v>44447</v>
       </c>
-      <c r="C29" s="151" t="s">
+      <c r="C29" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -2858,13 +2864,13 @@
       <c r="H29" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="191" t="s">
+      <c r="I29" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="J29" s="191" t="s">
+      <c r="J29" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="K29" s="137" t="s">
+      <c r="K29" s="202" t="s">
         <v>119</v>
       </c>
       <c r="L29" s="55"/>
@@ -2874,9 +2880,9 @@
       <c r="N29" s="77"/>
     </row>
     <row r="30" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="145"/>
-      <c r="B30" s="183"/>
-      <c r="C30" s="169"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="166"/>
       <c r="D30" s="55" t="s">
         <v>59</v>
       </c>
@@ -2890,9 +2896,9 @@
       <c r="H30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="192"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="138"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="203"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55" t="s">
         <v>100</v>
@@ -2900,7 +2906,7 @@
       <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="145"/>
+      <c r="A31" s="157"/>
       <c r="B31" s="88">
         <v>44448</v>
       </c>
@@ -2928,11 +2934,11 @@
       <c r="N31" s="77"/>
     </row>
     <row r="32" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="145"/>
-      <c r="B32" s="165">
+      <c r="A32" s="157"/>
+      <c r="B32" s="150">
         <v>44449</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="172" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="55" t="s">
@@ -2950,19 +2956,19 @@
       <c r="H32" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="191" t="s">
+      <c r="I32" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="J32" s="191"/>
+      <c r="J32" s="131"/>
       <c r="K32" s="95"/>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
       <c r="N32" s="77"/>
     </row>
     <row r="33" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="145"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="152"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="173"/>
       <c r="D33" s="55" t="s">
         <v>63</v>
       </c>
@@ -2976,8 +2982,8 @@
       <c r="H33" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
       <c r="K33" s="96"/>
       <c r="L33" s="55"/>
       <c r="M33" s="55"/>
@@ -3003,13 +3009,13 @@
       <c r="N34" s="77"/>
     </row>
     <row r="35" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="168" t="s">
+      <c r="A35" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="142">
+      <c r="B35" s="160">
         <v>44452</v>
       </c>
-      <c r="C35" s="153" t="s">
+      <c r="C35" s="174" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="52" t="s">
@@ -3027,13 +3033,13 @@
       <c r="H35" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="I35" s="139" t="s">
+      <c r="I35" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="J35" s="202" t="s">
+      <c r="J35" s="136" t="s">
         <v>150</v>
       </c>
-      <c r="K35" s="139" t="s">
+      <c r="K35" s="137" t="s">
         <v>120</v>
       </c>
       <c r="L35" s="51"/>
@@ -3042,9 +3048,9 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="144"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="156"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="175"/>
       <c r="D36" s="50" t="s">
         <v>63</v>
       </c>
@@ -3056,9 +3062,9 @@
       <c r="H36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="140"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="140"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="138"/>
       <c r="L36" s="51"/>
       <c r="M36" s="51" t="s">
         <v>137</v>
@@ -3066,9 +3072,9 @@
       <c r="N36" s="77"/>
     </row>
     <row r="37" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="144"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="156"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="175"/>
       <c r="D37" s="50" t="s">
         <v>103</v>
       </c>
@@ -3080,9 +3086,9 @@
       <c r="H37" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="140"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="140"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="138"/>
       <c r="L37" s="51"/>
       <c r="M37" s="51" t="s">
         <v>137</v>
@@ -3090,9 +3096,9 @@
       <c r="N37" s="77"/>
     </row>
     <row r="38" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="144"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="154"/>
+      <c r="A38" s="156"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="176"/>
       <c r="D38" s="50" t="s">
         <v>30</v>
       </c>
@@ -3108,9 +3114,9 @@
       <c r="H38" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="I38" s="141"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="141"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="139"/>
       <c r="L38" s="51"/>
       <c r="M38" s="51" t="s">
         <v>137</v>
@@ -3118,7 +3124,7 @@
       <c r="N38" s="77"/>
     </row>
     <row r="39" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="145"/>
+      <c r="A39" s="157"/>
       <c r="B39" s="90">
         <v>44453</v>
       </c>
@@ -3138,11 +3144,11 @@
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="145"/>
-      <c r="B40" s="165">
+      <c r="A40" s="157"/>
+      <c r="B40" s="150">
         <v>44454</v>
       </c>
-      <c r="C40" s="151" t="s">
+      <c r="C40" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="55" t="s">
@@ -3160,8 +3166,8 @@
       <c r="H40" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="I40" s="191"/>
-      <c r="J40" s="191"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
       <c r="K40" s="95"/>
       <c r="L40" s="55"/>
       <c r="M40" s="55" t="s">
@@ -3169,9 +3175,9 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="145"/>
-      <c r="B41" s="183"/>
-      <c r="C41" s="169"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="166"/>
       <c r="D41" s="55" t="s">
         <v>59</v>
       </c>
@@ -3183,8 +3189,8 @@
       <c r="H41" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="192"/>
-      <c r="J41" s="192"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
       <c r="K41" s="96"/>
       <c r="L41" s="55"/>
       <c r="M41" s="55" t="s">
@@ -3193,7 +3199,7 @@
       <c r="N41" s="77"/>
     </row>
     <row r="42" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="145"/>
+      <c r="A42" s="157"/>
       <c r="B42" s="88">
         <v>44455</v>
       </c>
@@ -3221,11 +3227,11 @@
       <c r="N42" s="77"/>
     </row>
     <row r="43" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="145"/>
-      <c r="B43" s="166">
+      <c r="A43" s="157"/>
+      <c r="B43" s="187">
         <v>44456</v>
       </c>
-      <c r="C43" s="175" t="s">
+      <c r="C43" s="177" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="55" t="s">
@@ -3243,9 +3249,9 @@
       <c r="H43" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="I43" s="191"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="132" t="s">
+      <c r="I43" s="131"/>
+      <c r="J43" s="131"/>
+      <c r="K43" s="197" t="s">
         <v>113</v>
       </c>
       <c r="L43" s="55"/>
@@ -3255,9 +3261,9 @@
       <c r="N43" s="77"/>
     </row>
     <row r="44" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="145"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="175"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="177"/>
       <c r="D44" s="55" t="s">
         <v>63</v>
       </c>
@@ -3269,9 +3275,9 @@
       <c r="H44" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="192"/>
-      <c r="J44" s="192"/>
-      <c r="K44" s="133"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="198"/>
       <c r="L44" s="55"/>
       <c r="M44" s="55" t="s">
         <v>100</v>
@@ -3297,13 +3303,13 @@
       <c r="M45" s="47"/>
     </row>
     <row r="46" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="178" t="s">
+      <c r="A46" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="184">
+      <c r="B46" s="152">
         <v>44459</v>
       </c>
-      <c r="C46" s="176" t="s">
+      <c r="C46" s="178" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="52" t="s">
@@ -3321,10 +3327,10 @@
       <c r="H46" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="I46" s="193" t="s">
+      <c r="I46" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="J46" s="227" t="s">
+      <c r="J46" s="142" t="s">
         <v>177</v>
       </c>
       <c r="K46" s="62"/>
@@ -3334,9 +3340,9 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="179"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="176"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="178"/>
       <c r="D47" s="50" t="s">
         <v>63</v>
       </c>
@@ -3348,8 +3354,8 @@
       <c r="H47" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="199"/>
-      <c r="J47" s="227"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="142"/>
       <c r="K47" s="63"/>
       <c r="L47" s="50"/>
       <c r="M47" s="50" t="s">
@@ -3357,9 +3363,9 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="179"/>
-      <c r="B48" s="184"/>
-      <c r="C48" s="176"/>
+      <c r="A48" s="146"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="178"/>
       <c r="D48" s="50" t="s">
         <v>110</v>
       </c>
@@ -3371,8 +3377,8 @@
       <c r="H48" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="199"/>
-      <c r="J48" s="227"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="142"/>
       <c r="K48" s="63"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50" t="s">
@@ -3380,9 +3386,9 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="179"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="176"/>
+      <c r="A49" s="146"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="178"/>
       <c r="D49" s="50" t="s">
         <v>30</v>
       </c>
@@ -3396,8 +3402,8 @@
       <c r="H49" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I49" s="194"/>
-      <c r="J49" s="227"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="142"/>
       <c r="K49" s="64"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50" t="s">
@@ -3405,7 +3411,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="69" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="179"/>
+      <c r="A50" s="146"/>
       <c r="B50" s="66">
         <v>44460</v>
       </c>
@@ -3424,11 +3430,11 @@
       <c r="M50" s="47"/>
     </row>
     <row r="51" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="179"/>
-      <c r="B51" s="185">
+      <c r="A51" s="146"/>
+      <c r="B51" s="153">
         <v>44461</v>
       </c>
-      <c r="C51" s="171" t="s">
+      <c r="C51" s="168" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="54" t="s">
@@ -3446,8 +3452,12 @@
       <c r="H51" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="I51" s="191"/>
-      <c r="J51" s="200"/>
+      <c r="I51" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="143" t="s">
+        <v>180</v>
+      </c>
       <c r="K51" s="98"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54" t="s">
@@ -3455,9 +3465,9 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="179"/>
-      <c r="B52" s="186"/>
-      <c r="C52" s="172"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="169"/>
       <c r="D52" s="54" t="s">
         <v>59</v>
       </c>
@@ -3469,8 +3479,8 @@
       <c r="H52" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="192"/>
-      <c r="J52" s="201"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="144"/>
       <c r="K52" s="99"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54" t="s">
@@ -3478,7 +3488,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="179"/>
+      <c r="A53" s="146"/>
       <c r="B53" s="67">
         <v>44462</v>
       </c>
@@ -3505,11 +3515,11 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="179"/>
-      <c r="B54" s="187">
+      <c r="A54" s="146"/>
+      <c r="B54" s="158">
         <v>44463</v>
       </c>
-      <c r="C54" s="173" t="s">
+      <c r="C54" s="170" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="54" t="s">
@@ -3527,8 +3537,8 @@
       <c r="H54" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="I54" s="191"/>
-      <c r="J54" s="200"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="143"/>
       <c r="K54" s="98"/>
       <c r="L54" s="55" t="s">
         <v>102</v>
@@ -3538,9 +3548,9 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="180"/>
-      <c r="B55" s="188"/>
-      <c r="C55" s="174"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="171"/>
       <c r="D55" s="54" t="s">
         <v>63</v>
       </c>
@@ -3552,8 +3562,8 @@
       <c r="H55" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="192"/>
-      <c r="J55" s="201"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="144"/>
       <c r="K55" s="99"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54" t="s">
@@ -3579,13 +3589,13 @@
       <c r="M56" s="47"/>
     </row>
     <row r="57" spans="1:14" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="181" t="s">
+      <c r="A57" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="189">
+      <c r="B57" s="163">
         <v>44466</v>
       </c>
-      <c r="C57" s="177" t="s">
+      <c r="C57" s="179" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="50" t="s">
@@ -3603,8 +3613,8 @@
       <c r="H57" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I57" s="195"/>
-      <c r="J57" s="195"/>
+      <c r="I57" s="140"/>
+      <c r="J57" s="140"/>
       <c r="K57" s="62"/>
       <c r="L57" s="50"/>
       <c r="M57" s="50" t="s">
@@ -3612,9 +3622,9 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="182"/>
-      <c r="B58" s="190"/>
-      <c r="C58" s="177"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="179"/>
       <c r="D58" s="50" t="s">
         <v>114</v>
       </c>
@@ -3626,8 +3636,8 @@
         <v>14</v>
       </c>
       <c r="H58" s="97"/>
-      <c r="I58" s="196"/>
-      <c r="J58" s="196"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="141"/>
       <c r="K58" s="64"/>
       <c r="L58" s="97"/>
       <c r="M58" s="97" t="s">
@@ -3635,7 +3645,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="69" customFormat="1" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="182"/>
+      <c r="A59" s="149"/>
       <c r="B59" s="66">
         <v>44467</v>
       </c>
@@ -3657,11 +3667,11 @@
       <c r="N59" s="34"/>
     </row>
     <row r="60" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="182"/>
-      <c r="B60" s="185">
+      <c r="A60" s="149"/>
+      <c r="B60" s="153">
         <v>44468</v>
       </c>
-      <c r="C60" s="170" t="s">
+      <c r="C60" s="167" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="54" t="s">
@@ -3679,31 +3689,31 @@
       <c r="H60" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="I60" s="197"/>
-      <c r="J60" s="197"/>
-      <c r="K60" s="197"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="129"/>
       <c r="L60" s="57"/>
       <c r="M60" s="57" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="182"/>
-      <c r="B61" s="186"/>
-      <c r="C61" s="170"/>
+      <c r="A61" s="149"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="167"/>
       <c r="D61" s="54"/>
       <c r="E61" s="119"/>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
-      <c r="I61" s="198"/>
-      <c r="J61" s="198"/>
-      <c r="K61" s="198"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
     </row>
     <row r="62" spans="1:14" ht="12.9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="182"/>
+      <c r="A62" s="149"/>
       <c r="B62" s="67">
         <v>44469</v>
       </c>
@@ -3722,7 +3732,7 @@
       <c r="M62" s="97"/>
     </row>
     <row r="63" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="182"/>
+      <c r="A63" s="149"/>
       <c r="B63" s="124">
         <v>44470</v>
       </c>
@@ -3784,15 +3794,86 @@
       <c r="M65" s="69"/>
     </row>
     <row r="66" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="160" t="s">
+      <c r="A66" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="161"/>
-      <c r="C66" s="162"/>
+      <c r="B66" s="182"/>
+      <c r="C66" s="183"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="87">
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K35:K38"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A46:A55"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
     <mergeCell ref="K60:K61"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="L17:L18"/>
@@ -3809,77 +3890,6 @@
     <mergeCell ref="J43:J44"/>
     <mergeCell ref="I35:I38"/>
     <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K35:K38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J35" r:id="rId1" xr:uid="{6F56A95F-302D-430F-BB93-125813A81349}"/>
@@ -3993,7 +4003,7 @@
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="211"/>
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="213" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -4017,7 +4027,7 @@
     </row>
     <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="211"/>
-      <c r="B10" s="220"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
@@ -4037,7 +4047,7 @@
     </row>
     <row r="11" spans="1:10" ht="51.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="211"/>
-      <c r="B11" s="220"/>
+      <c r="B11" s="214"/>
       <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
@@ -4061,7 +4071,7 @@
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="211"/>
-      <c r="B12" s="221"/>
+      <c r="B12" s="215"/>
       <c r="C12" s="17" t="s">
         <v>40</v>
       </c>
@@ -4081,7 +4091,7 @@
     </row>
     <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="211"/>
-      <c r="B13" s="222" t="s">
+      <c r="B13" s="216" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -4105,7 +4115,7 @@
     </row>
     <row r="14" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="211"/>
-      <c r="B14" s="223"/>
+      <c r="B14" s="217"/>
       <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
@@ -4125,7 +4135,7 @@
     </row>
     <row r="15" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="211"/>
-      <c r="B15" s="224"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="30" t="s">
         <v>41</v>
       </c>
@@ -4145,7 +4155,7 @@
     </row>
     <row r="16" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="211"/>
-      <c r="B16" s="205" t="s">
+      <c r="B16" s="213" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -4163,7 +4173,7 @@
     </row>
     <row r="17" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="211"/>
-      <c r="B17" s="221"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="14"/>
@@ -4179,7 +4189,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="211"/>
-      <c r="B18" s="222" t="s">
+      <c r="B18" s="216" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -4201,7 +4211,7 @@
     </row>
     <row r="19" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="211"/>
-      <c r="B19" s="223"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
@@ -4220,8 +4230,8 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="219"/>
-      <c r="B20" s="224"/>
+      <c r="A20" s="212"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="30" t="s">
         <v>41</v>
       </c>
@@ -4240,10 +4250,10 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="213">
+      <c r="A21" s="204">
         <v>35</v>
       </c>
-      <c r="B21" s="217" t="s">
+      <c r="B21" s="207" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9"/>
@@ -4262,8 +4272,8 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="212"/>
-      <c r="B22" s="206"/>
+      <c r="A22" s="205"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="15"/>
@@ -4276,7 +4286,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="212"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
@@ -4290,8 +4300,8 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="212"/>
-      <c r="B24" s="217" t="s">
+      <c r="A24" s="205"/>
+      <c r="B24" s="207" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9"/>
@@ -4310,8 +4320,8 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="212"/>
-      <c r="B25" s="206"/>
+      <c r="A25" s="205"/>
+      <c r="B25" s="208"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
       <c r="E25" s="9"/>
@@ -4322,8 +4332,8 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="212"/>
-      <c r="B26" s="217" t="s">
+      <c r="A26" s="205"/>
+      <c r="B26" s="207" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -4340,8 +4350,8 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="212"/>
-      <c r="B27" s="206"/>
+      <c r="A27" s="205"/>
+      <c r="B27" s="208"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="15"/>
@@ -4352,8 +4362,8 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="212"/>
-      <c r="B28" s="225" t="s">
+      <c r="A28" s="205"/>
+      <c r="B28" s="209" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="9"/>
@@ -4366,8 +4376,8 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="216"/>
-      <c r="B29" s="226"/>
+      <c r="A29" s="206"/>
+      <c r="B29" s="210"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="21"/>
@@ -4378,10 +4388,10 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="210">
+      <c r="A30" s="224">
         <v>36</v>
       </c>
-      <c r="B30" s="205" t="s">
+      <c r="B30" s="213" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="23"/>
@@ -4401,7 +4411,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="211"/>
-      <c r="B31" s="206"/>
+      <c r="B31" s="208"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="14"/>
@@ -4412,7 +4422,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="212"/>
+      <c r="A32" s="205"/>
       <c r="B32" s="23" t="s">
         <v>10</v>
       </c>
@@ -4426,7 +4436,7 @@
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="212"/>
+      <c r="A33" s="205"/>
       <c r="B33" s="23" t="s">
         <v>13</v>
       </c>
@@ -4444,8 +4454,8 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="212"/>
-      <c r="B34" s="205" t="s">
+      <c r="A34" s="205"/>
+      <c r="B34" s="213" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="23" t="s">
@@ -4462,8 +4472,8 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="212"/>
-      <c r="B35" s="206"/>
+      <c r="A35" s="205"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="14"/>
@@ -4474,8 +4484,8 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="212"/>
-      <c r="B36" s="205" t="s">
+      <c r="A36" s="205"/>
+      <c r="B36" s="213" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="23"/>
@@ -4494,8 +4504,8 @@
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="212"/>
-      <c r="B37" s="206"/>
+      <c r="A37" s="205"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -4506,10 +4516,10 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="213">
+      <c r="A38" s="204">
         <v>37</v>
       </c>
-      <c r="B38" s="217" t="s">
+      <c r="B38" s="207" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="9"/>
@@ -4522,8 +4532,8 @@
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="214"/>
-      <c r="B39" s="206"/>
+      <c r="A39" s="225"/>
+      <c r="B39" s="208"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="15"/>
@@ -4534,7 +4544,7 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="215"/>
+      <c r="A40" s="226"/>
       <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
@@ -4548,7 +4558,7 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="215"/>
+      <c r="A41" s="226"/>
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4562,8 +4572,8 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="215"/>
-      <c r="B42" s="217" t="s">
+      <c r="A42" s="226"/>
+      <c r="B42" s="207" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4580,8 +4590,8 @@
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="215"/>
-      <c r="B43" s="218"/>
+      <c r="A43" s="226"/>
+      <c r="B43" s="227"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4592,8 +4602,8 @@
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="215"/>
-      <c r="B44" s="206"/>
+      <c r="A44" s="226"/>
+      <c r="B44" s="208"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="20"/>
@@ -4604,8 +4614,8 @@
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="215"/>
-      <c r="B45" s="217" t="s">
+      <c r="A45" s="226"/>
+      <c r="B45" s="207" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="9"/>
@@ -4618,8 +4628,8 @@
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="212"/>
-      <c r="B46" s="218"/>
+      <c r="A46" s="205"/>
+      <c r="B46" s="227"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4630,8 +4640,8 @@
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="216"/>
-      <c r="B47" s="206"/>
+      <c r="A47" s="206"/>
+      <c r="B47" s="208"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="20"/>
@@ -4642,10 +4652,10 @@
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="203">
+      <c r="A48" s="219">
         <v>38</v>
       </c>
-      <c r="B48" s="205" t="s">
+      <c r="B48" s="213" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="23"/>
@@ -4658,8 +4668,8 @@
       <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="203"/>
-      <c r="B49" s="206"/>
+      <c r="A49" s="219"/>
+      <c r="B49" s="208"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -4670,7 +4680,7 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="204"/>
+      <c r="A50" s="220"/>
       <c r="B50" s="23" t="s">
         <v>10</v>
       </c>
@@ -4684,7 +4694,7 @@
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="204"/>
+      <c r="A51" s="220"/>
       <c r="B51" s="23" t="s">
         <v>13</v>
       </c>
@@ -4698,7 +4708,7 @@
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="204"/>
+      <c r="A52" s="220"/>
       <c r="B52" s="23" t="s">
         <v>11</v>
       </c>
@@ -4716,8 +4726,8 @@
       <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="204"/>
-      <c r="B53" s="203" t="s">
+      <c r="A53" s="220"/>
+      <c r="B53" s="219" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="17"/>
@@ -4730,8 +4740,8 @@
       <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="204"/>
-      <c r="B54" s="204"/>
+      <c r="A54" s="220"/>
+      <c r="B54" s="220"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="22"/>
@@ -4742,7 +4752,7 @@
       <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="207">
+      <c r="A55" s="221">
         <v>39</v>
       </c>
       <c r="B55" s="24" t="s">
@@ -4758,7 +4768,7 @@
       <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="208"/>
+      <c r="A56" s="222"/>
       <c r="B56" s="25" t="s">
         <v>10</v>
       </c>
@@ -4771,7 +4781,7 @@
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="208"/>
+      <c r="A57" s="222"/>
       <c r="B57" s="25" t="s">
         <v>13</v>
       </c>
@@ -4784,7 +4794,7 @@
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="208"/>
+      <c r="A58" s="222"/>
       <c r="B58" s="25" t="s">
         <v>11</v>
       </c>
@@ -4801,7 +4811,7 @@
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="209"/>
+      <c r="A59" s="223"/>
       <c r="B59" s="26" t="s">
         <v>12</v>
       </c>
@@ -4815,16 +4825,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B53:B54"/>
@@ -4837,6 +4837,16 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
